--- a/data_raw/input.xlsx
+++ b/data_raw/input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nobuakiohsumi/Lec_handson/wtrwks_rpt/data_raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC763A7A-D1D9-8447-B198-923D968FF591}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEDCAEA4-727B-DE42-8415-652075A21B2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15480" yWindow="500" windowWidth="13320" windowHeight="14420" xr2:uid="{11D640DA-DCFB-E544-8ADF-BF4092E26F00}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16420" activeTab="5" xr2:uid="{11D640DA-DCFB-E544-8ADF-BF4092E26F00}"/>
   </bookViews>
   <sheets>
     <sheet name="colony" sheetId="3" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="flc_ph" sheetId="5" r:id="rId3"/>
     <sheet name="ozone_calib" sheetId="1" r:id="rId4"/>
     <sheet name="ozone" sheetId="2" r:id="rId5"/>
+    <sheet name="manometer" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="70">
   <si>
     <t>班</t>
   </si>
@@ -203,12 +204,82 @@
   <si>
     <t>pH11</t>
   </si>
+  <si>
+    <t>班</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">ハｎ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>filter</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>time_15</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>time_30</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>time_45</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>time_60</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>time_75</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>time_90</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>time_95</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>time_105</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>time_120</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>manometer</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>tapwtr</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -230,13 +301,27 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -253,11 +338,26 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -596,7 +696,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3512933-894E-714A-A634-FA6A580DD15B}">
   <dimension ref="A1:G151"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
@@ -7432,4 +7532,1990 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70F5089C-337D-AB4E-A123-8CEBB17E04D3}">
+  <dimension ref="A1:R57"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L1" t="s">
+        <v>64</v>
+      </c>
+      <c r="M1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>42.4</v>
+      </c>
+      <c r="E2">
+        <v>41.7</v>
+      </c>
+      <c r="F2">
+        <v>41.9</v>
+      </c>
+      <c r="G2">
+        <v>41.4</v>
+      </c>
+      <c r="H2">
+        <v>41</v>
+      </c>
+      <c r="I2">
+        <v>39.9</v>
+      </c>
+      <c r="J2">
+        <v>38.5</v>
+      </c>
+      <c r="K2">
+        <v>37.5</v>
+      </c>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1">
+        <v>43.7</v>
+      </c>
+      <c r="E3" s="1">
+        <v>42.9</v>
+      </c>
+      <c r="F3" s="1">
+        <v>43</v>
+      </c>
+      <c r="G3" s="1">
+        <v>42.7</v>
+      </c>
+      <c r="H3" s="1">
+        <v>42.1</v>
+      </c>
+      <c r="I3" s="1">
+        <v>40.9</v>
+      </c>
+      <c r="J3" s="1">
+        <v>39.4</v>
+      </c>
+      <c r="K3" s="1">
+        <v>38.200000000000003</v>
+      </c>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4" s="1">
+        <v>45.1</v>
+      </c>
+      <c r="E4" s="1">
+        <v>44.2</v>
+      </c>
+      <c r="F4" s="1">
+        <v>44.3</v>
+      </c>
+      <c r="G4" s="1">
+        <v>43.9</v>
+      </c>
+      <c r="H4" s="1">
+        <v>43.3</v>
+      </c>
+      <c r="I4" s="1">
+        <v>42</v>
+      </c>
+      <c r="J4" s="1">
+        <v>40.299999999999997</v>
+      </c>
+      <c r="K4" s="1">
+        <v>39</v>
+      </c>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5" s="1">
+        <v>46.5</v>
+      </c>
+      <c r="E5" s="1">
+        <v>45.6</v>
+      </c>
+      <c r="F5" s="1">
+        <v>45.8</v>
+      </c>
+      <c r="G5" s="1">
+        <v>45.5</v>
+      </c>
+      <c r="H5" s="1">
+        <v>44.7</v>
+      </c>
+      <c r="I5" s="1">
+        <v>43.3</v>
+      </c>
+      <c r="J5" s="1">
+        <v>41.5</v>
+      </c>
+      <c r="K5" s="1">
+        <v>39.9</v>
+      </c>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6" s="1">
+        <v>48.3</v>
+      </c>
+      <c r="E6" s="1">
+        <v>47.4</v>
+      </c>
+      <c r="F6" s="1">
+        <v>47.7</v>
+      </c>
+      <c r="G6" s="1">
+        <v>47.4</v>
+      </c>
+      <c r="H6" s="1">
+        <v>46.7</v>
+      </c>
+      <c r="I6" s="1">
+        <v>45</v>
+      </c>
+      <c r="J6" s="1">
+        <v>43.1</v>
+      </c>
+      <c r="K6" s="1">
+        <v>41.2</v>
+      </c>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="D7" s="1">
+        <v>50.4</v>
+      </c>
+      <c r="E7" s="1">
+        <v>49.8</v>
+      </c>
+      <c r="F7" s="1">
+        <v>50.4</v>
+      </c>
+      <c r="G7" s="1">
+        <v>50.3</v>
+      </c>
+      <c r="H7" s="1">
+        <v>49.7</v>
+      </c>
+      <c r="I7" s="1">
+        <v>48</v>
+      </c>
+      <c r="J7" s="1">
+        <v>45.7</v>
+      </c>
+      <c r="K7" s="1">
+        <v>43.7</v>
+      </c>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8">
+        <v>7</v>
+      </c>
+      <c r="D8" s="1">
+        <v>51.5</v>
+      </c>
+      <c r="E8" s="1">
+        <v>51.6</v>
+      </c>
+      <c r="F8" s="1">
+        <v>53.4</v>
+      </c>
+      <c r="G8" s="1">
+        <v>56.8</v>
+      </c>
+      <c r="H8" s="1">
+        <v>55.3</v>
+      </c>
+      <c r="I8" s="1">
+        <v>84.7</v>
+      </c>
+      <c r="J8" s="1">
+        <v>119</v>
+      </c>
+      <c r="K8" s="1">
+        <v>128</v>
+      </c>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9">
+        <v>3</v>
+      </c>
+      <c r="B9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9">
+        <v>8</v>
+      </c>
+      <c r="D9" s="1">
+        <v>51.6</v>
+      </c>
+      <c r="E9" s="1">
+        <v>51.6</v>
+      </c>
+      <c r="F9" s="1">
+        <v>53.8</v>
+      </c>
+      <c r="G9" s="1">
+        <v>56.9</v>
+      </c>
+      <c r="H9" s="1">
+        <v>55.6</v>
+      </c>
+      <c r="I9" s="1">
+        <v>84.7</v>
+      </c>
+      <c r="J9" s="1">
+        <v>119</v>
+      </c>
+      <c r="K9" s="1">
+        <v>128</v>
+      </c>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10">
+        <v>3</v>
+      </c>
+      <c r="B10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1">
+        <v>41.6</v>
+      </c>
+      <c r="E10" s="1">
+        <v>41.8</v>
+      </c>
+      <c r="F10" s="1">
+        <v>41.8</v>
+      </c>
+      <c r="G10" s="1">
+        <v>41.8</v>
+      </c>
+      <c r="H10" s="1">
+        <v>41.7</v>
+      </c>
+      <c r="I10" s="1">
+        <v>41.6</v>
+      </c>
+      <c r="J10" s="1">
+        <v>41.4</v>
+      </c>
+      <c r="K10" s="4"/>
+      <c r="L10" s="1">
+        <v>41.5</v>
+      </c>
+      <c r="M10" s="1">
+        <v>41.3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11">
+        <v>3</v>
+      </c>
+      <c r="B11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11" s="1">
+        <v>43.2</v>
+      </c>
+      <c r="E11" s="1">
+        <v>43.3</v>
+      </c>
+      <c r="F11" s="1">
+        <v>43.2</v>
+      </c>
+      <c r="G11" s="1">
+        <v>43.2</v>
+      </c>
+      <c r="H11" s="1">
+        <v>43.1</v>
+      </c>
+      <c r="I11" s="1">
+        <v>43</v>
+      </c>
+      <c r="J11" s="1">
+        <v>42.9</v>
+      </c>
+      <c r="K11" s="4"/>
+      <c r="L11" s="1">
+        <v>42.8</v>
+      </c>
+      <c r="M11" s="1">
+        <v>42.7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12">
+        <v>3</v>
+      </c>
+      <c r="B12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="D12" s="1">
+        <v>44.7</v>
+      </c>
+      <c r="E12" s="6"/>
+      <c r="F12" s="1">
+        <v>44.8</v>
+      </c>
+      <c r="G12" s="1">
+        <v>44.8</v>
+      </c>
+      <c r="H12" s="1">
+        <v>44.7</v>
+      </c>
+      <c r="I12" s="1">
+        <v>44.6</v>
+      </c>
+      <c r="J12" s="1">
+        <v>44.4</v>
+      </c>
+      <c r="K12" s="4"/>
+      <c r="L12" s="1">
+        <v>44.5</v>
+      </c>
+      <c r="M12" s="1">
+        <v>44.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13">
+        <v>3</v>
+      </c>
+      <c r="B13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13">
+        <v>4</v>
+      </c>
+      <c r="D13" s="1">
+        <v>46.4</v>
+      </c>
+      <c r="E13" s="6"/>
+      <c r="F13" s="1">
+        <v>46.7</v>
+      </c>
+      <c r="G13" s="1">
+        <v>46.6</v>
+      </c>
+      <c r="H13" s="1">
+        <v>46.5</v>
+      </c>
+      <c r="I13" s="1">
+        <v>46.5</v>
+      </c>
+      <c r="J13" s="1">
+        <v>46.1</v>
+      </c>
+      <c r="K13" s="4"/>
+      <c r="L13" s="1">
+        <v>46.4</v>
+      </c>
+      <c r="M13" s="1">
+        <v>46.2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14">
+        <v>3</v>
+      </c>
+      <c r="B14" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14">
+        <v>5</v>
+      </c>
+      <c r="D14" s="1">
+        <v>48.5</v>
+      </c>
+      <c r="E14" s="1">
+        <v>48.9</v>
+      </c>
+      <c r="F14" s="1">
+        <v>48.9</v>
+      </c>
+      <c r="G14" s="1">
+        <v>49.1</v>
+      </c>
+      <c r="H14" s="1">
+        <v>49.1</v>
+      </c>
+      <c r="I14" s="1">
+        <v>49</v>
+      </c>
+      <c r="J14" s="1">
+        <v>49</v>
+      </c>
+      <c r="K14" s="4"/>
+      <c r="L14" s="1">
+        <v>48.9</v>
+      </c>
+      <c r="M14" s="1">
+        <v>48.8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15">
+        <v>3</v>
+      </c>
+      <c r="B15" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15">
+        <v>6</v>
+      </c>
+      <c r="D15" s="1">
+        <v>50.9</v>
+      </c>
+      <c r="E15" s="1">
+        <v>51.7</v>
+      </c>
+      <c r="F15" s="1">
+        <v>52.3</v>
+      </c>
+      <c r="G15" s="1">
+        <v>52.6</v>
+      </c>
+      <c r="H15" s="1">
+        <v>53.1</v>
+      </c>
+      <c r="I15" s="1">
+        <v>53.5</v>
+      </c>
+      <c r="J15" s="1">
+        <v>54.1</v>
+      </c>
+      <c r="K15" s="4"/>
+      <c r="L15" s="1">
+        <v>54.8</v>
+      </c>
+      <c r="M15" s="1">
+        <v>55.7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16">
+        <v>3</v>
+      </c>
+      <c r="B16" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16">
+        <v>7</v>
+      </c>
+      <c r="D16" s="1">
+        <v>53</v>
+      </c>
+      <c r="E16" s="1">
+        <v>55.6</v>
+      </c>
+      <c r="F16" s="1">
+        <v>57.7</v>
+      </c>
+      <c r="G16" s="1">
+        <v>60</v>
+      </c>
+      <c r="H16" s="1">
+        <v>62.5</v>
+      </c>
+      <c r="I16" s="1">
+        <v>64.8</v>
+      </c>
+      <c r="J16" s="1">
+        <v>67.599999999999994</v>
+      </c>
+      <c r="K16" s="4"/>
+      <c r="L16" s="1">
+        <v>70</v>
+      </c>
+      <c r="M16" s="3">
+        <v>73.099999999999994</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17">
+        <v>3</v>
+      </c>
+      <c r="B17" t="s">
+        <v>67</v>
+      </c>
+      <c r="C17">
+        <v>8</v>
+      </c>
+      <c r="D17" s="1">
+        <v>53</v>
+      </c>
+      <c r="E17" s="1">
+        <v>55.4</v>
+      </c>
+      <c r="F17" s="1">
+        <v>57.6</v>
+      </c>
+      <c r="G17" s="1">
+        <v>59.9</v>
+      </c>
+      <c r="H17" s="1">
+        <v>62.4</v>
+      </c>
+      <c r="I17" s="1">
+        <v>64.8</v>
+      </c>
+      <c r="J17" s="1">
+        <v>67.599999999999994</v>
+      </c>
+      <c r="K17" s="4"/>
+      <c r="L17" s="1">
+        <v>70</v>
+      </c>
+      <c r="M17" s="1">
+        <v>73.099999999999994</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18">
+        <v>3</v>
+      </c>
+      <c r="B18" t="s">
+        <v>68</v>
+      </c>
+      <c r="C18" s="2">
+        <v>1</v>
+      </c>
+      <c r="D18" s="1">
+        <v>43.9</v>
+      </c>
+      <c r="E18" s="1">
+        <v>43.8</v>
+      </c>
+      <c r="F18" s="1">
+        <v>43.8</v>
+      </c>
+      <c r="G18" s="1">
+        <v>43.6</v>
+      </c>
+      <c r="H18" s="1">
+        <v>43.6</v>
+      </c>
+      <c r="I18" s="1">
+        <v>43.5</v>
+      </c>
+      <c r="J18" s="1">
+        <v>43.4</v>
+      </c>
+      <c r="K18" s="4"/>
+      <c r="L18" s="1">
+        <v>43.4</v>
+      </c>
+      <c r="M18" s="1">
+        <v>43.7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19">
+        <v>3</v>
+      </c>
+      <c r="B19" t="s">
+        <v>68</v>
+      </c>
+      <c r="C19" s="2">
+        <v>2</v>
+      </c>
+      <c r="D19" s="1">
+        <v>45.3</v>
+      </c>
+      <c r="E19" s="1">
+        <v>45.3</v>
+      </c>
+      <c r="F19" s="1">
+        <v>45.4</v>
+      </c>
+      <c r="G19" s="1">
+        <v>45.4</v>
+      </c>
+      <c r="H19" s="1">
+        <v>45.4</v>
+      </c>
+      <c r="I19" s="1">
+        <v>45.4</v>
+      </c>
+      <c r="J19" s="1">
+        <v>45.3</v>
+      </c>
+      <c r="K19" s="4"/>
+      <c r="L19" s="1">
+        <v>45.4</v>
+      </c>
+      <c r="M19" s="1">
+        <v>45.2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20">
+        <v>3</v>
+      </c>
+      <c r="B20" t="s">
+        <v>68</v>
+      </c>
+      <c r="C20" s="2">
+        <v>3</v>
+      </c>
+      <c r="D20" s="1">
+        <v>47.3</v>
+      </c>
+      <c r="E20" s="1">
+        <v>47.5</v>
+      </c>
+      <c r="F20" s="1">
+        <v>47.9</v>
+      </c>
+      <c r="G20" s="1">
+        <v>48</v>
+      </c>
+      <c r="H20" s="1">
+        <v>48.3</v>
+      </c>
+      <c r="I20" s="1">
+        <v>48.5</v>
+      </c>
+      <c r="J20" s="1">
+        <v>48.6</v>
+      </c>
+      <c r="K20" s="4"/>
+      <c r="L20" s="1">
+        <v>48.8</v>
+      </c>
+      <c r="M20" s="1">
+        <v>48.9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21">
+        <v>3</v>
+      </c>
+      <c r="B21" t="s">
+        <v>68</v>
+      </c>
+      <c r="C21" s="2">
+        <v>4</v>
+      </c>
+      <c r="D21" s="1">
+        <v>49.2</v>
+      </c>
+      <c r="E21" s="1">
+        <v>49.9</v>
+      </c>
+      <c r="F21" s="1">
+        <v>50.7</v>
+      </c>
+      <c r="G21" s="1">
+        <v>51.4</v>
+      </c>
+      <c r="H21" s="1">
+        <v>52.1</v>
+      </c>
+      <c r="I21" s="1">
+        <v>52.8</v>
+      </c>
+      <c r="J21" s="1">
+        <v>53.4</v>
+      </c>
+      <c r="K21" s="4"/>
+      <c r="L21" s="1">
+        <v>54.2</v>
+      </c>
+      <c r="M21" s="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22">
+        <v>3</v>
+      </c>
+      <c r="B22" t="s">
+        <v>68</v>
+      </c>
+      <c r="C22" s="2">
+        <v>5</v>
+      </c>
+      <c r="D22" s="1">
+        <v>49.6</v>
+      </c>
+      <c r="E22" s="1">
+        <v>50.4</v>
+      </c>
+      <c r="F22" s="1">
+        <v>51.3</v>
+      </c>
+      <c r="G22" s="1">
+        <v>52</v>
+      </c>
+      <c r="H22" s="1">
+        <v>52.8</v>
+      </c>
+      <c r="I22" s="1">
+        <v>53.5</v>
+      </c>
+      <c r="J22" s="1">
+        <v>54.3</v>
+      </c>
+      <c r="K22" s="4"/>
+      <c r="L22" s="1">
+        <v>55</v>
+      </c>
+      <c r="M22" s="1">
+        <v>55.9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23">
+        <v>3</v>
+      </c>
+      <c r="B23" t="s">
+        <v>68</v>
+      </c>
+      <c r="C23" s="2">
+        <v>6</v>
+      </c>
+      <c r="D23" s="1">
+        <v>50.1</v>
+      </c>
+      <c r="E23" s="1">
+        <v>51.2</v>
+      </c>
+      <c r="F23" s="1">
+        <v>52</v>
+      </c>
+      <c r="G23" s="1">
+        <v>52.9</v>
+      </c>
+      <c r="H23" s="1">
+        <v>53.7</v>
+      </c>
+      <c r="I23" s="1">
+        <v>54.5</v>
+      </c>
+      <c r="J23" s="1">
+        <v>55.4</v>
+      </c>
+      <c r="K23" s="4"/>
+      <c r="L23" s="1">
+        <v>56.3</v>
+      </c>
+      <c r="M23" s="1">
+        <v>57.2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24">
+        <v>3</v>
+      </c>
+      <c r="B24" t="s">
+        <v>68</v>
+      </c>
+      <c r="C24" s="2">
+        <v>7</v>
+      </c>
+      <c r="D24" s="1">
+        <v>50.6</v>
+      </c>
+      <c r="E24" s="1">
+        <v>51.7</v>
+      </c>
+      <c r="F24" s="1">
+        <v>52.7</v>
+      </c>
+      <c r="G24" s="1">
+        <v>53.4</v>
+      </c>
+      <c r="H24" s="1">
+        <v>54.4</v>
+      </c>
+      <c r="I24" s="1">
+        <v>55.3</v>
+      </c>
+      <c r="J24" s="1">
+        <v>56.2</v>
+      </c>
+      <c r="K24" s="4"/>
+      <c r="L24" s="1">
+        <v>57.2</v>
+      </c>
+      <c r="M24" s="1">
+        <v>58.2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25">
+        <v>3</v>
+      </c>
+      <c r="B25" t="s">
+        <v>68</v>
+      </c>
+      <c r="C25" s="2">
+        <v>8</v>
+      </c>
+      <c r="D25" s="1">
+        <v>50.6</v>
+      </c>
+      <c r="E25" s="1">
+        <v>51.5</v>
+      </c>
+      <c r="F25" s="1">
+        <v>52.7</v>
+      </c>
+      <c r="G25" s="1">
+        <v>53.4</v>
+      </c>
+      <c r="H25" s="1">
+        <v>54.4</v>
+      </c>
+      <c r="I25" s="1">
+        <v>55.3</v>
+      </c>
+      <c r="J25" s="1">
+        <v>56.2</v>
+      </c>
+      <c r="K25" s="4"/>
+      <c r="L25" s="1">
+        <v>57.2</v>
+      </c>
+      <c r="M25" s="1">
+        <v>58.2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26">
+        <v>1</v>
+      </c>
+      <c r="B26" t="s">
+        <v>56</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26" s="1">
+        <v>40.5</v>
+      </c>
+      <c r="E26" s="1">
+        <v>41.7</v>
+      </c>
+      <c r="F26" s="1">
+        <v>41.8</v>
+      </c>
+      <c r="G26" s="1">
+        <v>41.6</v>
+      </c>
+      <c r="H26" s="1">
+        <v>41.6</v>
+      </c>
+      <c r="I26" s="1">
+        <v>41.5</v>
+      </c>
+      <c r="J26" s="1">
+        <v>41.4</v>
+      </c>
+      <c r="K26" s="4"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="5"/>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27">
+        <v>1</v>
+      </c>
+      <c r="B27" t="s">
+        <v>56</v>
+      </c>
+      <c r="C27">
+        <v>2</v>
+      </c>
+      <c r="D27" s="1">
+        <v>41.8</v>
+      </c>
+      <c r="E27" s="1">
+        <v>43.3</v>
+      </c>
+      <c r="F27" s="1">
+        <v>43.1</v>
+      </c>
+      <c r="G27" s="1">
+        <v>43.2</v>
+      </c>
+      <c r="H27" s="1">
+        <v>43.3</v>
+      </c>
+      <c r="I27" s="1">
+        <v>43.2</v>
+      </c>
+      <c r="J27" s="1">
+        <v>42.9</v>
+      </c>
+      <c r="K27" s="4"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="5"/>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28">
+        <v>1</v>
+      </c>
+      <c r="B28" t="s">
+        <v>56</v>
+      </c>
+      <c r="C28">
+        <v>3</v>
+      </c>
+      <c r="D28" s="1">
+        <v>43.2</v>
+      </c>
+      <c r="E28" s="1">
+        <v>48</v>
+      </c>
+      <c r="F28" s="1">
+        <v>45.1</v>
+      </c>
+      <c r="G28" s="1">
+        <v>44.9</v>
+      </c>
+      <c r="H28" s="1">
+        <v>44.4</v>
+      </c>
+      <c r="I28" s="1">
+        <v>45</v>
+      </c>
+      <c r="J28" s="1">
+        <v>44.3</v>
+      </c>
+      <c r="K28" s="4"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="5"/>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29">
+        <v>1</v>
+      </c>
+      <c r="B29" t="s">
+        <v>56</v>
+      </c>
+      <c r="C29">
+        <v>4</v>
+      </c>
+      <c r="D29" s="1">
+        <v>44.8</v>
+      </c>
+      <c r="E29" s="1">
+        <v>46.5</v>
+      </c>
+      <c r="F29" s="1">
+        <v>47.2</v>
+      </c>
+      <c r="G29" s="1">
+        <v>46.9</v>
+      </c>
+      <c r="H29" s="1">
+        <v>47</v>
+      </c>
+      <c r="I29" s="1">
+        <v>47</v>
+      </c>
+      <c r="J29" s="1">
+        <v>46.5</v>
+      </c>
+      <c r="K29" s="4"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="5"/>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30">
+        <v>1</v>
+      </c>
+      <c r="B30" t="s">
+        <v>56</v>
+      </c>
+      <c r="C30">
+        <v>5</v>
+      </c>
+      <c r="D30" s="1">
+        <v>46.5</v>
+      </c>
+      <c r="E30" s="1">
+        <v>48.8</v>
+      </c>
+      <c r="F30" s="1">
+        <v>49.5</v>
+      </c>
+      <c r="G30" s="1">
+        <v>49.2</v>
+      </c>
+      <c r="H30" s="1">
+        <v>49.4</v>
+      </c>
+      <c r="I30" s="1">
+        <v>49.3</v>
+      </c>
+      <c r="J30" s="1">
+        <v>48.8</v>
+      </c>
+      <c r="K30" s="4"/>
+      <c r="L30" s="5"/>
+      <c r="M30" s="5"/>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31">
+        <v>1</v>
+      </c>
+      <c r="B31" t="s">
+        <v>56</v>
+      </c>
+      <c r="C31">
+        <v>6</v>
+      </c>
+      <c r="D31" s="1">
+        <v>48.6</v>
+      </c>
+      <c r="E31" s="1">
+        <v>51.9</v>
+      </c>
+      <c r="F31" s="1">
+        <v>52.3</v>
+      </c>
+      <c r="G31" s="1">
+        <v>52.3</v>
+      </c>
+      <c r="H31" s="1">
+        <v>53</v>
+      </c>
+      <c r="I31" s="1">
+        <v>53.2</v>
+      </c>
+      <c r="J31" s="1">
+        <v>53</v>
+      </c>
+      <c r="K31" s="4"/>
+      <c r="L31" s="5"/>
+      <c r="M31" s="5"/>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32">
+        <v>1</v>
+      </c>
+      <c r="B32" t="s">
+        <v>56</v>
+      </c>
+      <c r="C32">
+        <v>7</v>
+      </c>
+      <c r="D32" s="1">
+        <v>49.5</v>
+      </c>
+      <c r="E32" s="1">
+        <v>52.8</v>
+      </c>
+      <c r="F32" s="1">
+        <v>54</v>
+      </c>
+      <c r="G32" s="1">
+        <v>54.6</v>
+      </c>
+      <c r="H32" s="1">
+        <v>56.5</v>
+      </c>
+      <c r="I32" s="1">
+        <v>58.2</v>
+      </c>
+      <c r="J32" s="1">
+        <v>60.4</v>
+      </c>
+      <c r="K32" s="4"/>
+      <c r="L32" s="5"/>
+      <c r="M32" s="5"/>
+    </row>
+    <row r="33" spans="1:18">
+      <c r="A33">
+        <v>1</v>
+      </c>
+      <c r="B33" t="s">
+        <v>56</v>
+      </c>
+      <c r="C33">
+        <v>8</v>
+      </c>
+      <c r="D33" s="1">
+        <v>49.5</v>
+      </c>
+      <c r="E33" s="1">
+        <v>52.8</v>
+      </c>
+      <c r="F33" s="1">
+        <v>54</v>
+      </c>
+      <c r="G33" s="1">
+        <v>54.6</v>
+      </c>
+      <c r="H33" s="1">
+        <v>56.5</v>
+      </c>
+      <c r="I33" s="1">
+        <v>58.2</v>
+      </c>
+      <c r="J33" s="1">
+        <v>60.4</v>
+      </c>
+      <c r="K33" s="4"/>
+      <c r="L33" s="5"/>
+      <c r="M33" s="5"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+    </row>
+    <row r="34" spans="1:18">
+      <c r="A34">
+        <v>1</v>
+      </c>
+      <c r="B34" t="s">
+        <v>67</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34" s="1">
+        <v>40.5</v>
+      </c>
+      <c r="E34" s="1">
+        <v>41.3</v>
+      </c>
+      <c r="F34" s="1">
+        <v>41.4</v>
+      </c>
+      <c r="G34" s="1">
+        <v>41.3</v>
+      </c>
+      <c r="H34" s="1">
+        <v>41.2</v>
+      </c>
+      <c r="I34" s="1">
+        <v>41.3</v>
+      </c>
+      <c r="J34" s="1">
+        <v>41.3</v>
+      </c>
+      <c r="K34" s="5"/>
+      <c r="L34" s="1">
+        <v>41.2</v>
+      </c>
+      <c r="M34" s="1">
+        <v>41.1</v>
+      </c>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+    </row>
+    <row r="35" spans="1:18">
+      <c r="A35">
+        <v>1</v>
+      </c>
+      <c r="B35" t="s">
+        <v>67</v>
+      </c>
+      <c r="C35">
+        <v>2</v>
+      </c>
+      <c r="D35" s="1">
+        <v>41.8</v>
+      </c>
+      <c r="E35" s="1">
+        <v>42.7</v>
+      </c>
+      <c r="F35" s="1">
+        <v>42.8</v>
+      </c>
+      <c r="G35" s="1">
+        <v>42.8</v>
+      </c>
+      <c r="H35" s="1">
+        <v>43</v>
+      </c>
+      <c r="I35" s="1">
+        <v>43</v>
+      </c>
+      <c r="J35" s="1">
+        <v>42.9</v>
+      </c>
+      <c r="K35" s="5"/>
+      <c r="L35" s="1">
+        <v>42.8</v>
+      </c>
+      <c r="M35" s="1">
+        <v>42.7</v>
+      </c>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+    </row>
+    <row r="36" spans="1:18">
+      <c r="A36">
+        <v>1</v>
+      </c>
+      <c r="B36" t="s">
+        <v>67</v>
+      </c>
+      <c r="C36">
+        <v>3</v>
+      </c>
+      <c r="D36" s="1">
+        <v>43.7</v>
+      </c>
+      <c r="E36" s="1">
+        <v>44.6</v>
+      </c>
+      <c r="F36" s="1">
+        <v>44.7</v>
+      </c>
+      <c r="G36" s="1">
+        <v>44.7</v>
+      </c>
+      <c r="H36" s="1">
+        <v>44.8</v>
+      </c>
+      <c r="I36" s="1">
+        <v>44.7</v>
+      </c>
+      <c r="J36" s="1">
+        <v>44.9</v>
+      </c>
+      <c r="K36" s="5"/>
+      <c r="L36" s="1">
+        <v>44.6</v>
+      </c>
+      <c r="M36" s="1">
+        <v>44.5</v>
+      </c>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+    </row>
+    <row r="37" spans="1:18">
+      <c r="A37">
+        <v>1</v>
+      </c>
+      <c r="B37" t="s">
+        <v>67</v>
+      </c>
+      <c r="C37">
+        <v>4</v>
+      </c>
+      <c r="D37" s="1">
+        <v>45.3</v>
+      </c>
+      <c r="E37" s="1">
+        <v>46.4</v>
+      </c>
+      <c r="F37" s="1">
+        <v>46.5</v>
+      </c>
+      <c r="G37" s="1">
+        <v>46.7</v>
+      </c>
+      <c r="H37" s="1">
+        <v>46.8</v>
+      </c>
+      <c r="I37" s="1">
+        <v>46.7</v>
+      </c>
+      <c r="J37" s="1">
+        <v>46.7</v>
+      </c>
+      <c r="K37" s="5"/>
+      <c r="L37" s="1">
+        <v>46.6</v>
+      </c>
+      <c r="M37" s="1">
+        <v>46.5</v>
+      </c>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+    </row>
+    <row r="38" spans="1:18">
+      <c r="A38">
+        <v>1</v>
+      </c>
+      <c r="B38" t="s">
+        <v>67</v>
+      </c>
+      <c r="C38">
+        <v>5</v>
+      </c>
+      <c r="D38" s="1">
+        <v>47.1</v>
+      </c>
+      <c r="E38" s="1">
+        <v>48.8</v>
+      </c>
+      <c r="F38" s="1">
+        <v>46.7</v>
+      </c>
+      <c r="G38" s="1">
+        <v>49</v>
+      </c>
+      <c r="H38" s="1">
+        <v>49.3</v>
+      </c>
+      <c r="I38" s="1">
+        <v>49.4</v>
+      </c>
+      <c r="J38" s="1">
+        <v>49.4</v>
+      </c>
+      <c r="K38" s="5"/>
+      <c r="L38" s="1">
+        <v>49.3</v>
+      </c>
+      <c r="M38" s="1">
+        <v>48.8</v>
+      </c>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
+    </row>
+    <row r="39" spans="1:18">
+      <c r="A39">
+        <v>1</v>
+      </c>
+      <c r="B39" t="s">
+        <v>67</v>
+      </c>
+      <c r="C39">
+        <v>6</v>
+      </c>
+      <c r="D39" s="1">
+        <v>49.2</v>
+      </c>
+      <c r="E39" s="1">
+        <v>51.4</v>
+      </c>
+      <c r="F39" s="1">
+        <v>52.1</v>
+      </c>
+      <c r="G39" s="1">
+        <v>52.5</v>
+      </c>
+      <c r="H39" s="1">
+        <v>53.3</v>
+      </c>
+      <c r="I39" s="1">
+        <v>53.8</v>
+      </c>
+      <c r="J39" s="1">
+        <v>54.3</v>
+      </c>
+      <c r="K39" s="5"/>
+      <c r="L39" s="1">
+        <v>54.5</v>
+      </c>
+      <c r="M39" s="1">
+        <v>54.8</v>
+      </c>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
+    </row>
+    <row r="40" spans="1:18">
+      <c r="A40">
+        <v>1</v>
+      </c>
+      <c r="B40" t="s">
+        <v>67</v>
+      </c>
+      <c r="C40">
+        <v>7</v>
+      </c>
+      <c r="D40" s="1">
+        <v>51.2</v>
+      </c>
+      <c r="E40" s="1">
+        <v>54.9</v>
+      </c>
+      <c r="F40" s="1">
+        <v>57.1</v>
+      </c>
+      <c r="G40" s="1">
+        <v>59.5</v>
+      </c>
+      <c r="H40" s="1">
+        <v>62.1</v>
+      </c>
+      <c r="I40" s="1">
+        <v>64.900000000000006</v>
+      </c>
+      <c r="J40" s="1">
+        <v>67.2</v>
+      </c>
+      <c r="K40" s="5"/>
+      <c r="L40" s="1">
+        <v>69.8</v>
+      </c>
+      <c r="M40" s="1">
+        <v>72.2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18">
+      <c r="A41">
+        <v>1</v>
+      </c>
+      <c r="B41" t="s">
+        <v>67</v>
+      </c>
+      <c r="C41">
+        <v>8</v>
+      </c>
+      <c r="D41" s="1">
+        <v>50.9</v>
+      </c>
+      <c r="E41" s="1">
+        <v>54.8</v>
+      </c>
+      <c r="F41" s="1">
+        <v>57</v>
+      </c>
+      <c r="G41" s="1">
+        <v>59.4</v>
+      </c>
+      <c r="H41" s="1">
+        <v>62.1</v>
+      </c>
+      <c r="I41" s="1">
+        <v>64.8</v>
+      </c>
+      <c r="J41" s="1">
+        <v>67.2</v>
+      </c>
+      <c r="K41" s="5"/>
+      <c r="L41" s="1">
+        <v>69.8</v>
+      </c>
+      <c r="M41" s="1">
+        <v>72.099999999999994</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18">
+      <c r="A42">
+        <v>1</v>
+      </c>
+      <c r="B42" t="s">
+        <v>68</v>
+      </c>
+      <c r="C42" s="2">
+        <v>1</v>
+      </c>
+      <c r="D42" s="1">
+        <v>42.9</v>
+      </c>
+      <c r="E42" s="1">
+        <v>41.1</v>
+      </c>
+      <c r="F42" s="1">
+        <v>39</v>
+      </c>
+      <c r="G42" s="1">
+        <v>38.799999999999997</v>
+      </c>
+      <c r="H42" s="1">
+        <v>43.7</v>
+      </c>
+      <c r="I42" s="1">
+        <v>44</v>
+      </c>
+      <c r="J42" s="1">
+        <v>43.9</v>
+      </c>
+      <c r="K42" s="5"/>
+      <c r="L42" s="1">
+        <v>43.8</v>
+      </c>
+      <c r="M42" s="1">
+        <v>43.8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18">
+      <c r="A43">
+        <v>1</v>
+      </c>
+      <c r="B43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43" s="2">
+        <v>2</v>
+      </c>
+      <c r="D43" s="1">
+        <v>44.4</v>
+      </c>
+      <c r="E43" s="1">
+        <v>43</v>
+      </c>
+      <c r="F43" s="1">
+        <v>40.1</v>
+      </c>
+      <c r="G43" s="1">
+        <v>40</v>
+      </c>
+      <c r="H43" s="1">
+        <v>45.9</v>
+      </c>
+      <c r="I43" s="1">
+        <v>46</v>
+      </c>
+      <c r="J43" s="1">
+        <v>46</v>
+      </c>
+      <c r="K43" s="5"/>
+      <c r="L43" s="1">
+        <v>46</v>
+      </c>
+      <c r="M43" s="1">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18">
+      <c r="A44">
+        <v>1</v>
+      </c>
+      <c r="B44" t="s">
+        <v>68</v>
+      </c>
+      <c r="C44" s="2">
+        <v>3</v>
+      </c>
+      <c r="D44" s="1">
+        <v>46.3</v>
+      </c>
+      <c r="E44" s="1">
+        <v>45</v>
+      </c>
+      <c r="F44" s="1">
+        <v>41.7</v>
+      </c>
+      <c r="G44" s="1">
+        <v>41.7</v>
+      </c>
+      <c r="H44" s="1">
+        <v>48.8</v>
+      </c>
+      <c r="I44" s="1">
+        <v>49.3</v>
+      </c>
+      <c r="J44" s="1">
+        <v>49.4</v>
+      </c>
+      <c r="K44" s="5"/>
+      <c r="L44" s="1">
+        <v>49.8</v>
+      </c>
+      <c r="M44" s="1">
+        <v>49.9</v>
+      </c>
+      <c r="N44" s="1"/>
+    </row>
+    <row r="45" spans="1:18">
+      <c r="A45">
+        <v>1</v>
+      </c>
+      <c r="B45" t="s">
+        <v>68</v>
+      </c>
+      <c r="C45" s="2">
+        <v>4</v>
+      </c>
+      <c r="D45" s="1">
+        <v>48.2</v>
+      </c>
+      <c r="E45" s="1">
+        <v>47.1</v>
+      </c>
+      <c r="F45" s="1">
+        <v>43.8</v>
+      </c>
+      <c r="G45" s="1">
+        <v>43.9</v>
+      </c>
+      <c r="H45" s="1">
+        <v>52.8</v>
+      </c>
+      <c r="I45" s="1">
+        <v>54</v>
+      </c>
+      <c r="J45" s="1">
+        <v>54.9</v>
+      </c>
+      <c r="K45" s="5"/>
+      <c r="L45" s="1">
+        <v>55.8</v>
+      </c>
+      <c r="M45" s="1">
+        <v>56.6</v>
+      </c>
+      <c r="N45" s="1"/>
+      <c r="O45" s="1"/>
+      <c r="P45" s="1"/>
+      <c r="Q45" s="1"/>
+      <c r="R45" s="1"/>
+    </row>
+    <row r="46" spans="1:18">
+      <c r="A46">
+        <v>1</v>
+      </c>
+      <c r="B46" t="s">
+        <v>68</v>
+      </c>
+      <c r="C46" s="2">
+        <v>5</v>
+      </c>
+      <c r="D46" s="1">
+        <v>48.6</v>
+      </c>
+      <c r="E46" s="1">
+        <v>48</v>
+      </c>
+      <c r="F46" s="1">
+        <v>44.2</v>
+      </c>
+      <c r="G46" s="1">
+        <v>44.4</v>
+      </c>
+      <c r="H46" s="1">
+        <v>53.6</v>
+      </c>
+      <c r="I46" s="1">
+        <v>54.8</v>
+      </c>
+      <c r="J46" s="1">
+        <v>55.8</v>
+      </c>
+      <c r="K46" s="5"/>
+      <c r="L46" s="1">
+        <v>56.8</v>
+      </c>
+      <c r="M46" s="1">
+        <v>57.7</v>
+      </c>
+      <c r="N46" s="1"/>
+      <c r="O46" s="1"/>
+      <c r="P46" s="1"/>
+      <c r="Q46" s="1"/>
+      <c r="R46" s="1"/>
+    </row>
+    <row r="47" spans="1:18">
+      <c r="A47">
+        <v>1</v>
+      </c>
+      <c r="B47" t="s">
+        <v>68</v>
+      </c>
+      <c r="C47" s="2">
+        <v>6</v>
+      </c>
+      <c r="D47" s="1">
+        <v>49</v>
+      </c>
+      <c r="E47" s="1">
+        <v>49</v>
+      </c>
+      <c r="F47" s="1">
+        <v>44.8</v>
+      </c>
+      <c r="G47" s="1">
+        <v>45</v>
+      </c>
+      <c r="H47" s="1">
+        <v>54.5</v>
+      </c>
+      <c r="I47" s="1">
+        <v>55.8</v>
+      </c>
+      <c r="J47" s="1">
+        <v>57</v>
+      </c>
+      <c r="K47" s="5"/>
+      <c r="L47" s="1">
+        <v>58</v>
+      </c>
+      <c r="M47" s="1">
+        <v>59.2</v>
+      </c>
+      <c r="N47" s="1"/>
+    </row>
+    <row r="48" spans="1:18">
+      <c r="A48">
+        <v>1</v>
+      </c>
+      <c r="B48" t="s">
+        <v>68</v>
+      </c>
+      <c r="C48" s="2">
+        <v>7</v>
+      </c>
+      <c r="D48" s="1">
+        <v>49.5</v>
+      </c>
+      <c r="E48" s="1">
+        <v>49.8</v>
+      </c>
+      <c r="F48" s="1">
+        <v>45.1</v>
+      </c>
+      <c r="G48" s="1">
+        <v>45.6</v>
+      </c>
+      <c r="H48" s="1">
+        <v>55.3</v>
+      </c>
+      <c r="I48" s="1">
+        <v>56.8</v>
+      </c>
+      <c r="J48" s="1">
+        <v>58</v>
+      </c>
+      <c r="K48" s="5"/>
+      <c r="L48" s="1">
+        <v>59.3</v>
+      </c>
+      <c r="M48" s="1">
+        <v>60.4</v>
+      </c>
+      <c r="N48" s="1"/>
+    </row>
+    <row r="49" spans="1:18">
+      <c r="A49">
+        <v>1</v>
+      </c>
+      <c r="B49" t="s">
+        <v>68</v>
+      </c>
+      <c r="C49" s="2">
+        <v>8</v>
+      </c>
+      <c r="D49" s="1">
+        <v>49.6</v>
+      </c>
+      <c r="E49" s="1">
+        <v>50</v>
+      </c>
+      <c r="F49" s="1">
+        <v>45</v>
+      </c>
+      <c r="G49" s="1">
+        <v>45.4</v>
+      </c>
+      <c r="H49" s="1">
+        <v>55.4</v>
+      </c>
+      <c r="I49" s="1">
+        <v>56.8</v>
+      </c>
+      <c r="J49" s="1">
+        <v>58</v>
+      </c>
+      <c r="K49" s="5"/>
+      <c r="L49" s="1">
+        <v>59.2</v>
+      </c>
+      <c r="M49" s="1">
+        <v>60.4</v>
+      </c>
+      <c r="N49" s="1"/>
+    </row>
+    <row r="51" spans="1:18">
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+      <c r="M51" s="1"/>
+      <c r="N51" s="1"/>
+      <c r="O51" s="1"/>
+      <c r="P51" s="1"/>
+      <c r="Q51" s="1"/>
+      <c r="R51" s="1"/>
+    </row>
+    <row r="52" spans="1:18">
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
+      <c r="J52" s="1"/>
+      <c r="K52" s="1"/>
+      <c r="L52" s="1"/>
+      <c r="M52" s="1"/>
+      <c r="N52" s="1"/>
+      <c r="O52" s="1"/>
+      <c r="P52" s="1"/>
+      <c r="Q52" s="1"/>
+      <c r="R52" s="1"/>
+    </row>
+    <row r="53" spans="1:18">
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
+      <c r="J53" s="1"/>
+      <c r="K53" s="1"/>
+      <c r="L53" s="1"/>
+      <c r="M53" s="1"/>
+    </row>
+    <row r="54" spans="1:18">
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
+      <c r="I54" s="1"/>
+      <c r="J54" s="1"/>
+      <c r="K54" s="1"/>
+      <c r="L54" s="1"/>
+      <c r="M54" s="1"/>
+    </row>
+    <row r="55" spans="1:18">
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1"/>
+      <c r="J55" s="1"/>
+      <c r="K55" s="1"/>
+      <c r="L55" s="1"/>
+      <c r="M55" s="1"/>
+    </row>
+    <row r="56" spans="1:18">
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
+      <c r="I56" s="1"/>
+      <c r="J56" s="1"/>
+      <c r="K56" s="1"/>
+      <c r="L56" s="1"/>
+      <c r="M56" s="1"/>
+    </row>
+    <row r="57" spans="1:18">
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1"/>
+      <c r="I57" s="1"/>
+      <c r="J57" s="1"/>
+      <c r="K57" s="1"/>
+      <c r="L57" s="1"/>
+      <c r="M57" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data_raw/input.xlsx
+++ b/data_raw/input.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11214"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10102"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nobuakiohsumi/Lec_handson/wtrwks_rpt/data_raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEDCAEA4-727B-DE42-8415-652075A21B2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E73E04A-86C8-FC47-B7E0-5D3113089072}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16420" activeTab="5" xr2:uid="{11D640DA-DCFB-E544-8ADF-BF4092E26F00}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16420" activeTab="7" xr2:uid="{11D640DA-DCFB-E544-8ADF-BF4092E26F00}"/>
   </bookViews>
   <sheets>
     <sheet name="colony" sheetId="3" r:id="rId1"/>
@@ -19,6 +19,8 @@
     <sheet name="ozone_calib" sheetId="1" r:id="rId4"/>
     <sheet name="ozone" sheetId="2" r:id="rId5"/>
     <sheet name="manometer" sheetId="6" r:id="rId6"/>
+    <sheet name="abs_calib" sheetId="7" r:id="rId7"/>
+    <sheet name="abs" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -41,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="838" uniqueCount="97">
   <si>
     <t>班</t>
   </si>
@@ -271,6 +273,114 @@
     <t>tapwtr</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>MB_conc</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ABS</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>day</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>group</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>crbn_amt</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>crbn</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GW</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ABS_0min</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Dil_0min</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Dil_5min</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Dil_20min</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Dil_30min</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Dil_60min</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Dil_90min</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Dil_120min</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Dil_24hrs</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Dil_10min</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ABS_5min</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ABS_10min</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ABS_20min</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ABS_30min</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ABS_60min</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ABS_90min</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ABS_120min</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ABS_24hrs</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GLW</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MB_init_conc</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -310,7 +420,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -321,6 +431,18 @@
       <patternFill patternType="solid">
         <fgColor theme="2"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE8E8E8"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
@@ -338,7 +460,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -358,6 +480,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5609,7 +5740,7 @@
   <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -7538,7 +7669,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70F5089C-337D-AB4E-A123-8CEBB17E04D3}">
   <dimension ref="A1:R57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="150" workbookViewId="0">
+    <sheetView zoomScale="113" workbookViewId="0">
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
@@ -9518,4 +9649,1693 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10B8D198-DF4E-5A4D-80C0-879C2B2FE6E1}">
+  <dimension ref="A1:D16"/>
+  <sheetViews>
+    <sheetView zoomScale="200" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>-5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>0.2</v>
+      </c>
+      <c r="D3">
+        <v>3.5999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>0.5</v>
+      </c>
+      <c r="D4">
+        <v>0.10199999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>0.20699999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>0.435</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="D7">
+        <v>1.0509999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>10</v>
+      </c>
+      <c r="D8">
+        <v>1.958</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9">
+        <v>3</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>20</v>
+      </c>
+      <c r="D9">
+        <v>3.2559999999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10">
+        <v>3</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <v>0.2</v>
+      </c>
+      <c r="D10">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11">
+        <v>3</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>0.5</v>
+      </c>
+      <c r="D11">
+        <v>0.112</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12">
+        <v>3</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>0.214</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13">
+        <v>3</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13">
+        <v>0.44600000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14">
+        <v>3</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14">
+        <v>5</v>
+      </c>
+      <c r="D14">
+        <v>1.0429999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15">
+        <v>3</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>10</v>
+      </c>
+      <c r="D15">
+        <v>1.958</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16">
+        <v>3</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16">
+        <v>20</v>
+      </c>
+      <c r="D16">
+        <v>3.35</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F043729-32A1-B842-8BA1-3C91CFC99C7F}">
+  <dimension ref="A1:V33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="124" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <sheetData>
+    <row r="1" spans="1:22">
+      <c r="A1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H1" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1" t="s">
+        <v>90</v>
+      </c>
+      <c r="J1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K1" t="s">
+        <v>92</v>
+      </c>
+      <c r="L1" t="s">
+        <v>93</v>
+      </c>
+      <c r="M1" t="s">
+        <v>94</v>
+      </c>
+      <c r="N1" t="s">
+        <v>78</v>
+      </c>
+      <c r="O1" t="s">
+        <v>79</v>
+      </c>
+      <c r="P1" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>80</v>
+      </c>
+      <c r="R1" t="s">
+        <v>81</v>
+      </c>
+      <c r="S1" t="s">
+        <v>82</v>
+      </c>
+      <c r="T1" t="s">
+        <v>83</v>
+      </c>
+      <c r="U1" t="s">
+        <v>84</v>
+      </c>
+      <c r="V1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22">
+      <c r="A2">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2">
+        <v>400</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0.85699999999999998</v>
+      </c>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="8">
+        <v>0.92800000000000005</v>
+      </c>
+      <c r="M2">
+        <v>0.94599999999999995</v>
+      </c>
+      <c r="N2">
+        <v>100</v>
+      </c>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
+      <c r="U2" s="8">
+        <v>100</v>
+      </c>
+      <c r="V2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3">
+        <v>400</v>
+      </c>
+      <c r="D3">
+        <v>0.50029999999999997</v>
+      </c>
+      <c r="E3">
+        <v>0.89800000000000002</v>
+      </c>
+      <c r="F3">
+        <v>0.81799999999999995</v>
+      </c>
+      <c r="G3">
+        <v>0.84099999999999997</v>
+      </c>
+      <c r="H3">
+        <v>0.85099999999999998</v>
+      </c>
+      <c r="I3">
+        <v>0.82699999999999996</v>
+      </c>
+      <c r="J3">
+        <v>0.80100000000000005</v>
+      </c>
+      <c r="K3">
+        <v>0.79800000000000004</v>
+      </c>
+      <c r="L3">
+        <v>0.77200000000000002</v>
+      </c>
+      <c r="M3">
+        <v>0.60499999999999998</v>
+      </c>
+      <c r="N3">
+        <v>100</v>
+      </c>
+      <c r="O3">
+        <v>100</v>
+      </c>
+      <c r="P3">
+        <v>100</v>
+      </c>
+      <c r="Q3">
+        <v>100</v>
+      </c>
+      <c r="R3">
+        <v>100</v>
+      </c>
+      <c r="S3">
+        <v>100</v>
+      </c>
+      <c r="T3">
+        <v>100</v>
+      </c>
+      <c r="U3">
+        <v>100</v>
+      </c>
+      <c r="V3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4">
+        <v>400</v>
+      </c>
+      <c r="D4" s="7">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>0.84299999999999997</v>
+      </c>
+      <c r="F4">
+        <v>0.8</v>
+      </c>
+      <c r="G4">
+        <v>0.77900000000000003</v>
+      </c>
+      <c r="H4">
+        <v>0.75600000000000001</v>
+      </c>
+      <c r="I4">
+        <v>0.75700000000000001</v>
+      </c>
+      <c r="J4">
+        <v>0.66800000000000004</v>
+      </c>
+      <c r="K4">
+        <v>0.623</v>
+      </c>
+      <c r="L4">
+        <v>0.55900000000000005</v>
+      </c>
+      <c r="M4">
+        <v>0.29199999999999998</v>
+      </c>
+      <c r="N4">
+        <v>100</v>
+      </c>
+      <c r="O4">
+        <v>100</v>
+      </c>
+      <c r="P4">
+        <v>100</v>
+      </c>
+      <c r="Q4">
+        <v>100</v>
+      </c>
+      <c r="R4">
+        <v>100</v>
+      </c>
+      <c r="S4">
+        <v>100</v>
+      </c>
+      <c r="T4">
+        <v>100</v>
+      </c>
+      <c r="U4">
+        <v>100</v>
+      </c>
+      <c r="V4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C5">
+        <v>400</v>
+      </c>
+      <c r="D5">
+        <v>1.5015000000000001</v>
+      </c>
+      <c r="E5">
+        <v>0.86199999999999999</v>
+      </c>
+      <c r="F5">
+        <v>0.82299999999999995</v>
+      </c>
+      <c r="G5">
+        <v>0.74399999999999999</v>
+      </c>
+      <c r="H5">
+        <v>0.70099999999999996</v>
+      </c>
+      <c r="I5">
+        <v>0.71399999999999997</v>
+      </c>
+      <c r="J5">
+        <v>0.63300000000000001</v>
+      </c>
+      <c r="K5">
+        <v>0.58799999999999997</v>
+      </c>
+      <c r="L5">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="M5">
+        <v>0.81499999999999995</v>
+      </c>
+      <c r="N5">
+        <v>100</v>
+      </c>
+      <c r="O5">
+        <v>100</v>
+      </c>
+      <c r="P5">
+        <v>100</v>
+      </c>
+      <c r="Q5">
+        <v>100</v>
+      </c>
+      <c r="R5">
+        <v>100</v>
+      </c>
+      <c r="S5">
+        <v>100</v>
+      </c>
+      <c r="T5">
+        <v>100</v>
+      </c>
+      <c r="U5">
+        <v>100</v>
+      </c>
+      <c r="V5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C6">
+        <v>400</v>
+      </c>
+      <c r="D6">
+        <v>2.0070000000000001</v>
+      </c>
+      <c r="E6">
+        <v>0.878</v>
+      </c>
+      <c r="F6">
+        <v>0.77800000000000002</v>
+      </c>
+      <c r="G6">
+        <v>0.73599999999999999</v>
+      </c>
+      <c r="H6">
+        <v>0.67200000000000004</v>
+      </c>
+      <c r="I6">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="J6">
+        <v>0.56899999999999995</v>
+      </c>
+      <c r="K6">
+        <v>0.50600000000000001</v>
+      </c>
+      <c r="L6">
+        <v>0.45800000000000002</v>
+      </c>
+      <c r="M6">
+        <v>1.5169999999999999</v>
+      </c>
+      <c r="N6">
+        <v>100</v>
+      </c>
+      <c r="O6">
+        <v>100</v>
+      </c>
+      <c r="P6">
+        <v>100</v>
+      </c>
+      <c r="Q6">
+        <v>100</v>
+      </c>
+      <c r="R6">
+        <v>100</v>
+      </c>
+      <c r="S6">
+        <v>100</v>
+      </c>
+      <c r="T6">
+        <v>100</v>
+      </c>
+      <c r="U6">
+        <v>100</v>
+      </c>
+      <c r="V6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C7">
+        <v>200</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0.45700000000000002</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7">
+        <v>0.47799999999999998</v>
+      </c>
+      <c r="M7">
+        <v>0.48399999999999999</v>
+      </c>
+      <c r="N7">
+        <v>100</v>
+      </c>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="4"/>
+      <c r="U7">
+        <v>100</v>
+      </c>
+      <c r="V7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C8">
+        <v>200</v>
+      </c>
+      <c r="D8">
+        <v>0.25</v>
+      </c>
+      <c r="E8">
+        <v>0.44900000000000001</v>
+      </c>
+      <c r="F8">
+        <v>0.42899999999999999</v>
+      </c>
+      <c r="G8">
+        <v>0.45400000000000001</v>
+      </c>
+      <c r="H8">
+        <v>0.442</v>
+      </c>
+      <c r="I8">
+        <v>0.43099999999999999</v>
+      </c>
+      <c r="J8">
+        <v>0.42799999999999999</v>
+      </c>
+      <c r="K8">
+        <v>0.42399999999999999</v>
+      </c>
+      <c r="L8">
+        <v>0.41299999999999998</v>
+      </c>
+      <c r="M8">
+        <v>0.54900000000000004</v>
+      </c>
+      <c r="N8">
+        <v>100</v>
+      </c>
+      <c r="O8">
+        <v>100</v>
+      </c>
+      <c r="P8">
+        <v>100</v>
+      </c>
+      <c r="Q8">
+        <v>100</v>
+      </c>
+      <c r="R8">
+        <v>100</v>
+      </c>
+      <c r="S8">
+        <v>100</v>
+      </c>
+      <c r="T8">
+        <v>100</v>
+      </c>
+      <c r="U8">
+        <v>100</v>
+      </c>
+      <c r="V8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22">
+      <c r="A9">
+        <v>3</v>
+      </c>
+      <c r="B9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C9">
+        <v>200</v>
+      </c>
+      <c r="D9">
+        <v>0.49980000000000002</v>
+      </c>
+      <c r="E9">
+        <v>0.46400000000000002</v>
+      </c>
+      <c r="F9">
+        <v>0.42099999999999999</v>
+      </c>
+      <c r="G9">
+        <v>0.44600000000000001</v>
+      </c>
+      <c r="H9">
+        <v>0.42</v>
+      </c>
+      <c r="I9">
+        <v>0.41299999999999998</v>
+      </c>
+      <c r="J9">
+        <v>0.40100000000000002</v>
+      </c>
+      <c r="K9">
+        <v>0.38800000000000001</v>
+      </c>
+      <c r="L9">
+        <v>0.374</v>
+      </c>
+      <c r="M9">
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="N9">
+        <v>100</v>
+      </c>
+      <c r="O9">
+        <v>100</v>
+      </c>
+      <c r="P9">
+        <v>100</v>
+      </c>
+      <c r="Q9">
+        <v>100</v>
+      </c>
+      <c r="R9">
+        <v>100</v>
+      </c>
+      <c r="S9">
+        <v>100</v>
+      </c>
+      <c r="T9">
+        <v>100</v>
+      </c>
+      <c r="U9">
+        <v>100</v>
+      </c>
+      <c r="V9">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22">
+      <c r="A10">
+        <v>3</v>
+      </c>
+      <c r="B10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C10">
+        <v>200</v>
+      </c>
+      <c r="D10" s="7">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>0.46500000000000002</v>
+      </c>
+      <c r="F10">
+        <v>0.42399999999999999</v>
+      </c>
+      <c r="G10">
+        <v>0.41799999999999998</v>
+      </c>
+      <c r="H10">
+        <v>0.38300000000000001</v>
+      </c>
+      <c r="I10">
+        <v>0.36899999999999999</v>
+      </c>
+      <c r="J10">
+        <v>0.31900000000000001</v>
+      </c>
+      <c r="K10">
+        <v>0.29099999999999998</v>
+      </c>
+      <c r="L10">
+        <v>0.27200000000000002</v>
+      </c>
+      <c r="M10">
+        <v>0.24399999999999999</v>
+      </c>
+      <c r="N10">
+        <v>100</v>
+      </c>
+      <c r="O10">
+        <v>100</v>
+      </c>
+      <c r="P10">
+        <v>100</v>
+      </c>
+      <c r="Q10">
+        <v>100</v>
+      </c>
+      <c r="R10">
+        <v>100</v>
+      </c>
+      <c r="S10">
+        <v>100</v>
+      </c>
+      <c r="T10">
+        <v>100</v>
+      </c>
+      <c r="U10">
+        <v>100</v>
+      </c>
+      <c r="V10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22">
+      <c r="A11">
+        <v>3</v>
+      </c>
+      <c r="B11" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11">
+        <v>200</v>
+      </c>
+      <c r="D11">
+        <v>1.5002</v>
+      </c>
+      <c r="E11">
+        <v>0.44400000000000001</v>
+      </c>
+      <c r="F11">
+        <v>0.374</v>
+      </c>
+      <c r="G11">
+        <v>0.379</v>
+      </c>
+      <c r="H11">
+        <v>0.33700000000000002</v>
+      </c>
+      <c r="I11">
+        <v>0.30499999999999999</v>
+      </c>
+      <c r="J11">
+        <v>0.24399999999999999</v>
+      </c>
+      <c r="K11">
+        <v>0.192</v>
+      </c>
+      <c r="L11">
+        <v>0.155</v>
+      </c>
+      <c r="M11">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="N11">
+        <v>100</v>
+      </c>
+      <c r="O11">
+        <v>100</v>
+      </c>
+      <c r="P11">
+        <v>100</v>
+      </c>
+      <c r="Q11">
+        <v>100</v>
+      </c>
+      <c r="R11">
+        <v>100</v>
+      </c>
+      <c r="S11">
+        <v>100</v>
+      </c>
+      <c r="T11">
+        <v>100</v>
+      </c>
+      <c r="U11">
+        <v>100</v>
+      </c>
+      <c r="V11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22">
+      <c r="A12">
+        <v>4</v>
+      </c>
+      <c r="B12" t="s">
+        <v>95</v>
+      </c>
+      <c r="C12">
+        <v>200</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0.76200000000000001</v>
+      </c>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="1">
+        <v>3.3250000000000002</v>
+      </c>
+      <c r="M12" s="1">
+        <v>3.0459999999999998</v>
+      </c>
+      <c r="N12">
+        <v>50</v>
+      </c>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4"/>
+      <c r="S12" s="4"/>
+      <c r="T12" s="4"/>
+      <c r="U12">
+        <v>10</v>
+      </c>
+      <c r="V12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22">
+      <c r="A13">
+        <v>4</v>
+      </c>
+      <c r="B13" t="s">
+        <v>95</v>
+      </c>
+      <c r="C13">
+        <v>200</v>
+      </c>
+      <c r="D13">
+        <v>0.05</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0.85699999999999998</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0.78600000000000003</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0.82599999999999996</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0.89500000000000002</v>
+      </c>
+      <c r="I13" s="1">
+        <v>0.76100000000000001</v>
+      </c>
+      <c r="J13" s="1">
+        <v>0.69299999999999995</v>
+      </c>
+      <c r="K13" s="1">
+        <v>1.49</v>
+      </c>
+      <c r="L13" s="1">
+        <v>2.5950000000000002</v>
+      </c>
+      <c r="M13" s="1">
+        <v>2.48</v>
+      </c>
+      <c r="N13" s="1">
+        <v>50</v>
+      </c>
+      <c r="O13" s="1">
+        <v>50</v>
+      </c>
+      <c r="P13" s="1">
+        <v>50</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>50</v>
+      </c>
+      <c r="R13" s="1">
+        <v>50</v>
+      </c>
+      <c r="S13" s="1">
+        <v>50</v>
+      </c>
+      <c r="T13" s="1">
+        <v>20</v>
+      </c>
+      <c r="U13" s="1">
+        <v>10</v>
+      </c>
+      <c r="V13" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22">
+      <c r="A14">
+        <v>4</v>
+      </c>
+      <c r="B14" t="s">
+        <v>95</v>
+      </c>
+      <c r="C14">
+        <v>200</v>
+      </c>
+      <c r="D14">
+        <v>0.1</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0.89900000000000002</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0.86899999999999999</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0.84599999999999997</v>
+      </c>
+      <c r="H14" s="1">
+        <v>0.79100000000000004</v>
+      </c>
+      <c r="I14" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="J14" s="1">
+        <v>0.55300000000000005</v>
+      </c>
+      <c r="K14" s="1">
+        <v>1.115</v>
+      </c>
+      <c r="L14" s="1">
+        <v>1.8129999999999999</v>
+      </c>
+      <c r="M14" s="1">
+        <v>1.536</v>
+      </c>
+      <c r="N14" s="1">
+        <v>50</v>
+      </c>
+      <c r="O14" s="1">
+        <v>50</v>
+      </c>
+      <c r="P14" s="1">
+        <v>50</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>50</v>
+      </c>
+      <c r="R14" s="1">
+        <v>50</v>
+      </c>
+      <c r="S14" s="1">
+        <v>50</v>
+      </c>
+      <c r="T14" s="1">
+        <v>20</v>
+      </c>
+      <c r="U14" s="1">
+        <v>10</v>
+      </c>
+      <c r="V14" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22">
+      <c r="A15">
+        <v>4</v>
+      </c>
+      <c r="B15" t="s">
+        <v>95</v>
+      </c>
+      <c r="C15">
+        <v>200</v>
+      </c>
+      <c r="D15">
+        <v>0.2</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0.89600000000000002</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0.81599999999999995</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0.754</v>
+      </c>
+      <c r="H15" s="1">
+        <v>0.59499999999999997</v>
+      </c>
+      <c r="I15" s="1">
+        <v>0.45400000000000001</v>
+      </c>
+      <c r="J15" s="1">
+        <v>0.223</v>
+      </c>
+      <c r="K15" s="1">
+        <v>0.314</v>
+      </c>
+      <c r="L15" s="1">
+        <v>0</v>
+      </c>
+      <c r="M15" s="1">
+        <v>0.11</v>
+      </c>
+      <c r="N15" s="1">
+        <v>50</v>
+      </c>
+      <c r="O15" s="1">
+        <v>50</v>
+      </c>
+      <c r="P15" s="1">
+        <v>50</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>50</v>
+      </c>
+      <c r="R15" s="1">
+        <v>50</v>
+      </c>
+      <c r="S15" s="1">
+        <v>50</v>
+      </c>
+      <c r="T15" s="1">
+        <v>20</v>
+      </c>
+      <c r="U15" s="1">
+        <v>10</v>
+      </c>
+      <c r="V15" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22">
+      <c r="A16">
+        <v>4</v>
+      </c>
+      <c r="B16" t="s">
+        <v>95</v>
+      </c>
+      <c r="C16">
+        <v>200</v>
+      </c>
+      <c r="D16">
+        <v>0.3</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0.89200000000000002</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="H16" s="1">
+        <v>0.57799999999999996</v>
+      </c>
+      <c r="I16" s="1">
+        <v>0.34899999999999998</v>
+      </c>
+      <c r="J16" s="1">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="K16" s="1">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="L16" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="M16" s="1">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="N16" s="1">
+        <v>50</v>
+      </c>
+      <c r="O16" s="1">
+        <v>50</v>
+      </c>
+      <c r="P16" s="1">
+        <v>50</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>50</v>
+      </c>
+      <c r="R16" s="1">
+        <v>50</v>
+      </c>
+      <c r="S16" s="1">
+        <v>50</v>
+      </c>
+      <c r="T16" s="1">
+        <v>20</v>
+      </c>
+      <c r="U16" s="1">
+        <v>10</v>
+      </c>
+      <c r="V16" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22">
+      <c r="A17">
+        <v>4</v>
+      </c>
+      <c r="B17" t="s">
+        <v>95</v>
+      </c>
+      <c r="C17">
+        <v>400</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1.655</v>
+      </c>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="1">
+        <v>1.6559999999999999</v>
+      </c>
+      <c r="M17" s="1">
+        <v>1.712</v>
+      </c>
+      <c r="N17" s="1">
+        <v>50.5</v>
+      </c>
+      <c r="O17" s="9"/>
+      <c r="P17" s="9"/>
+      <c r="Q17" s="9"/>
+      <c r="R17" s="9"/>
+      <c r="S17" s="9"/>
+      <c r="T17" s="9"/>
+      <c r="U17" s="1">
+        <v>50</v>
+      </c>
+      <c r="V17" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22">
+      <c r="A18">
+        <v>4</v>
+      </c>
+      <c r="B18" t="s">
+        <v>95</v>
+      </c>
+      <c r="C18">
+        <v>400</v>
+      </c>
+      <c r="D18">
+        <v>0.1</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1.677</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0.88200000000000001</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0.81699999999999995</v>
+      </c>
+      <c r="H18" s="1">
+        <v>0.81699999999999995</v>
+      </c>
+      <c r="I18" s="1">
+        <v>0.78100000000000003</v>
+      </c>
+      <c r="J18" s="1">
+        <v>0.71099999999999997</v>
+      </c>
+      <c r="K18" s="1">
+        <v>0.70099999999999996</v>
+      </c>
+      <c r="L18" s="1">
+        <v>1.2549999999999999</v>
+      </c>
+      <c r="M18" s="1">
+        <v>1.2789999999999999</v>
+      </c>
+      <c r="N18" s="1">
+        <v>50.5</v>
+      </c>
+      <c r="O18" s="1">
+        <v>100</v>
+      </c>
+      <c r="P18" s="1">
+        <v>100</v>
+      </c>
+      <c r="Q18" s="1">
+        <v>100</v>
+      </c>
+      <c r="R18" s="1">
+        <v>100</v>
+      </c>
+      <c r="S18" s="1">
+        <v>100</v>
+      </c>
+      <c r="T18" s="1">
+        <v>100</v>
+      </c>
+      <c r="U18" s="1">
+        <v>50</v>
+      </c>
+      <c r="V18" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22">
+      <c r="A19">
+        <v>4</v>
+      </c>
+      <c r="B19" t="s">
+        <v>95</v>
+      </c>
+      <c r="C19">
+        <v>400</v>
+      </c>
+      <c r="D19">
+        <v>0.2</v>
+      </c>
+      <c r="E19" s="1">
+        <v>1.6319999999999999</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0.85799999999999998</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0.82199999999999995</v>
+      </c>
+      <c r="H19" s="1">
+        <v>0.74099999999999999</v>
+      </c>
+      <c r="I19" s="1">
+        <v>0.69599999999999995</v>
+      </c>
+      <c r="J19" s="1">
+        <v>0.54100000000000004</v>
+      </c>
+      <c r="K19" s="1">
+        <v>0.44700000000000001</v>
+      </c>
+      <c r="L19" s="1">
+        <v>0.76900000000000002</v>
+      </c>
+      <c r="M19" s="1">
+        <v>0.54900000000000004</v>
+      </c>
+      <c r="N19" s="1">
+        <v>50.5</v>
+      </c>
+      <c r="O19" s="1">
+        <v>100</v>
+      </c>
+      <c r="P19" s="1">
+        <v>100</v>
+      </c>
+      <c r="Q19" s="1">
+        <v>100</v>
+      </c>
+      <c r="R19" s="1">
+        <v>100</v>
+      </c>
+      <c r="S19" s="1">
+        <v>100</v>
+      </c>
+      <c r="T19" s="1">
+        <v>100</v>
+      </c>
+      <c r="U19" s="1">
+        <v>50</v>
+      </c>
+      <c r="V19" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22">
+      <c r="A20">
+        <v>4</v>
+      </c>
+      <c r="B20" t="s">
+        <v>95</v>
+      </c>
+      <c r="C20">
+        <v>400</v>
+      </c>
+      <c r="D20">
+        <v>0.3</v>
+      </c>
+      <c r="E20" s="1">
+        <v>1.5149999999999999</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0.81799999999999995</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0.79700000000000004</v>
+      </c>
+      <c r="H20" s="1">
+        <v>0.69499999999999995</v>
+      </c>
+      <c r="I20" s="1">
+        <v>0.65600000000000003</v>
+      </c>
+      <c r="J20" s="1">
+        <v>0.51800000000000002</v>
+      </c>
+      <c r="K20" s="1">
+        <v>0.34399999999999997</v>
+      </c>
+      <c r="L20" s="1">
+        <v>0.46100000000000002</v>
+      </c>
+      <c r="M20" s="1">
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="N20" s="1">
+        <v>50.5</v>
+      </c>
+      <c r="O20" s="1">
+        <v>100</v>
+      </c>
+      <c r="P20" s="1">
+        <v>100</v>
+      </c>
+      <c r="Q20" s="1">
+        <v>100</v>
+      </c>
+      <c r="R20" s="1">
+        <v>100</v>
+      </c>
+      <c r="S20" s="1">
+        <v>100</v>
+      </c>
+      <c r="T20" s="1">
+        <v>100</v>
+      </c>
+      <c r="U20" s="1">
+        <v>50</v>
+      </c>
+      <c r="V20" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22">
+      <c r="A21">
+        <v>4</v>
+      </c>
+      <c r="B21" t="s">
+        <v>95</v>
+      </c>
+      <c r="C21">
+        <v>400</v>
+      </c>
+      <c r="D21">
+        <v>0.4</v>
+      </c>
+      <c r="E21" s="1">
+        <v>1.69</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0.79800000000000004</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0.69099999999999995</v>
+      </c>
+      <c r="H21" s="1">
+        <v>0.54900000000000004</v>
+      </c>
+      <c r="I21" s="1">
+        <v>0.42199999999999999</v>
+      </c>
+      <c r="J21" s="1">
+        <v>0.20300000000000001</v>
+      </c>
+      <c r="K21" s="1">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="L21" s="1">
+        <v>0.105</v>
+      </c>
+      <c r="M21" s="1">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="N21" s="1">
+        <v>50.5</v>
+      </c>
+      <c r="O21" s="1">
+        <v>100</v>
+      </c>
+      <c r="P21" s="1">
+        <v>100</v>
+      </c>
+      <c r="Q21" s="1">
+        <v>100</v>
+      </c>
+      <c r="R21" s="1">
+        <v>100</v>
+      </c>
+      <c r="S21" s="1">
+        <v>100</v>
+      </c>
+      <c r="T21" s="1">
+        <v>100</v>
+      </c>
+      <c r="U21" s="1">
+        <v>50</v>
+      </c>
+      <c r="V21" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22">
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+    </row>
+    <row r="24" spans="1:22">
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+    </row>
+    <row r="25" spans="1:22">
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+    </row>
+    <row r="26" spans="1:22">
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+    </row>
+    <row r="27" spans="1:22">
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+    </row>
+    <row r="28" spans="1:22">
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+    </row>
+    <row r="29" spans="1:22">
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+    </row>
+    <row r="30" spans="1:22">
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+    </row>
+    <row r="31" spans="1:22">
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+    </row>
+    <row r="32" spans="1:22">
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+    </row>
+    <row r="33" spans="3:8">
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data_raw/input.xlsx
+++ b/data_raw/input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nobuakiohsumi/Lec_handson/wtrwks_rpt/data_raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E73E04A-86C8-FC47-B7E0-5D3113089072}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22B53C8F-3F66-DE42-8D51-A7EF1C6A2F16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16420" activeTab="7" xr2:uid="{11D640DA-DCFB-E544-8ADF-BF4092E26F00}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16420" activeTab="6" xr2:uid="{11D640DA-DCFB-E544-8ADF-BF4092E26F00}"/>
   </bookViews>
   <sheets>
     <sheet name="colony" sheetId="3" r:id="rId1"/>
@@ -460,7 +460,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -483,9 +483,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -9653,10 +9650,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10B8D198-DF4E-5A4D-80C0-879C2B2FE6E1}">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView zoomScale="200" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="150" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -9883,6 +9880,104 @@
       </c>
       <c r="D16">
         <v>3.35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17">
+        <v>4</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="D17" s="1">
+        <v>4.1000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18">
+        <v>4</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0.115</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19">
+        <v>4</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0.20799999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20">
+        <v>4</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20" s="1">
+        <v>2</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0.438</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21">
+        <v>4</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21" s="1">
+        <v>5</v>
+      </c>
+      <c r="D21" s="1">
+        <v>1.0549999999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22">
+        <v>4</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22" s="1">
+        <v>10</v>
+      </c>
+      <c r="D22" s="1">
+        <v>1.9339999999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23">
+        <v>4</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23" s="1">
+        <v>20</v>
+      </c>
+      <c r="D23" s="1">
+        <v>3.331</v>
       </c>
     </row>
   </sheetData>
@@ -9895,7 +9990,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F043729-32A1-B842-8BA1-3C91CFC99C7F}">
   <dimension ref="A1:V33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="124" workbookViewId="0"/>
+    <sheetView zoomScale="124" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <sheetData>
@@ -9989,7 +10084,7 @@
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
-      <c r="L2" s="8">
+      <c r="L2">
         <v>0.92800000000000005</v>
       </c>
       <c r="M2">
@@ -10004,7 +10099,7 @@
       <c r="R2" s="4"/>
       <c r="S2" s="4"/>
       <c r="T2" s="4"/>
-      <c r="U2" s="8">
+      <c r="U2">
         <v>100</v>
       </c>
       <c r="V2">
@@ -10946,12 +11041,12 @@
       <c r="N17" s="1">
         <v>50.5</v>
       </c>
-      <c r="O17" s="9"/>
-      <c r="P17" s="9"/>
-      <c r="Q17" s="9"/>
-      <c r="R17" s="9"/>
-      <c r="S17" s="9"/>
-      <c r="T17" s="9"/>
+      <c r="O17" s="8"/>
+      <c r="P17" s="8"/>
+      <c r="Q17" s="8"/>
+      <c r="R17" s="8"/>
+      <c r="S17" s="8"/>
+      <c r="T17" s="8"/>
       <c r="U17" s="1">
         <v>50</v>
       </c>

--- a/data_raw/input.xlsx
+++ b/data_raw/input.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10102"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10110"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nobuakiohsumi/Lec_handson/wtrwks_rpt/data_raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22B53C8F-3F66-DE42-8D51-A7EF1C6A2F16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2609C9C0-2996-0B43-AFDA-F863FD68561F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16420" activeTab="6" xr2:uid="{11D640DA-DCFB-E544-8ADF-BF4092E26F00}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16420" activeTab="4" xr2:uid="{11D640DA-DCFB-E544-8ADF-BF4092E26F00}"/>
   </bookViews>
   <sheets>
     <sheet name="colony" sheetId="3" r:id="rId1"/>
@@ -6027,8 +6027,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C320211-CCF6-7344-99FE-51FABC6AB40A}">
   <dimension ref="A1:I73"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -6099,7 +6099,9 @@
       <c r="C3" s="1">
         <v>2</v>
       </c>
-      <c r="D3" s="1"/>
+      <c r="D3" s="1">
+        <v>0.85199999999999998</v>
+      </c>
       <c r="E3" s="1">
         <v>2</v>
       </c>
@@ -6251,7 +6253,7 @@
         <v>0</v>
       </c>
       <c r="D10" s="1">
-        <v>5.7990000000000004</v>
+        <v>1.9330000000000001</v>
       </c>
       <c r="E10" s="1">
         <v>3</v>
@@ -6431,7 +6433,7 @@
         <v>0</v>
       </c>
       <c r="D18" s="1">
-        <v>5.2169999999999996</v>
+        <v>1.7390000000000001</v>
       </c>
       <c r="E18" s="1">
         <v>3</v>
@@ -9652,7 +9654,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10B8D198-DF4E-5A4D-80C0-879C2B2FE6E1}">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="150" workbookViewId="0">
+    <sheetView topLeftCell="A9" zoomScale="150" workbookViewId="0">
       <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>

--- a/data_raw/input.xlsx
+++ b/data_raw/input.xlsx
@@ -8,21 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nobuakiohsumi/Lec_handson/wtrwks_rpt/data_raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2609C9C0-2996-0B43-AFDA-F863FD68561F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B4BDCEB-DC89-8D40-B66D-7943B965F3DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16420" activeTab="4" xr2:uid="{11D640DA-DCFB-E544-8ADF-BF4092E26F00}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="15420" windowHeight="16420" activeTab="2" xr2:uid="{11D640DA-DCFB-E544-8ADF-BF4092E26F00}"/>
   </bookViews>
   <sheets>
     <sheet name="colony" sheetId="3" r:id="rId1"/>
-    <sheet name="flc_amt" sheetId="4" r:id="rId2"/>
-    <sheet name="flc_ph" sheetId="5" r:id="rId3"/>
-    <sheet name="ozone_calib" sheetId="1" r:id="rId4"/>
-    <sheet name="ozone" sheetId="2" r:id="rId5"/>
-    <sheet name="manometer" sheetId="6" r:id="rId6"/>
-    <sheet name="abs_calib" sheetId="7" r:id="rId7"/>
-    <sheet name="abs" sheetId="8" r:id="rId8"/>
+    <sheet name="chlorine" sheetId="9" r:id="rId2"/>
+    <sheet name="uv" sheetId="10" r:id="rId3"/>
+    <sheet name="flc_amt" sheetId="4" r:id="rId4"/>
+    <sheet name="flc_ph" sheetId="5" r:id="rId5"/>
+    <sheet name="ozone_calib" sheetId="1" r:id="rId6"/>
+    <sheet name="ozone" sheetId="2" r:id="rId7"/>
+    <sheet name="manometer" sheetId="6" r:id="rId8"/>
+    <sheet name="abs_calib" sheetId="7" r:id="rId9"/>
+    <sheet name="abs" sheetId="8" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -43,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="838" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="880" uniqueCount="115">
   <si>
     <t>班</t>
   </si>
@@ -379,6 +381,87 @@
   </si>
   <si>
     <t>MB_init_conc</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サンプル名</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>水道水</t>
+    <rPh sb="0" eb="3">
+      <t xml:space="preserve">スイドウスイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cl_bef</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cl_aftr</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>緩衝液A</t>
+    <rPh sb="0" eb="3">
+      <t>カンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>緩衝液B</t>
+    <rPh sb="0" eb="1">
+      <t>カンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>t1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>t2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>t3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>t4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BW</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>phr</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>uvr</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>uv_1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>uv_2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>uv_3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>uv_4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>uv_5</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -824,8 +907,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3512933-894E-714A-A634-FA6A580DD15B}">
   <dimension ref="A1:G151"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView topLeftCell="A102" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -4105,7 +4188,2195 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F043729-32A1-B842-8BA1-3C91CFC99C7F}">
+  <dimension ref="A1:V33"/>
+  <sheetViews>
+    <sheetView zoomScale="124" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <sheetData>
+    <row r="1" spans="1:22">
+      <c r="A1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H1" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1" t="s">
+        <v>90</v>
+      </c>
+      <c r="J1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K1" t="s">
+        <v>92</v>
+      </c>
+      <c r="L1" t="s">
+        <v>93</v>
+      </c>
+      <c r="M1" t="s">
+        <v>94</v>
+      </c>
+      <c r="N1" t="s">
+        <v>78</v>
+      </c>
+      <c r="O1" t="s">
+        <v>79</v>
+      </c>
+      <c r="P1" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>80</v>
+      </c>
+      <c r="R1" t="s">
+        <v>81</v>
+      </c>
+      <c r="S1" t="s">
+        <v>82</v>
+      </c>
+      <c r="T1" t="s">
+        <v>83</v>
+      </c>
+      <c r="U1" t="s">
+        <v>84</v>
+      </c>
+      <c r="V1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22">
+      <c r="A2">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2">
+        <v>400</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0.85699999999999998</v>
+      </c>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2">
+        <v>0.92800000000000005</v>
+      </c>
+      <c r="M2">
+        <v>0.94599999999999995</v>
+      </c>
+      <c r="N2">
+        <v>100</v>
+      </c>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
+      <c r="U2">
+        <v>100</v>
+      </c>
+      <c r="V2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3">
+        <v>400</v>
+      </c>
+      <c r="D3">
+        <v>0.50029999999999997</v>
+      </c>
+      <c r="E3">
+        <v>0.89800000000000002</v>
+      </c>
+      <c r="F3">
+        <v>0.81799999999999995</v>
+      </c>
+      <c r="G3">
+        <v>0.84099999999999997</v>
+      </c>
+      <c r="H3">
+        <v>0.85099999999999998</v>
+      </c>
+      <c r="I3">
+        <v>0.82699999999999996</v>
+      </c>
+      <c r="J3">
+        <v>0.80100000000000005</v>
+      </c>
+      <c r="K3">
+        <v>0.79800000000000004</v>
+      </c>
+      <c r="L3">
+        <v>0.77200000000000002</v>
+      </c>
+      <c r="M3">
+        <v>0.60499999999999998</v>
+      </c>
+      <c r="N3">
+        <v>100</v>
+      </c>
+      <c r="O3">
+        <v>100</v>
+      </c>
+      <c r="P3">
+        <v>100</v>
+      </c>
+      <c r="Q3">
+        <v>100</v>
+      </c>
+      <c r="R3">
+        <v>100</v>
+      </c>
+      <c r="S3">
+        <v>100</v>
+      </c>
+      <c r="T3">
+        <v>100</v>
+      </c>
+      <c r="U3">
+        <v>100</v>
+      </c>
+      <c r="V3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4">
+        <v>400</v>
+      </c>
+      <c r="D4" s="7">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>0.84299999999999997</v>
+      </c>
+      <c r="F4">
+        <v>0.8</v>
+      </c>
+      <c r="G4">
+        <v>0.77900000000000003</v>
+      </c>
+      <c r="H4">
+        <v>0.75600000000000001</v>
+      </c>
+      <c r="I4">
+        <v>0.75700000000000001</v>
+      </c>
+      <c r="J4">
+        <v>0.66800000000000004</v>
+      </c>
+      <c r="K4">
+        <v>0.623</v>
+      </c>
+      <c r="L4">
+        <v>0.55900000000000005</v>
+      </c>
+      <c r="M4">
+        <v>0.29199999999999998</v>
+      </c>
+      <c r="N4">
+        <v>100</v>
+      </c>
+      <c r="O4">
+        <v>100</v>
+      </c>
+      <c r="P4">
+        <v>100</v>
+      </c>
+      <c r="Q4">
+        <v>100</v>
+      </c>
+      <c r="R4">
+        <v>100</v>
+      </c>
+      <c r="S4">
+        <v>100</v>
+      </c>
+      <c r="T4">
+        <v>100</v>
+      </c>
+      <c r="U4">
+        <v>100</v>
+      </c>
+      <c r="V4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C5">
+        <v>400</v>
+      </c>
+      <c r="D5">
+        <v>1.5015000000000001</v>
+      </c>
+      <c r="E5">
+        <v>0.86199999999999999</v>
+      </c>
+      <c r="F5">
+        <v>0.82299999999999995</v>
+      </c>
+      <c r="G5">
+        <v>0.74399999999999999</v>
+      </c>
+      <c r="H5">
+        <v>0.70099999999999996</v>
+      </c>
+      <c r="I5">
+        <v>0.71399999999999997</v>
+      </c>
+      <c r="J5">
+        <v>0.63300000000000001</v>
+      </c>
+      <c r="K5">
+        <v>0.58799999999999997</v>
+      </c>
+      <c r="L5">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="M5">
+        <v>0.81499999999999995</v>
+      </c>
+      <c r="N5">
+        <v>100</v>
+      </c>
+      <c r="O5">
+        <v>100</v>
+      </c>
+      <c r="P5">
+        <v>100</v>
+      </c>
+      <c r="Q5">
+        <v>100</v>
+      </c>
+      <c r="R5">
+        <v>100</v>
+      </c>
+      <c r="S5">
+        <v>100</v>
+      </c>
+      <c r="T5">
+        <v>100</v>
+      </c>
+      <c r="U5">
+        <v>100</v>
+      </c>
+      <c r="V5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C6">
+        <v>400</v>
+      </c>
+      <c r="D6">
+        <v>2.0070000000000001</v>
+      </c>
+      <c r="E6">
+        <v>0.878</v>
+      </c>
+      <c r="F6">
+        <v>0.77800000000000002</v>
+      </c>
+      <c r="G6">
+        <v>0.73599999999999999</v>
+      </c>
+      <c r="H6">
+        <v>0.67200000000000004</v>
+      </c>
+      <c r="I6">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="J6">
+        <v>0.56899999999999995</v>
+      </c>
+      <c r="K6">
+        <v>0.50600000000000001</v>
+      </c>
+      <c r="L6">
+        <v>0.45800000000000002</v>
+      </c>
+      <c r="M6">
+        <v>1.5169999999999999</v>
+      </c>
+      <c r="N6">
+        <v>100</v>
+      </c>
+      <c r="O6">
+        <v>100</v>
+      </c>
+      <c r="P6">
+        <v>100</v>
+      </c>
+      <c r="Q6">
+        <v>100</v>
+      </c>
+      <c r="R6">
+        <v>100</v>
+      </c>
+      <c r="S6">
+        <v>100</v>
+      </c>
+      <c r="T6">
+        <v>100</v>
+      </c>
+      <c r="U6">
+        <v>100</v>
+      </c>
+      <c r="V6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C7">
+        <v>200</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0.45700000000000002</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7">
+        <v>0.47799999999999998</v>
+      </c>
+      <c r="M7">
+        <v>0.48399999999999999</v>
+      </c>
+      <c r="N7">
+        <v>100</v>
+      </c>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="4"/>
+      <c r="U7">
+        <v>100</v>
+      </c>
+      <c r="V7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C8">
+        <v>200</v>
+      </c>
+      <c r="D8">
+        <v>0.25</v>
+      </c>
+      <c r="E8">
+        <v>0.44900000000000001</v>
+      </c>
+      <c r="F8">
+        <v>0.42899999999999999</v>
+      </c>
+      <c r="G8">
+        <v>0.45400000000000001</v>
+      </c>
+      <c r="H8">
+        <v>0.442</v>
+      </c>
+      <c r="I8">
+        <v>0.43099999999999999</v>
+      </c>
+      <c r="J8">
+        <v>0.42799999999999999</v>
+      </c>
+      <c r="K8">
+        <v>0.42399999999999999</v>
+      </c>
+      <c r="L8">
+        <v>0.41299999999999998</v>
+      </c>
+      <c r="M8">
+        <v>0.54900000000000004</v>
+      </c>
+      <c r="N8">
+        <v>100</v>
+      </c>
+      <c r="O8">
+        <v>100</v>
+      </c>
+      <c r="P8">
+        <v>100</v>
+      </c>
+      <c r="Q8">
+        <v>100</v>
+      </c>
+      <c r="R8">
+        <v>100</v>
+      </c>
+      <c r="S8">
+        <v>100</v>
+      </c>
+      <c r="T8">
+        <v>100</v>
+      </c>
+      <c r="U8">
+        <v>100</v>
+      </c>
+      <c r="V8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22">
+      <c r="A9">
+        <v>3</v>
+      </c>
+      <c r="B9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C9">
+        <v>200</v>
+      </c>
+      <c r="D9">
+        <v>0.49980000000000002</v>
+      </c>
+      <c r="E9">
+        <v>0.46400000000000002</v>
+      </c>
+      <c r="F9">
+        <v>0.42099999999999999</v>
+      </c>
+      <c r="G9">
+        <v>0.44600000000000001</v>
+      </c>
+      <c r="H9">
+        <v>0.42</v>
+      </c>
+      <c r="I9">
+        <v>0.41299999999999998</v>
+      </c>
+      <c r="J9">
+        <v>0.40100000000000002</v>
+      </c>
+      <c r="K9">
+        <v>0.38800000000000001</v>
+      </c>
+      <c r="L9">
+        <v>0.374</v>
+      </c>
+      <c r="M9">
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="N9">
+        <v>100</v>
+      </c>
+      <c r="O9">
+        <v>100</v>
+      </c>
+      <c r="P9">
+        <v>100</v>
+      </c>
+      <c r="Q9">
+        <v>100</v>
+      </c>
+      <c r="R9">
+        <v>100</v>
+      </c>
+      <c r="S9">
+        <v>100</v>
+      </c>
+      <c r="T9">
+        <v>100</v>
+      </c>
+      <c r="U9">
+        <v>100</v>
+      </c>
+      <c r="V9">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22">
+      <c r="A10">
+        <v>3</v>
+      </c>
+      <c r="B10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C10">
+        <v>200</v>
+      </c>
+      <c r="D10" s="7">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>0.46500000000000002</v>
+      </c>
+      <c r="F10">
+        <v>0.42399999999999999</v>
+      </c>
+      <c r="G10">
+        <v>0.41799999999999998</v>
+      </c>
+      <c r="H10">
+        <v>0.38300000000000001</v>
+      </c>
+      <c r="I10">
+        <v>0.36899999999999999</v>
+      </c>
+      <c r="J10">
+        <v>0.31900000000000001</v>
+      </c>
+      <c r="K10">
+        <v>0.29099999999999998</v>
+      </c>
+      <c r="L10">
+        <v>0.27200000000000002</v>
+      </c>
+      <c r="M10">
+        <v>0.24399999999999999</v>
+      </c>
+      <c r="N10">
+        <v>100</v>
+      </c>
+      <c r="O10">
+        <v>100</v>
+      </c>
+      <c r="P10">
+        <v>100</v>
+      </c>
+      <c r="Q10">
+        <v>100</v>
+      </c>
+      <c r="R10">
+        <v>100</v>
+      </c>
+      <c r="S10">
+        <v>100</v>
+      </c>
+      <c r="T10">
+        <v>100</v>
+      </c>
+      <c r="U10">
+        <v>100</v>
+      </c>
+      <c r="V10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22">
+      <c r="A11">
+        <v>3</v>
+      </c>
+      <c r="B11" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11">
+        <v>200</v>
+      </c>
+      <c r="D11">
+        <v>1.5002</v>
+      </c>
+      <c r="E11">
+        <v>0.44400000000000001</v>
+      </c>
+      <c r="F11">
+        <v>0.374</v>
+      </c>
+      <c r="G11">
+        <v>0.379</v>
+      </c>
+      <c r="H11">
+        <v>0.33700000000000002</v>
+      </c>
+      <c r="I11">
+        <v>0.30499999999999999</v>
+      </c>
+      <c r="J11">
+        <v>0.24399999999999999</v>
+      </c>
+      <c r="K11">
+        <v>0.192</v>
+      </c>
+      <c r="L11">
+        <v>0.155</v>
+      </c>
+      <c r="M11">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="N11">
+        <v>100</v>
+      </c>
+      <c r="O11">
+        <v>100</v>
+      </c>
+      <c r="P11">
+        <v>100</v>
+      </c>
+      <c r="Q11">
+        <v>100</v>
+      </c>
+      <c r="R11">
+        <v>100</v>
+      </c>
+      <c r="S11">
+        <v>100</v>
+      </c>
+      <c r="T11">
+        <v>100</v>
+      </c>
+      <c r="U11">
+        <v>100</v>
+      </c>
+      <c r="V11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22">
+      <c r="A12">
+        <v>4</v>
+      </c>
+      <c r="B12" t="s">
+        <v>95</v>
+      </c>
+      <c r="C12">
+        <v>200</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0.76200000000000001</v>
+      </c>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="1">
+        <v>3.3250000000000002</v>
+      </c>
+      <c r="M12" s="1">
+        <v>3.0459999999999998</v>
+      </c>
+      <c r="N12">
+        <v>50</v>
+      </c>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4"/>
+      <c r="S12" s="4"/>
+      <c r="T12" s="4"/>
+      <c r="U12">
+        <v>10</v>
+      </c>
+      <c r="V12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22">
+      <c r="A13">
+        <v>4</v>
+      </c>
+      <c r="B13" t="s">
+        <v>95</v>
+      </c>
+      <c r="C13">
+        <v>200</v>
+      </c>
+      <c r="D13">
+        <v>0.05</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0.85699999999999998</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0.78600000000000003</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0.82599999999999996</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0.89500000000000002</v>
+      </c>
+      <c r="I13" s="1">
+        <v>0.76100000000000001</v>
+      </c>
+      <c r="J13" s="1">
+        <v>0.69299999999999995</v>
+      </c>
+      <c r="K13" s="1">
+        <v>1.49</v>
+      </c>
+      <c r="L13" s="1">
+        <v>2.5950000000000002</v>
+      </c>
+      <c r="M13" s="1">
+        <v>2.48</v>
+      </c>
+      <c r="N13" s="1">
+        <v>50</v>
+      </c>
+      <c r="O13" s="1">
+        <v>50</v>
+      </c>
+      <c r="P13" s="1">
+        <v>50</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>50</v>
+      </c>
+      <c r="R13" s="1">
+        <v>50</v>
+      </c>
+      <c r="S13" s="1">
+        <v>50</v>
+      </c>
+      <c r="T13" s="1">
+        <v>20</v>
+      </c>
+      <c r="U13" s="1">
+        <v>10</v>
+      </c>
+      <c r="V13" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22">
+      <c r="A14">
+        <v>4</v>
+      </c>
+      <c r="B14" t="s">
+        <v>95</v>
+      </c>
+      <c r="C14">
+        <v>200</v>
+      </c>
+      <c r="D14">
+        <v>0.1</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0.89900000000000002</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0.86899999999999999</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0.84599999999999997</v>
+      </c>
+      <c r="H14" s="1">
+        <v>0.79100000000000004</v>
+      </c>
+      <c r="I14" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="J14" s="1">
+        <v>0.55300000000000005</v>
+      </c>
+      <c r="K14" s="1">
+        <v>1.115</v>
+      </c>
+      <c r="L14" s="1">
+        <v>1.8129999999999999</v>
+      </c>
+      <c r="M14" s="1">
+        <v>1.536</v>
+      </c>
+      <c r="N14" s="1">
+        <v>50</v>
+      </c>
+      <c r="O14" s="1">
+        <v>50</v>
+      </c>
+      <c r="P14" s="1">
+        <v>50</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>50</v>
+      </c>
+      <c r="R14" s="1">
+        <v>50</v>
+      </c>
+      <c r="S14" s="1">
+        <v>50</v>
+      </c>
+      <c r="T14" s="1">
+        <v>20</v>
+      </c>
+      <c r="U14" s="1">
+        <v>10</v>
+      </c>
+      <c r="V14" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22">
+      <c r="A15">
+        <v>4</v>
+      </c>
+      <c r="B15" t="s">
+        <v>95</v>
+      </c>
+      <c r="C15">
+        <v>200</v>
+      </c>
+      <c r="D15">
+        <v>0.2</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0.89600000000000002</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0.81599999999999995</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0.754</v>
+      </c>
+      <c r="H15" s="1">
+        <v>0.59499999999999997</v>
+      </c>
+      <c r="I15" s="1">
+        <v>0.45400000000000001</v>
+      </c>
+      <c r="J15" s="1">
+        <v>0.223</v>
+      </c>
+      <c r="K15" s="1">
+        <v>0.314</v>
+      </c>
+      <c r="L15" s="1">
+        <v>0</v>
+      </c>
+      <c r="M15" s="1">
+        <v>0.11</v>
+      </c>
+      <c r="N15" s="1">
+        <v>50</v>
+      </c>
+      <c r="O15" s="1">
+        <v>50</v>
+      </c>
+      <c r="P15" s="1">
+        <v>50</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>50</v>
+      </c>
+      <c r="R15" s="1">
+        <v>50</v>
+      </c>
+      <c r="S15" s="1">
+        <v>50</v>
+      </c>
+      <c r="T15" s="1">
+        <v>20</v>
+      </c>
+      <c r="U15" s="1">
+        <v>10</v>
+      </c>
+      <c r="V15" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22">
+      <c r="A16">
+        <v>4</v>
+      </c>
+      <c r="B16" t="s">
+        <v>95</v>
+      </c>
+      <c r="C16">
+        <v>200</v>
+      </c>
+      <c r="D16">
+        <v>0.3</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0.89200000000000002</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="H16" s="1">
+        <v>0.57799999999999996</v>
+      </c>
+      <c r="I16" s="1">
+        <v>0.34899999999999998</v>
+      </c>
+      <c r="J16" s="1">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="K16" s="1">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="L16" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="M16" s="1">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="N16" s="1">
+        <v>50</v>
+      </c>
+      <c r="O16" s="1">
+        <v>50</v>
+      </c>
+      <c r="P16" s="1">
+        <v>50</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>50</v>
+      </c>
+      <c r="R16" s="1">
+        <v>50</v>
+      </c>
+      <c r="S16" s="1">
+        <v>50</v>
+      </c>
+      <c r="T16" s="1">
+        <v>20</v>
+      </c>
+      <c r="U16" s="1">
+        <v>10</v>
+      </c>
+      <c r="V16" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22">
+      <c r="A17">
+        <v>4</v>
+      </c>
+      <c r="B17" t="s">
+        <v>95</v>
+      </c>
+      <c r="C17">
+        <v>400</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1.655</v>
+      </c>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="1">
+        <v>1.6559999999999999</v>
+      </c>
+      <c r="M17" s="1">
+        <v>1.712</v>
+      </c>
+      <c r="N17" s="1">
+        <v>50.5</v>
+      </c>
+      <c r="O17" s="8"/>
+      <c r="P17" s="8"/>
+      <c r="Q17" s="8"/>
+      <c r="R17" s="8"/>
+      <c r="S17" s="8"/>
+      <c r="T17" s="8"/>
+      <c r="U17" s="1">
+        <v>50</v>
+      </c>
+      <c r="V17" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22">
+      <c r="A18">
+        <v>4</v>
+      </c>
+      <c r="B18" t="s">
+        <v>95</v>
+      </c>
+      <c r="C18">
+        <v>400</v>
+      </c>
+      <c r="D18">
+        <v>0.1</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1.677</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0.88200000000000001</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0.81699999999999995</v>
+      </c>
+      <c r="H18" s="1">
+        <v>0.81699999999999995</v>
+      </c>
+      <c r="I18" s="1">
+        <v>0.78100000000000003</v>
+      </c>
+      <c r="J18" s="1">
+        <v>0.71099999999999997</v>
+      </c>
+      <c r="K18" s="1">
+        <v>0.70099999999999996</v>
+      </c>
+      <c r="L18" s="1">
+        <v>1.2549999999999999</v>
+      </c>
+      <c r="M18" s="1">
+        <v>1.2789999999999999</v>
+      </c>
+      <c r="N18" s="1">
+        <v>50.5</v>
+      </c>
+      <c r="O18" s="1">
+        <v>100</v>
+      </c>
+      <c r="P18" s="1">
+        <v>100</v>
+      </c>
+      <c r="Q18" s="1">
+        <v>100</v>
+      </c>
+      <c r="R18" s="1">
+        <v>100</v>
+      </c>
+      <c r="S18" s="1">
+        <v>100</v>
+      </c>
+      <c r="T18" s="1">
+        <v>100</v>
+      </c>
+      <c r="U18" s="1">
+        <v>50</v>
+      </c>
+      <c r="V18" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22">
+      <c r="A19">
+        <v>4</v>
+      </c>
+      <c r="B19" t="s">
+        <v>95</v>
+      </c>
+      <c r="C19">
+        <v>400</v>
+      </c>
+      <c r="D19">
+        <v>0.2</v>
+      </c>
+      <c r="E19" s="1">
+        <v>1.6319999999999999</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0.85799999999999998</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0.82199999999999995</v>
+      </c>
+      <c r="H19" s="1">
+        <v>0.74099999999999999</v>
+      </c>
+      <c r="I19" s="1">
+        <v>0.69599999999999995</v>
+      </c>
+      <c r="J19" s="1">
+        <v>0.54100000000000004</v>
+      </c>
+      <c r="K19" s="1">
+        <v>0.44700000000000001</v>
+      </c>
+      <c r="L19" s="1">
+        <v>0.76900000000000002</v>
+      </c>
+      <c r="M19" s="1">
+        <v>0.54900000000000004</v>
+      </c>
+      <c r="N19" s="1">
+        <v>50.5</v>
+      </c>
+      <c r="O19" s="1">
+        <v>100</v>
+      </c>
+      <c r="P19" s="1">
+        <v>100</v>
+      </c>
+      <c r="Q19" s="1">
+        <v>100</v>
+      </c>
+      <c r="R19" s="1">
+        <v>100</v>
+      </c>
+      <c r="S19" s="1">
+        <v>100</v>
+      </c>
+      <c r="T19" s="1">
+        <v>100</v>
+      </c>
+      <c r="U19" s="1">
+        <v>50</v>
+      </c>
+      <c r="V19" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22">
+      <c r="A20">
+        <v>4</v>
+      </c>
+      <c r="B20" t="s">
+        <v>95</v>
+      </c>
+      <c r="C20">
+        <v>400</v>
+      </c>
+      <c r="D20">
+        <v>0.3</v>
+      </c>
+      <c r="E20" s="1">
+        <v>1.5149999999999999</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0.81799999999999995</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0.79700000000000004</v>
+      </c>
+      <c r="H20" s="1">
+        <v>0.69499999999999995</v>
+      </c>
+      <c r="I20" s="1">
+        <v>0.65600000000000003</v>
+      </c>
+      <c r="J20" s="1">
+        <v>0.51800000000000002</v>
+      </c>
+      <c r="K20" s="1">
+        <v>0.34399999999999997</v>
+      </c>
+      <c r="L20" s="1">
+        <v>0.46100000000000002</v>
+      </c>
+      <c r="M20" s="1">
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="N20" s="1">
+        <v>50.5</v>
+      </c>
+      <c r="O20" s="1">
+        <v>100</v>
+      </c>
+      <c r="P20" s="1">
+        <v>100</v>
+      </c>
+      <c r="Q20" s="1">
+        <v>100</v>
+      </c>
+      <c r="R20" s="1">
+        <v>100</v>
+      </c>
+      <c r="S20" s="1">
+        <v>100</v>
+      </c>
+      <c r="T20" s="1">
+        <v>100</v>
+      </c>
+      <c r="U20" s="1">
+        <v>50</v>
+      </c>
+      <c r="V20" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22">
+      <c r="A21">
+        <v>4</v>
+      </c>
+      <c r="B21" t="s">
+        <v>95</v>
+      </c>
+      <c r="C21">
+        <v>400</v>
+      </c>
+      <c r="D21">
+        <v>0.4</v>
+      </c>
+      <c r="E21" s="1">
+        <v>1.69</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0.79800000000000004</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0.69099999999999995</v>
+      </c>
+      <c r="H21" s="1">
+        <v>0.54900000000000004</v>
+      </c>
+      <c r="I21" s="1">
+        <v>0.42199999999999999</v>
+      </c>
+      <c r="J21" s="1">
+        <v>0.20300000000000001</v>
+      </c>
+      <c r="K21" s="1">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="L21" s="1">
+        <v>0.105</v>
+      </c>
+      <c r="M21" s="1">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="N21" s="1">
+        <v>50.5</v>
+      </c>
+      <c r="O21" s="1">
+        <v>100</v>
+      </c>
+      <c r="P21" s="1">
+        <v>100</v>
+      </c>
+      <c r="Q21" s="1">
+        <v>100</v>
+      </c>
+      <c r="R21" s="1">
+        <v>100</v>
+      </c>
+      <c r="S21" s="1">
+        <v>100</v>
+      </c>
+      <c r="T21" s="1">
+        <v>100</v>
+      </c>
+      <c r="U21" s="1">
+        <v>50</v>
+      </c>
+      <c r="V21" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22">
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+    </row>
+    <row r="24" spans="1:22">
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+    </row>
+    <row r="25" spans="1:22">
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+    </row>
+    <row r="26" spans="1:22">
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+    </row>
+    <row r="27" spans="1:22">
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+    </row>
+    <row r="28" spans="1:22">
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+    </row>
+    <row r="29" spans="1:22">
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+    </row>
+    <row r="30" spans="1:22">
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+    </row>
+    <row r="31" spans="1:22">
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+    </row>
+    <row r="32" spans="1:22">
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+    </row>
+    <row r="33" spans="3:8">
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68008F20-CA32-C948-9FBD-56883E294EC8}">
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F1" t="s">
+        <v>104</v>
+      </c>
+      <c r="G1" t="s">
+        <v>105</v>
+      </c>
+      <c r="H1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C2">
+        <v>0.24</v>
+      </c>
+      <c r="D2">
+        <v>0.18</v>
+      </c>
+      <c r="E2">
+        <v>10</v>
+      </c>
+      <c r="F2">
+        <v>20</v>
+      </c>
+      <c r="G2">
+        <v>30</v>
+      </c>
+      <c r="H2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C3">
+        <v>0.27</v>
+      </c>
+      <c r="D3">
+        <v>0.16</v>
+      </c>
+      <c r="E3">
+        <v>10</v>
+      </c>
+      <c r="F3">
+        <v>20</v>
+      </c>
+      <c r="G3">
+        <v>30</v>
+      </c>
+      <c r="H3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C4">
+        <v>0.35</v>
+      </c>
+      <c r="D4">
+        <v>0.26</v>
+      </c>
+      <c r="E4">
+        <v>20</v>
+      </c>
+      <c r="F4">
+        <v>40</v>
+      </c>
+      <c r="G4">
+        <v>60</v>
+      </c>
+      <c r="H4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C5">
+        <v>0.18</v>
+      </c>
+      <c r="D5">
+        <v>0.12</v>
+      </c>
+      <c r="E5">
+        <v>10</v>
+      </c>
+      <c r="F5">
+        <v>20</v>
+      </c>
+      <c r="G5">
+        <v>30</v>
+      </c>
+      <c r="H5">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C6">
+        <v>0.32</v>
+      </c>
+      <c r="D6">
+        <v>0.19</v>
+      </c>
+      <c r="E6">
+        <v>10</v>
+      </c>
+      <c r="F6">
+        <v>20</v>
+      </c>
+      <c r="G6">
+        <v>30</v>
+      </c>
+      <c r="H6">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C7">
+        <v>0.17</v>
+      </c>
+      <c r="D7">
+        <v>0.06</v>
+      </c>
+      <c r="E7">
+        <v>20</v>
+      </c>
+      <c r="F7">
+        <v>40</v>
+      </c>
+      <c r="G7">
+        <v>60</v>
+      </c>
+      <c r="H7">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
+        <v>98</v>
+      </c>
+      <c r="C8">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="D8">
+        <v>0.25</v>
+      </c>
+      <c r="E8">
+        <v>14</v>
+      </c>
+      <c r="F8">
+        <v>24</v>
+      </c>
+      <c r="G8">
+        <v>34</v>
+      </c>
+      <c r="H8">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9">
+        <v>3</v>
+      </c>
+      <c r="B9" t="s">
+        <v>101</v>
+      </c>
+      <c r="C9">
+        <v>0.25</v>
+      </c>
+      <c r="D9">
+        <v>0.19</v>
+      </c>
+      <c r="E9">
+        <v>13</v>
+      </c>
+      <c r="F9">
+        <v>24</v>
+      </c>
+      <c r="G9">
+        <v>34</v>
+      </c>
+      <c r="H9">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10">
+        <v>3</v>
+      </c>
+      <c r="B10" t="s">
+        <v>102</v>
+      </c>
+      <c r="C10">
+        <v>0.2</v>
+      </c>
+      <c r="D10" s="7"/>
+      <c r="E10">
+        <v>24</v>
+      </c>
+      <c r="F10">
+        <v>44</v>
+      </c>
+      <c r="G10">
+        <v>64</v>
+      </c>
+      <c r="H10">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11">
+        <v>4</v>
+      </c>
+      <c r="B11" t="s">
+        <v>98</v>
+      </c>
+      <c r="C11">
+        <v>0.3</v>
+      </c>
+      <c r="D11">
+        <v>0.26</v>
+      </c>
+      <c r="E11">
+        <v>10</v>
+      </c>
+      <c r="F11">
+        <v>24</v>
+      </c>
+      <c r="G11">
+        <v>34</v>
+      </c>
+      <c r="H11">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12">
+        <v>4</v>
+      </c>
+      <c r="B12" t="s">
+        <v>101</v>
+      </c>
+      <c r="C12">
+        <v>0.2</v>
+      </c>
+      <c r="D12">
+        <v>0.11</v>
+      </c>
+      <c r="E12">
+        <v>11</v>
+      </c>
+      <c r="F12">
+        <v>21</v>
+      </c>
+      <c r="G12">
+        <v>31</v>
+      </c>
+      <c r="H12">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13">
+        <v>4</v>
+      </c>
+      <c r="B13" t="s">
+        <v>102</v>
+      </c>
+      <c r="C13">
+        <v>0.21</v>
+      </c>
+      <c r="D13">
+        <v>0.13</v>
+      </c>
+      <c r="E13">
+        <v>21</v>
+      </c>
+      <c r="F13">
+        <v>41</v>
+      </c>
+      <c r="G13">
+        <v>61</v>
+      </c>
+      <c r="H13">
+        <v>71</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFF7DF32-DC72-D048-BCBE-777A215F4A8A}">
+  <dimension ref="A1:J13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="131" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1" t="s">
+        <v>110</v>
+      </c>
+      <c r="G1" t="s">
+        <v>111</v>
+      </c>
+      <c r="H1" t="s">
+        <v>112</v>
+      </c>
+      <c r="I1" t="s">
+        <v>113</v>
+      </c>
+      <c r="J1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C2">
+        <v>80</v>
+      </c>
+      <c r="D2">
+        <v>160</v>
+      </c>
+      <c r="E2">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C3">
+        <v>50</v>
+      </c>
+      <c r="D3">
+        <v>100</v>
+      </c>
+      <c r="E3">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C4">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>10</v>
+      </c>
+      <c r="E4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C5">
+        <v>80</v>
+      </c>
+      <c r="D5">
+        <v>160</v>
+      </c>
+      <c r="E5">
+        <v>240</v>
+      </c>
+      <c r="F5" s="1">
+        <v>84.8</v>
+      </c>
+      <c r="G5" s="1">
+        <v>87.5</v>
+      </c>
+      <c r="H5" s="1">
+        <v>92.8</v>
+      </c>
+      <c r="I5" s="1">
+        <v>94.8</v>
+      </c>
+      <c r="J5" s="1">
+        <v>102.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>108</v>
+      </c>
+      <c r="C6">
+        <v>40</v>
+      </c>
+      <c r="D6">
+        <v>80</v>
+      </c>
+      <c r="E6">
+        <v>120</v>
+      </c>
+      <c r="F6" s="1">
+        <v>84.8</v>
+      </c>
+      <c r="G6" s="1">
+        <v>87.5</v>
+      </c>
+      <c r="H6" s="1">
+        <v>92.8</v>
+      </c>
+      <c r="I6" s="1">
+        <v>94.8</v>
+      </c>
+      <c r="J6" s="1">
+        <v>102.1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="D7">
+        <v>10</v>
+      </c>
+      <c r="E7">
+        <v>15</v>
+      </c>
+      <c r="F7" s="1">
+        <v>84.8</v>
+      </c>
+      <c r="G7" s="1">
+        <v>87.5</v>
+      </c>
+      <c r="H7" s="1">
+        <v>92.8</v>
+      </c>
+      <c r="I7" s="1">
+        <v>94.8</v>
+      </c>
+      <c r="J7" s="1">
+        <v>102.1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C8">
+        <v>100</v>
+      </c>
+      <c r="D8">
+        <v>200</v>
+      </c>
+      <c r="E8">
+        <v>300</v>
+      </c>
+      <c r="F8" s="1">
+        <v>109.8</v>
+      </c>
+      <c r="G8" s="1">
+        <v>109.4</v>
+      </c>
+      <c r="H8" s="1">
+        <v>109.5</v>
+      </c>
+      <c r="I8" s="1">
+        <v>109.8</v>
+      </c>
+      <c r="J8" s="1">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9">
+        <v>3</v>
+      </c>
+      <c r="B9" t="s">
+        <v>108</v>
+      </c>
+      <c r="C9">
+        <v>50</v>
+      </c>
+      <c r="D9">
+        <v>100</v>
+      </c>
+      <c r="E9">
+        <v>200</v>
+      </c>
+      <c r="F9" s="1">
+        <v>109.8</v>
+      </c>
+      <c r="G9" s="1">
+        <v>109.4</v>
+      </c>
+      <c r="H9" s="1">
+        <v>109.5</v>
+      </c>
+      <c r="I9" s="1">
+        <v>109.8</v>
+      </c>
+      <c r="J9" s="1">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10">
+        <v>3</v>
+      </c>
+      <c r="B10" t="s">
+        <v>109</v>
+      </c>
+      <c r="C10">
+        <v>5</v>
+      </c>
+      <c r="D10">
+        <v>10</v>
+      </c>
+      <c r="E10">
+        <v>20</v>
+      </c>
+      <c r="F10" s="1">
+        <v>109.8</v>
+      </c>
+      <c r="G10" s="1">
+        <v>109.4</v>
+      </c>
+      <c r="H10" s="1">
+        <v>109.5</v>
+      </c>
+      <c r="I10" s="1">
+        <v>109.8</v>
+      </c>
+      <c r="J10" s="1">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11">
+        <v>4</v>
+      </c>
+      <c r="B11" t="s">
+        <v>107</v>
+      </c>
+      <c r="C11">
+        <v>100</v>
+      </c>
+      <c r="D11">
+        <v>200</v>
+      </c>
+      <c r="E11">
+        <v>300</v>
+      </c>
+      <c r="F11" s="1">
+        <v>64.8</v>
+      </c>
+      <c r="G11" s="1">
+        <v>85.4</v>
+      </c>
+      <c r="H11" s="1">
+        <v>96.3</v>
+      </c>
+      <c r="I11" s="1">
+        <v>102.8</v>
+      </c>
+      <c r="J11" s="1">
+        <v>106.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12">
+        <v>4</v>
+      </c>
+      <c r="B12" t="s">
+        <v>108</v>
+      </c>
+      <c r="C12">
+        <v>50</v>
+      </c>
+      <c r="D12">
+        <v>160</v>
+      </c>
+      <c r="E12">
+        <v>320</v>
+      </c>
+      <c r="F12" s="1">
+        <v>64.8</v>
+      </c>
+      <c r="G12" s="1">
+        <v>85.4</v>
+      </c>
+      <c r="H12" s="1">
+        <v>96.3</v>
+      </c>
+      <c r="I12" s="1">
+        <v>102.8</v>
+      </c>
+      <c r="J12" s="1">
+        <v>106.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13">
+        <v>4</v>
+      </c>
+      <c r="B13" t="s">
+        <v>109</v>
+      </c>
+      <c r="C13">
+        <v>10</v>
+      </c>
+      <c r="D13">
+        <v>20</v>
+      </c>
+      <c r="E13">
+        <v>30</v>
+      </c>
+      <c r="F13" s="1">
+        <v>64.8</v>
+      </c>
+      <c r="G13" s="1">
+        <v>85.4</v>
+      </c>
+      <c r="H13" s="1">
+        <v>96.3</v>
+      </c>
+      <c r="I13" s="1">
+        <v>102.8</v>
+      </c>
+      <c r="J13" s="1">
+        <v>106.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A03A6169-8CF0-ED48-8CF0-B9C14BAC7314}">
   <dimension ref="A1:I25"/>
   <sheetViews>
@@ -4820,7 +7091,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6ABABCB-B712-5F4E-B334-3A17969B32CE}">
   <dimension ref="A1:L31"/>
   <sheetViews>
@@ -5732,7 +8003,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FA11D0C-59C7-1F48-9044-24305A633767}">
   <dimension ref="A1:C25"/>
   <sheetViews>
@@ -6023,11 +8294,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C320211-CCF6-7344-99FE-51FABC6AB40A}">
   <dimension ref="A1:I73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -7664,7 +9935,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70F5089C-337D-AB4E-A123-8CEBB17E04D3}">
   <dimension ref="A1:R57"/>
   <sheetViews>
@@ -9650,7 +11921,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10B8D198-DF4E-5A4D-80C0-879C2B2FE6E1}">
   <dimension ref="A1:D23"/>
   <sheetViews>
@@ -9986,1453 +12257,4 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F043729-32A1-B842-8BA1-3C91CFC99C7F}">
-  <dimension ref="A1:V33"/>
-  <sheetViews>
-    <sheetView zoomScale="124" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
-  <sheetData>
-    <row r="1" spans="1:22">
-      <c r="A1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E1" t="s">
-        <v>77</v>
-      </c>
-      <c r="F1" t="s">
-        <v>87</v>
-      </c>
-      <c r="G1" t="s">
-        <v>88</v>
-      </c>
-      <c r="H1" t="s">
-        <v>89</v>
-      </c>
-      <c r="I1" t="s">
-        <v>90</v>
-      </c>
-      <c r="J1" t="s">
-        <v>91</v>
-      </c>
-      <c r="K1" t="s">
-        <v>92</v>
-      </c>
-      <c r="L1" t="s">
-        <v>93</v>
-      </c>
-      <c r="M1" t="s">
-        <v>94</v>
-      </c>
-      <c r="N1" t="s">
-        <v>78</v>
-      </c>
-      <c r="O1" t="s">
-        <v>79</v>
-      </c>
-      <c r="P1" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>80</v>
-      </c>
-      <c r="R1" t="s">
-        <v>81</v>
-      </c>
-      <c r="S1" t="s">
-        <v>82</v>
-      </c>
-      <c r="T1" t="s">
-        <v>83</v>
-      </c>
-      <c r="U1" t="s">
-        <v>84</v>
-      </c>
-      <c r="V1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22">
-      <c r="A2">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C2">
-        <v>400</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0.85699999999999998</v>
-      </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2">
-        <v>0.92800000000000005</v>
-      </c>
-      <c r="M2">
-        <v>0.94599999999999995</v>
-      </c>
-      <c r="N2">
-        <v>100</v>
-      </c>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4"/>
-      <c r="S2" s="4"/>
-      <c r="T2" s="4"/>
-      <c r="U2">
-        <v>100</v>
-      </c>
-      <c r="V2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22">
-      <c r="A3">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C3">
-        <v>400</v>
-      </c>
-      <c r="D3">
-        <v>0.50029999999999997</v>
-      </c>
-      <c r="E3">
-        <v>0.89800000000000002</v>
-      </c>
-      <c r="F3">
-        <v>0.81799999999999995</v>
-      </c>
-      <c r="G3">
-        <v>0.84099999999999997</v>
-      </c>
-      <c r="H3">
-        <v>0.85099999999999998</v>
-      </c>
-      <c r="I3">
-        <v>0.82699999999999996</v>
-      </c>
-      <c r="J3">
-        <v>0.80100000000000005</v>
-      </c>
-      <c r="K3">
-        <v>0.79800000000000004</v>
-      </c>
-      <c r="L3">
-        <v>0.77200000000000002</v>
-      </c>
-      <c r="M3">
-        <v>0.60499999999999998</v>
-      </c>
-      <c r="N3">
-        <v>100</v>
-      </c>
-      <c r="O3">
-        <v>100</v>
-      </c>
-      <c r="P3">
-        <v>100</v>
-      </c>
-      <c r="Q3">
-        <v>100</v>
-      </c>
-      <c r="R3">
-        <v>100</v>
-      </c>
-      <c r="S3">
-        <v>100</v>
-      </c>
-      <c r="T3">
-        <v>100</v>
-      </c>
-      <c r="U3">
-        <v>100</v>
-      </c>
-      <c r="V3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C4">
-        <v>400</v>
-      </c>
-      <c r="D4" s="7">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>0.84299999999999997</v>
-      </c>
-      <c r="F4">
-        <v>0.8</v>
-      </c>
-      <c r="G4">
-        <v>0.77900000000000003</v>
-      </c>
-      <c r="H4">
-        <v>0.75600000000000001</v>
-      </c>
-      <c r="I4">
-        <v>0.75700000000000001</v>
-      </c>
-      <c r="J4">
-        <v>0.66800000000000004</v>
-      </c>
-      <c r="K4">
-        <v>0.623</v>
-      </c>
-      <c r="L4">
-        <v>0.55900000000000005</v>
-      </c>
-      <c r="M4">
-        <v>0.29199999999999998</v>
-      </c>
-      <c r="N4">
-        <v>100</v>
-      </c>
-      <c r="O4">
-        <v>100</v>
-      </c>
-      <c r="P4">
-        <v>100</v>
-      </c>
-      <c r="Q4">
-        <v>100</v>
-      </c>
-      <c r="R4">
-        <v>100</v>
-      </c>
-      <c r="S4">
-        <v>100</v>
-      </c>
-      <c r="T4">
-        <v>100</v>
-      </c>
-      <c r="U4">
-        <v>100</v>
-      </c>
-      <c r="V4">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>76</v>
-      </c>
-      <c r="C5">
-        <v>400</v>
-      </c>
-      <c r="D5">
-        <v>1.5015000000000001</v>
-      </c>
-      <c r="E5">
-        <v>0.86199999999999999</v>
-      </c>
-      <c r="F5">
-        <v>0.82299999999999995</v>
-      </c>
-      <c r="G5">
-        <v>0.74399999999999999</v>
-      </c>
-      <c r="H5">
-        <v>0.70099999999999996</v>
-      </c>
-      <c r="I5">
-        <v>0.71399999999999997</v>
-      </c>
-      <c r="J5">
-        <v>0.63300000000000001</v>
-      </c>
-      <c r="K5">
-        <v>0.58799999999999997</v>
-      </c>
-      <c r="L5">
-        <v>0.52500000000000002</v>
-      </c>
-      <c r="M5">
-        <v>0.81499999999999995</v>
-      </c>
-      <c r="N5">
-        <v>100</v>
-      </c>
-      <c r="O5">
-        <v>100</v>
-      </c>
-      <c r="P5">
-        <v>100</v>
-      </c>
-      <c r="Q5">
-        <v>100</v>
-      </c>
-      <c r="R5">
-        <v>100</v>
-      </c>
-      <c r="S5">
-        <v>100</v>
-      </c>
-      <c r="T5">
-        <v>100</v>
-      </c>
-      <c r="U5">
-        <v>100</v>
-      </c>
-      <c r="V5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22">
-      <c r="A6">
-        <v>3</v>
-      </c>
-      <c r="B6" t="s">
-        <v>76</v>
-      </c>
-      <c r="C6">
-        <v>400</v>
-      </c>
-      <c r="D6">
-        <v>2.0070000000000001</v>
-      </c>
-      <c r="E6">
-        <v>0.878</v>
-      </c>
-      <c r="F6">
-        <v>0.77800000000000002</v>
-      </c>
-      <c r="G6">
-        <v>0.73599999999999999</v>
-      </c>
-      <c r="H6">
-        <v>0.67200000000000004</v>
-      </c>
-      <c r="I6">
-        <v>0.66700000000000004</v>
-      </c>
-      <c r="J6">
-        <v>0.56899999999999995</v>
-      </c>
-      <c r="K6">
-        <v>0.50600000000000001</v>
-      </c>
-      <c r="L6">
-        <v>0.45800000000000002</v>
-      </c>
-      <c r="M6">
-        <v>1.5169999999999999</v>
-      </c>
-      <c r="N6">
-        <v>100</v>
-      </c>
-      <c r="O6">
-        <v>100</v>
-      </c>
-      <c r="P6">
-        <v>100</v>
-      </c>
-      <c r="Q6">
-        <v>100</v>
-      </c>
-      <c r="R6">
-        <v>100</v>
-      </c>
-      <c r="S6">
-        <v>100</v>
-      </c>
-      <c r="T6">
-        <v>100</v>
-      </c>
-      <c r="U6">
-        <v>100</v>
-      </c>
-      <c r="V6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22">
-      <c r="A7">
-        <v>3</v>
-      </c>
-      <c r="B7" t="s">
-        <v>76</v>
-      </c>
-      <c r="C7">
-        <v>200</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0.45700000000000002</v>
-      </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7">
-        <v>0.47799999999999998</v>
-      </c>
-      <c r="M7">
-        <v>0.48399999999999999</v>
-      </c>
-      <c r="N7">
-        <v>100</v>
-      </c>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="4"/>
-      <c r="R7" s="4"/>
-      <c r="S7" s="4"/>
-      <c r="T7" s="4"/>
-      <c r="U7">
-        <v>100</v>
-      </c>
-      <c r="V7">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22">
-      <c r="A8">
-        <v>3</v>
-      </c>
-      <c r="B8" t="s">
-        <v>76</v>
-      </c>
-      <c r="C8">
-        <v>200</v>
-      </c>
-      <c r="D8">
-        <v>0.25</v>
-      </c>
-      <c r="E8">
-        <v>0.44900000000000001</v>
-      </c>
-      <c r="F8">
-        <v>0.42899999999999999</v>
-      </c>
-      <c r="G8">
-        <v>0.45400000000000001</v>
-      </c>
-      <c r="H8">
-        <v>0.442</v>
-      </c>
-      <c r="I8">
-        <v>0.43099999999999999</v>
-      </c>
-      <c r="J8">
-        <v>0.42799999999999999</v>
-      </c>
-      <c r="K8">
-        <v>0.42399999999999999</v>
-      </c>
-      <c r="L8">
-        <v>0.41299999999999998</v>
-      </c>
-      <c r="M8">
-        <v>0.54900000000000004</v>
-      </c>
-      <c r="N8">
-        <v>100</v>
-      </c>
-      <c r="O8">
-        <v>100</v>
-      </c>
-      <c r="P8">
-        <v>100</v>
-      </c>
-      <c r="Q8">
-        <v>100</v>
-      </c>
-      <c r="R8">
-        <v>100</v>
-      </c>
-      <c r="S8">
-        <v>100</v>
-      </c>
-      <c r="T8">
-        <v>100</v>
-      </c>
-      <c r="U8">
-        <v>100</v>
-      </c>
-      <c r="V8">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22">
-      <c r="A9">
-        <v>3</v>
-      </c>
-      <c r="B9" t="s">
-        <v>76</v>
-      </c>
-      <c r="C9">
-        <v>200</v>
-      </c>
-      <c r="D9">
-        <v>0.49980000000000002</v>
-      </c>
-      <c r="E9">
-        <v>0.46400000000000002</v>
-      </c>
-      <c r="F9">
-        <v>0.42099999999999999</v>
-      </c>
-      <c r="G9">
-        <v>0.44600000000000001</v>
-      </c>
-      <c r="H9">
-        <v>0.42</v>
-      </c>
-      <c r="I9">
-        <v>0.41299999999999998</v>
-      </c>
-      <c r="J9">
-        <v>0.40100000000000002</v>
-      </c>
-      <c r="K9">
-        <v>0.38800000000000001</v>
-      </c>
-      <c r="L9">
-        <v>0.374</v>
-      </c>
-      <c r="M9">
-        <v>0.32500000000000001</v>
-      </c>
-      <c r="N9">
-        <v>100</v>
-      </c>
-      <c r="O9">
-        <v>100</v>
-      </c>
-      <c r="P9">
-        <v>100</v>
-      </c>
-      <c r="Q9">
-        <v>100</v>
-      </c>
-      <c r="R9">
-        <v>100</v>
-      </c>
-      <c r="S9">
-        <v>100</v>
-      </c>
-      <c r="T9">
-        <v>100</v>
-      </c>
-      <c r="U9">
-        <v>100</v>
-      </c>
-      <c r="V9">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22">
-      <c r="A10">
-        <v>3</v>
-      </c>
-      <c r="B10" t="s">
-        <v>76</v>
-      </c>
-      <c r="C10">
-        <v>200</v>
-      </c>
-      <c r="D10" s="7">
-        <v>1</v>
-      </c>
-      <c r="E10">
-        <v>0.46500000000000002</v>
-      </c>
-      <c r="F10">
-        <v>0.42399999999999999</v>
-      </c>
-      <c r="G10">
-        <v>0.41799999999999998</v>
-      </c>
-      <c r="H10">
-        <v>0.38300000000000001</v>
-      </c>
-      <c r="I10">
-        <v>0.36899999999999999</v>
-      </c>
-      <c r="J10">
-        <v>0.31900000000000001</v>
-      </c>
-      <c r="K10">
-        <v>0.29099999999999998</v>
-      </c>
-      <c r="L10">
-        <v>0.27200000000000002</v>
-      </c>
-      <c r="M10">
-        <v>0.24399999999999999</v>
-      </c>
-      <c r="N10">
-        <v>100</v>
-      </c>
-      <c r="O10">
-        <v>100</v>
-      </c>
-      <c r="P10">
-        <v>100</v>
-      </c>
-      <c r="Q10">
-        <v>100</v>
-      </c>
-      <c r="R10">
-        <v>100</v>
-      </c>
-      <c r="S10">
-        <v>100</v>
-      </c>
-      <c r="T10">
-        <v>100</v>
-      </c>
-      <c r="U10">
-        <v>100</v>
-      </c>
-      <c r="V10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22">
-      <c r="A11">
-        <v>3</v>
-      </c>
-      <c r="B11" t="s">
-        <v>76</v>
-      </c>
-      <c r="C11">
-        <v>200</v>
-      </c>
-      <c r="D11">
-        <v>1.5002</v>
-      </c>
-      <c r="E11">
-        <v>0.44400000000000001</v>
-      </c>
-      <c r="F11">
-        <v>0.374</v>
-      </c>
-      <c r="G11">
-        <v>0.379</v>
-      </c>
-      <c r="H11">
-        <v>0.33700000000000002</v>
-      </c>
-      <c r="I11">
-        <v>0.30499999999999999</v>
-      </c>
-      <c r="J11">
-        <v>0.24399999999999999</v>
-      </c>
-      <c r="K11">
-        <v>0.192</v>
-      </c>
-      <c r="L11">
-        <v>0.155</v>
-      </c>
-      <c r="M11">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="N11">
-        <v>100</v>
-      </c>
-      <c r="O11">
-        <v>100</v>
-      </c>
-      <c r="P11">
-        <v>100</v>
-      </c>
-      <c r="Q11">
-        <v>100</v>
-      </c>
-      <c r="R11">
-        <v>100</v>
-      </c>
-      <c r="S11">
-        <v>100</v>
-      </c>
-      <c r="T11">
-        <v>100</v>
-      </c>
-      <c r="U11">
-        <v>100</v>
-      </c>
-      <c r="V11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22">
-      <c r="A12">
-        <v>4</v>
-      </c>
-      <c r="B12" t="s">
-        <v>95</v>
-      </c>
-      <c r="C12">
-        <v>200</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12" s="1">
-        <v>0.76200000000000001</v>
-      </c>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="1">
-        <v>3.3250000000000002</v>
-      </c>
-      <c r="M12" s="1">
-        <v>3.0459999999999998</v>
-      </c>
-      <c r="N12">
-        <v>50</v>
-      </c>
-      <c r="O12" s="4"/>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="4"/>
-      <c r="S12" s="4"/>
-      <c r="T12" s="4"/>
-      <c r="U12">
-        <v>10</v>
-      </c>
-      <c r="V12">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22">
-      <c r="A13">
-        <v>4</v>
-      </c>
-      <c r="B13" t="s">
-        <v>95</v>
-      </c>
-      <c r="C13">
-        <v>200</v>
-      </c>
-      <c r="D13">
-        <v>0.05</v>
-      </c>
-      <c r="E13" s="1">
-        <v>0.85699999999999998</v>
-      </c>
-      <c r="F13" s="1">
-        <v>0.78600000000000003</v>
-      </c>
-      <c r="G13" s="1">
-        <v>0.82599999999999996</v>
-      </c>
-      <c r="H13" s="1">
-        <v>0.89500000000000002</v>
-      </c>
-      <c r="I13" s="1">
-        <v>0.76100000000000001</v>
-      </c>
-      <c r="J13" s="1">
-        <v>0.69299999999999995</v>
-      </c>
-      <c r="K13" s="1">
-        <v>1.49</v>
-      </c>
-      <c r="L13" s="1">
-        <v>2.5950000000000002</v>
-      </c>
-      <c r="M13" s="1">
-        <v>2.48</v>
-      </c>
-      <c r="N13" s="1">
-        <v>50</v>
-      </c>
-      <c r="O13" s="1">
-        <v>50</v>
-      </c>
-      <c r="P13" s="1">
-        <v>50</v>
-      </c>
-      <c r="Q13" s="1">
-        <v>50</v>
-      </c>
-      <c r="R13" s="1">
-        <v>50</v>
-      </c>
-      <c r="S13" s="1">
-        <v>50</v>
-      </c>
-      <c r="T13" s="1">
-        <v>20</v>
-      </c>
-      <c r="U13" s="1">
-        <v>10</v>
-      </c>
-      <c r="V13" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22">
-      <c r="A14">
-        <v>4</v>
-      </c>
-      <c r="B14" t="s">
-        <v>95</v>
-      </c>
-      <c r="C14">
-        <v>200</v>
-      </c>
-      <c r="D14">
-        <v>0.1</v>
-      </c>
-      <c r="E14" s="1">
-        <v>0.89900000000000002</v>
-      </c>
-      <c r="F14" s="1">
-        <v>0.86899999999999999</v>
-      </c>
-      <c r="G14" s="1">
-        <v>0.84599999999999997</v>
-      </c>
-      <c r="H14" s="1">
-        <v>0.79100000000000004</v>
-      </c>
-      <c r="I14" s="1">
-        <v>0.7</v>
-      </c>
-      <c r="J14" s="1">
-        <v>0.55300000000000005</v>
-      </c>
-      <c r="K14" s="1">
-        <v>1.115</v>
-      </c>
-      <c r="L14" s="1">
-        <v>1.8129999999999999</v>
-      </c>
-      <c r="M14" s="1">
-        <v>1.536</v>
-      </c>
-      <c r="N14" s="1">
-        <v>50</v>
-      </c>
-      <c r="O14" s="1">
-        <v>50</v>
-      </c>
-      <c r="P14" s="1">
-        <v>50</v>
-      </c>
-      <c r="Q14" s="1">
-        <v>50</v>
-      </c>
-      <c r="R14" s="1">
-        <v>50</v>
-      </c>
-      <c r="S14" s="1">
-        <v>50</v>
-      </c>
-      <c r="T14" s="1">
-        <v>20</v>
-      </c>
-      <c r="U14" s="1">
-        <v>10</v>
-      </c>
-      <c r="V14" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22">
-      <c r="A15">
-        <v>4</v>
-      </c>
-      <c r="B15" t="s">
-        <v>95</v>
-      </c>
-      <c r="C15">
-        <v>200</v>
-      </c>
-      <c r="D15">
-        <v>0.2</v>
-      </c>
-      <c r="E15" s="1">
-        <v>0.89600000000000002</v>
-      </c>
-      <c r="F15" s="1">
-        <v>0.81599999999999995</v>
-      </c>
-      <c r="G15" s="1">
-        <v>0.754</v>
-      </c>
-      <c r="H15" s="1">
-        <v>0.59499999999999997</v>
-      </c>
-      <c r="I15" s="1">
-        <v>0.45400000000000001</v>
-      </c>
-      <c r="J15" s="1">
-        <v>0.223</v>
-      </c>
-      <c r="K15" s="1">
-        <v>0.314</v>
-      </c>
-      <c r="L15" s="1">
-        <v>0</v>
-      </c>
-      <c r="M15" s="1">
-        <v>0.11</v>
-      </c>
-      <c r="N15" s="1">
-        <v>50</v>
-      </c>
-      <c r="O15" s="1">
-        <v>50</v>
-      </c>
-      <c r="P15" s="1">
-        <v>50</v>
-      </c>
-      <c r="Q15" s="1">
-        <v>50</v>
-      </c>
-      <c r="R15" s="1">
-        <v>50</v>
-      </c>
-      <c r="S15" s="1">
-        <v>50</v>
-      </c>
-      <c r="T15" s="1">
-        <v>20</v>
-      </c>
-      <c r="U15" s="1">
-        <v>10</v>
-      </c>
-      <c r="V15" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22">
-      <c r="A16">
-        <v>4</v>
-      </c>
-      <c r="B16" t="s">
-        <v>95</v>
-      </c>
-      <c r="C16">
-        <v>200</v>
-      </c>
-      <c r="D16">
-        <v>0.3</v>
-      </c>
-      <c r="E16" s="1">
-        <v>0.89200000000000002</v>
-      </c>
-      <c r="F16" s="1">
-        <v>0.78500000000000003</v>
-      </c>
-      <c r="G16" s="1">
-        <v>0.66700000000000004</v>
-      </c>
-      <c r="H16" s="1">
-        <v>0.57799999999999996</v>
-      </c>
-      <c r="I16" s="1">
-        <v>0.34899999999999998</v>
-      </c>
-      <c r="J16" s="1">
-        <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="K16" s="1">
-        <v>4.4999999999999998E-2</v>
-      </c>
-      <c r="L16" s="1">
-        <v>0.02</v>
-      </c>
-      <c r="M16" s="1">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="N16" s="1">
-        <v>50</v>
-      </c>
-      <c r="O16" s="1">
-        <v>50</v>
-      </c>
-      <c r="P16" s="1">
-        <v>50</v>
-      </c>
-      <c r="Q16" s="1">
-        <v>50</v>
-      </c>
-      <c r="R16" s="1">
-        <v>50</v>
-      </c>
-      <c r="S16" s="1">
-        <v>50</v>
-      </c>
-      <c r="T16" s="1">
-        <v>20</v>
-      </c>
-      <c r="U16" s="1">
-        <v>10</v>
-      </c>
-      <c r="V16" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22">
-      <c r="A17">
-        <v>4</v>
-      </c>
-      <c r="B17" t="s">
-        <v>95</v>
-      </c>
-      <c r="C17">
-        <v>400</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17" s="1">
-        <v>1.655</v>
-      </c>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="1">
-        <v>1.6559999999999999</v>
-      </c>
-      <c r="M17" s="1">
-        <v>1.712</v>
-      </c>
-      <c r="N17" s="1">
-        <v>50.5</v>
-      </c>
-      <c r="O17" s="8"/>
-      <c r="P17" s="8"/>
-      <c r="Q17" s="8"/>
-      <c r="R17" s="8"/>
-      <c r="S17" s="8"/>
-      <c r="T17" s="8"/>
-      <c r="U17" s="1">
-        <v>50</v>
-      </c>
-      <c r="V17" s="1">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22">
-      <c r="A18">
-        <v>4</v>
-      </c>
-      <c r="B18" t="s">
-        <v>95</v>
-      </c>
-      <c r="C18">
-        <v>400</v>
-      </c>
-      <c r="D18">
-        <v>0.1</v>
-      </c>
-      <c r="E18" s="1">
-        <v>1.677</v>
-      </c>
-      <c r="F18" s="1">
-        <v>0.88200000000000001</v>
-      </c>
-      <c r="G18" s="1">
-        <v>0.81699999999999995</v>
-      </c>
-      <c r="H18" s="1">
-        <v>0.81699999999999995</v>
-      </c>
-      <c r="I18" s="1">
-        <v>0.78100000000000003</v>
-      </c>
-      <c r="J18" s="1">
-        <v>0.71099999999999997</v>
-      </c>
-      <c r="K18" s="1">
-        <v>0.70099999999999996</v>
-      </c>
-      <c r="L18" s="1">
-        <v>1.2549999999999999</v>
-      </c>
-      <c r="M18" s="1">
-        <v>1.2789999999999999</v>
-      </c>
-      <c r="N18" s="1">
-        <v>50.5</v>
-      </c>
-      <c r="O18" s="1">
-        <v>100</v>
-      </c>
-      <c r="P18" s="1">
-        <v>100</v>
-      </c>
-      <c r="Q18" s="1">
-        <v>100</v>
-      </c>
-      <c r="R18" s="1">
-        <v>100</v>
-      </c>
-      <c r="S18" s="1">
-        <v>100</v>
-      </c>
-      <c r="T18" s="1">
-        <v>100</v>
-      </c>
-      <c r="U18" s="1">
-        <v>50</v>
-      </c>
-      <c r="V18" s="1">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="19" spans="1:22">
-      <c r="A19">
-        <v>4</v>
-      </c>
-      <c r="B19" t="s">
-        <v>95</v>
-      </c>
-      <c r="C19">
-        <v>400</v>
-      </c>
-      <c r="D19">
-        <v>0.2</v>
-      </c>
-      <c r="E19" s="1">
-        <v>1.6319999999999999</v>
-      </c>
-      <c r="F19" s="1">
-        <v>0.85799999999999998</v>
-      </c>
-      <c r="G19" s="1">
-        <v>0.82199999999999995</v>
-      </c>
-      <c r="H19" s="1">
-        <v>0.74099999999999999</v>
-      </c>
-      <c r="I19" s="1">
-        <v>0.69599999999999995</v>
-      </c>
-      <c r="J19" s="1">
-        <v>0.54100000000000004</v>
-      </c>
-      <c r="K19" s="1">
-        <v>0.44700000000000001</v>
-      </c>
-      <c r="L19" s="1">
-        <v>0.76900000000000002</v>
-      </c>
-      <c r="M19" s="1">
-        <v>0.54900000000000004</v>
-      </c>
-      <c r="N19" s="1">
-        <v>50.5</v>
-      </c>
-      <c r="O19" s="1">
-        <v>100</v>
-      </c>
-      <c r="P19" s="1">
-        <v>100</v>
-      </c>
-      <c r="Q19" s="1">
-        <v>100</v>
-      </c>
-      <c r="R19" s="1">
-        <v>100</v>
-      </c>
-      <c r="S19" s="1">
-        <v>100</v>
-      </c>
-      <c r="T19" s="1">
-        <v>100</v>
-      </c>
-      <c r="U19" s="1">
-        <v>50</v>
-      </c>
-      <c r="V19" s="1">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="20" spans="1:22">
-      <c r="A20">
-        <v>4</v>
-      </c>
-      <c r="B20" t="s">
-        <v>95</v>
-      </c>
-      <c r="C20">
-        <v>400</v>
-      </c>
-      <c r="D20">
-        <v>0.3</v>
-      </c>
-      <c r="E20" s="1">
-        <v>1.5149999999999999</v>
-      </c>
-      <c r="F20" s="1">
-        <v>0.81799999999999995</v>
-      </c>
-      <c r="G20" s="1">
-        <v>0.79700000000000004</v>
-      </c>
-      <c r="H20" s="1">
-        <v>0.69499999999999995</v>
-      </c>
-      <c r="I20" s="1">
-        <v>0.65600000000000003</v>
-      </c>
-      <c r="J20" s="1">
-        <v>0.51800000000000002</v>
-      </c>
-      <c r="K20" s="1">
-        <v>0.34399999999999997</v>
-      </c>
-      <c r="L20" s="1">
-        <v>0.46100000000000002</v>
-      </c>
-      <c r="M20" s="1">
-        <v>0.13600000000000001</v>
-      </c>
-      <c r="N20" s="1">
-        <v>50.5</v>
-      </c>
-      <c r="O20" s="1">
-        <v>100</v>
-      </c>
-      <c r="P20" s="1">
-        <v>100</v>
-      </c>
-      <c r="Q20" s="1">
-        <v>100</v>
-      </c>
-      <c r="R20" s="1">
-        <v>100</v>
-      </c>
-      <c r="S20" s="1">
-        <v>100</v>
-      </c>
-      <c r="T20" s="1">
-        <v>100</v>
-      </c>
-      <c r="U20" s="1">
-        <v>50</v>
-      </c>
-      <c r="V20" s="1">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="21" spans="1:22">
-      <c r="A21">
-        <v>4</v>
-      </c>
-      <c r="B21" t="s">
-        <v>95</v>
-      </c>
-      <c r="C21">
-        <v>400</v>
-      </c>
-      <c r="D21">
-        <v>0.4</v>
-      </c>
-      <c r="E21" s="1">
-        <v>1.69</v>
-      </c>
-      <c r="F21" s="1">
-        <v>0.79800000000000004</v>
-      </c>
-      <c r="G21" s="1">
-        <v>0.69099999999999995</v>
-      </c>
-      <c r="H21" s="1">
-        <v>0.54900000000000004</v>
-      </c>
-      <c r="I21" s="1">
-        <v>0.42199999999999999</v>
-      </c>
-      <c r="J21" s="1">
-        <v>0.20300000000000001</v>
-      </c>
-      <c r="K21" s="1">
-        <v>9.9000000000000005E-2</v>
-      </c>
-      <c r="L21" s="1">
-        <v>0.105</v>
-      </c>
-      <c r="M21" s="1">
-        <v>9.8000000000000004E-2</v>
-      </c>
-      <c r="N21" s="1">
-        <v>50.5</v>
-      </c>
-      <c r="O21" s="1">
-        <v>100</v>
-      </c>
-      <c r="P21" s="1">
-        <v>100</v>
-      </c>
-      <c r="Q21" s="1">
-        <v>100</v>
-      </c>
-      <c r="R21" s="1">
-        <v>100</v>
-      </c>
-      <c r="S21" s="1">
-        <v>100</v>
-      </c>
-      <c r="T21" s="1">
-        <v>100</v>
-      </c>
-      <c r="U21" s="1">
-        <v>50</v>
-      </c>
-      <c r="V21" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:22">
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-    </row>
-    <row r="24" spans="1:22">
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-    </row>
-    <row r="25" spans="1:22">
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-    </row>
-    <row r="26" spans="1:22">
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-    </row>
-    <row r="27" spans="1:22">
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-    </row>
-    <row r="28" spans="1:22">
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-    </row>
-    <row r="29" spans="1:22">
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-    </row>
-    <row r="30" spans="1:22">
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-    </row>
-    <row r="31" spans="1:22">
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-    </row>
-    <row r="32" spans="1:22">
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-    </row>
-    <row r="33" spans="3:8">
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/data_raw/input.xlsx
+++ b/data_raw/input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nobuakiohsumi/Lec_handson/wtrwks_rpt/data_raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B4BDCEB-DC89-8D40-B66D-7943B965F3DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{759F2D7E-1EE4-A341-B698-027AE1E4291E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="15420" windowHeight="16420" activeTab="2" xr2:uid="{11D640DA-DCFB-E544-8ADF-BF4092E26F00}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16420" activeTab="2" xr2:uid="{11D640DA-DCFB-E544-8ADF-BF4092E26F00}"/>
   </bookViews>
   <sheets>
     <sheet name="colony" sheetId="3" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="880" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2495" uniqueCount="136">
   <si>
     <t>班</t>
   </si>
@@ -464,6 +464,269 @@
     <t>uv_5</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>&gt;300</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>*</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>紫外線</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">シガイセｎ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>紫外線</t>
+    </r>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">シガイセｎ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>t0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>塩素</t>
+    </r>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">エンソ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>水道水</t>
+    </r>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">スイドウスイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>緩衝液</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>A</t>
+    </r>
+    <rPh sb="0" eb="3">
+      <t>カン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>緩衝液</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>B</t>
+    </r>
+    <rPh sb="0" eb="1">
+      <t>カンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>緩衝液</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>B</t>
+    </r>
+    <rPh sb="0" eb="3">
+      <t>カンｓ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;1</t>
+  </si>
+  <si>
+    <t>塩素</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">エンソ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>水道水</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">スイドウスイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>緩衝液</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>A</t>
+    </r>
+    <rPh sb="0" eb="3">
+      <t>カンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>緩衝液A</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">カンショウエキ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>緩衝液</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>B</t>
+    </r>
+    <rPh sb="0" eb="3">
+      <t>カンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>緩衝液B</t>
+    <rPh sb="0" eb="3">
+      <t>カｎ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>紫外線</t>
+    </r>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">シガイセン </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>紫外線</t>
+    </r>
+    <rPh sb="0" eb="3">
+      <t xml:space="preserve">シガイセン </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>abs</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -472,7 +735,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -502,6 +765,19 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -529,11 +805,20 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -543,7 +828,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -569,6 +854,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -905,10 +1202,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3512933-894E-714A-A634-FA6A580DD15B}">
-  <dimension ref="A1:G151"/>
+  <dimension ref="A1:G565"/>
   <sheetViews>
-    <sheetView topLeftCell="A102" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView zoomScale="172" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -1149,8 +1446,8 @@
       <c r="E11" s="1">
         <v>3</v>
       </c>
-      <c r="F11" s="1">
-        <v>0</v>
+      <c r="F11" s="1" t="s">
+        <v>120</v>
       </c>
       <c r="G11" s="1"/>
     </row>
@@ -1170,8 +1467,8 @@
       <c r="E12" s="1">
         <v>4</v>
       </c>
-      <c r="F12" s="1">
-        <v>0</v>
+      <c r="F12" s="1" t="s">
+        <v>120</v>
       </c>
       <c r="G12" s="1"/>
     </row>
@@ -1191,8 +1488,8 @@
       <c r="E13" s="1">
         <v>4</v>
       </c>
-      <c r="F13" s="1">
-        <v>0</v>
+      <c r="F13" s="1" t="s">
+        <v>120</v>
       </c>
       <c r="G13" s="1"/>
     </row>
@@ -1321,8 +1618,8 @@
       <c r="E19" s="1">
         <v>3</v>
       </c>
-      <c r="F19" s="1">
-        <v>0</v>
+      <c r="F19" s="1" t="s">
+        <v>120</v>
       </c>
       <c r="G19" s="1"/>
     </row>
@@ -1648,8 +1945,8 @@
       <c r="E34" s="1">
         <v>3</v>
       </c>
-      <c r="F34" s="1">
-        <v>0</v>
+      <c r="F34" s="1" t="s">
+        <v>120</v>
       </c>
       <c r="G34" s="1"/>
     </row>
@@ -1669,8 +1966,8 @@
       <c r="E35" s="1">
         <v>3</v>
       </c>
-      <c r="F35" s="1">
-        <v>0</v>
+      <c r="F35" s="1" t="s">
+        <v>120</v>
       </c>
       <c r="G35" s="1"/>
     </row>
@@ -1690,8 +1987,8 @@
       <c r="E36" s="1">
         <v>4</v>
       </c>
-      <c r="F36" s="1">
-        <v>0</v>
+      <c r="F36" s="1" t="s">
+        <v>120</v>
       </c>
       <c r="G36" s="1"/>
     </row>
@@ -1711,8 +2008,8 @@
       <c r="E37" s="1">
         <v>4</v>
       </c>
-      <c r="F37" s="1">
-        <v>0</v>
+      <c r="F37" s="1" t="s">
+        <v>120</v>
       </c>
       <c r="G37" s="1"/>
     </row>
@@ -2814,8 +3111,8 @@
       <c r="E88" s="1">
         <v>1</v>
       </c>
-      <c r="F88" s="1">
-        <v>0</v>
+      <c r="F88" s="1" t="s">
+        <v>120</v>
       </c>
       <c r="G88" s="1" t="s">
         <v>23</v>
@@ -2837,8 +3134,8 @@
       <c r="E89" s="1">
         <v>1</v>
       </c>
-      <c r="F89" s="1">
-        <v>0</v>
+      <c r="F89" s="1" t="s">
+        <v>120</v>
       </c>
       <c r="G89" s="1" t="s">
         <v>23</v>
@@ -2881,8 +3178,8 @@
       <c r="E91" s="1">
         <v>2</v>
       </c>
-      <c r="F91" s="1">
-        <v>0</v>
+      <c r="F91" s="1" t="s">
+        <v>120</v>
       </c>
       <c r="G91" s="1"/>
     </row>
@@ -2902,8 +3199,8 @@
       <c r="E92" s="1">
         <v>3</v>
       </c>
-      <c r="F92" s="1">
-        <v>0</v>
+      <c r="F92" s="1" t="s">
+        <v>120</v>
       </c>
       <c r="G92" s="1"/>
     </row>
@@ -2923,8 +3220,8 @@
       <c r="E93" s="1">
         <v>3</v>
       </c>
-      <c r="F93" s="1">
-        <v>0</v>
+      <c r="F93" s="1" t="s">
+        <v>120</v>
       </c>
       <c r="G93" s="1"/>
     </row>
@@ -2944,8 +3241,8 @@
       <c r="E94" s="1">
         <v>1</v>
       </c>
-      <c r="F94" s="1">
-        <v>0</v>
+      <c r="F94" s="1" t="s">
+        <v>120</v>
       </c>
       <c r="G94" s="1" t="s">
         <v>23</v>
@@ -2967,8 +3264,8 @@
       <c r="E95" s="1">
         <v>1</v>
       </c>
-      <c r="F95" s="1">
-        <v>0</v>
+      <c r="F95" s="1" t="s">
+        <v>120</v>
       </c>
       <c r="G95" s="1" t="s">
         <v>23</v>
@@ -2990,8 +3287,8 @@
       <c r="E96" s="1">
         <v>2</v>
       </c>
-      <c r="F96" s="1">
-        <v>0</v>
+      <c r="F96" s="1" t="s">
+        <v>120</v>
       </c>
       <c r="G96" s="1"/>
     </row>
@@ -3011,8 +3308,8 @@
       <c r="E97" s="1">
         <v>2</v>
       </c>
-      <c r="F97" s="1">
-        <v>0</v>
+      <c r="F97" s="1" t="s">
+        <v>120</v>
       </c>
       <c r="G97" s="1"/>
     </row>
@@ -3032,8 +3329,8 @@
       <c r="E98" s="1">
         <v>3</v>
       </c>
-      <c r="F98" s="1">
-        <v>0</v>
+      <c r="F98" s="1" t="s">
+        <v>120</v>
       </c>
       <c r="G98" s="1"/>
     </row>
@@ -3053,8 +3350,8 @@
       <c r="E99" s="1">
         <v>3</v>
       </c>
-      <c r="F99" s="1">
-        <v>0</v>
+      <c r="F99" s="1" t="s">
+        <v>120</v>
       </c>
       <c r="G99" s="1"/>
     </row>
@@ -3485,8 +3782,8 @@
       <c r="E119" s="1">
         <v>3</v>
       </c>
-      <c r="F119" s="1">
-        <v>0</v>
+      <c r="F119" s="1" t="s">
+        <v>120</v>
       </c>
       <c r="G119" s="1"/>
     </row>
@@ -3506,8 +3803,8 @@
       <c r="E120" s="1">
         <v>1</v>
       </c>
-      <c r="F120" s="1">
-        <v>0</v>
+      <c r="F120" s="1" t="s">
+        <v>120</v>
       </c>
       <c r="G120" s="1" t="s">
         <v>23</v>
@@ -3529,8 +3826,8 @@
       <c r="E121" s="1">
         <v>1</v>
       </c>
-      <c r="F121" s="1">
-        <v>0</v>
+      <c r="F121" s="1" t="s">
+        <v>120</v>
       </c>
       <c r="G121" s="1" t="s">
         <v>23</v>
@@ -3552,8 +3849,8 @@
       <c r="E122" s="1">
         <v>2</v>
       </c>
-      <c r="F122" s="1">
-        <v>0</v>
+      <c r="F122" s="1" t="s">
+        <v>120</v>
       </c>
       <c r="G122" s="1"/>
     </row>
@@ -3573,8 +3870,8 @@
       <c r="E123" s="1">
         <v>2</v>
       </c>
-      <c r="F123" s="1">
-        <v>0</v>
+      <c r="F123" s="1" t="s">
+        <v>120</v>
       </c>
       <c r="G123" s="1"/>
     </row>
@@ -3594,8 +3891,8 @@
       <c r="E124" s="1">
         <v>3</v>
       </c>
-      <c r="F124" s="1">
-        <v>0</v>
+      <c r="F124" s="1" t="s">
+        <v>120</v>
       </c>
       <c r="G124" s="1"/>
     </row>
@@ -3615,8 +3912,8 @@
       <c r="E125" s="1">
         <v>3</v>
       </c>
-      <c r="F125" s="1">
-        <v>0</v>
+      <c r="F125" s="1" t="s">
+        <v>120</v>
       </c>
       <c r="G125" s="1"/>
     </row>
@@ -3984,8 +4281,8 @@
       <c r="E142" s="1">
         <v>2</v>
       </c>
-      <c r="F142" s="1">
-        <v>0</v>
+      <c r="F142" s="1" t="s">
+        <v>120</v>
       </c>
       <c r="G142" s="1"/>
     </row>
@@ -4005,8 +4302,8 @@
       <c r="E143" s="1">
         <v>2</v>
       </c>
-      <c r="F143" s="1">
-        <v>0</v>
+      <c r="F143" s="1" t="s">
+        <v>120</v>
       </c>
       <c r="G143" s="1"/>
     </row>
@@ -4026,8 +4323,8 @@
       <c r="E144" s="1">
         <v>3</v>
       </c>
-      <c r="F144" s="1">
-        <v>0</v>
+      <c r="F144" s="1" t="s">
+        <v>120</v>
       </c>
       <c r="G144" s="1"/>
     </row>
@@ -4047,8 +4344,8 @@
       <c r="E145" s="1">
         <v>3</v>
       </c>
-      <c r="F145" s="1">
-        <v>0</v>
+      <c r="F145" s="1" t="s">
+        <v>120</v>
       </c>
       <c r="G145" s="1"/>
     </row>
@@ -4068,8 +4365,8 @@
       <c r="E146" s="1">
         <v>1</v>
       </c>
-      <c r="F146" s="1">
-        <v>0</v>
+      <c r="F146" s="1" t="s">
+        <v>120</v>
       </c>
       <c r="G146" s="1" t="s">
         <v>23</v>
@@ -4091,8 +4388,8 @@
       <c r="E147" s="1">
         <v>1</v>
       </c>
-      <c r="F147" s="1">
-        <v>0</v>
+      <c r="F147" s="1" t="s">
+        <v>120</v>
       </c>
       <c r="G147" s="1" t="s">
         <v>23</v>
@@ -4114,8 +4411,8 @@
       <c r="E148" s="1">
         <v>2</v>
       </c>
-      <c r="F148" s="1">
-        <v>0</v>
+      <c r="F148" s="1" t="s">
+        <v>120</v>
       </c>
       <c r="G148" s="1"/>
     </row>
@@ -4135,8 +4432,8 @@
       <c r="E149" s="1">
         <v>2</v>
       </c>
-      <c r="F149" s="1">
-        <v>0</v>
+      <c r="F149" s="1" t="s">
+        <v>120</v>
       </c>
       <c r="G149" s="1"/>
     </row>
@@ -4156,8 +4453,8 @@
       <c r="E150" s="1">
         <v>3</v>
       </c>
-      <c r="F150" s="1">
-        <v>0</v>
+      <c r="F150" s="1" t="s">
+        <v>120</v>
       </c>
       <c r="G150" s="1"/>
     </row>
@@ -4177,10 +4474,8727 @@
       <c r="E151" s="1">
         <v>3</v>
       </c>
-      <c r="F151" s="1">
+      <c r="F151" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G151" s="1"/>
+    </row>
+    <row r="152" spans="1:7">
+      <c r="A152" s="9">
+        <v>1</v>
+      </c>
+      <c r="B152" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C152" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D152" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E152" s="10">
+        <v>4</v>
+      </c>
+      <c r="F152" s="10">
+        <v>188</v>
+      </c>
+      <c r="G152" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7">
+      <c r="A153" s="1">
+        <v>1</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D153" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E153" s="1">
+        <v>4</v>
+      </c>
+      <c r="F153" s="1">
+        <v>209</v>
+      </c>
+      <c r="G153" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7">
+      <c r="A154" s="1">
+        <v>1</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D154" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E154" s="1">
+        <v>5</v>
+      </c>
+      <c r="F154" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7">
+      <c r="A155" s="1">
+        <v>1</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D155" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E155" s="1">
+        <v>5</v>
+      </c>
+      <c r="F155" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7">
+      <c r="A156" s="1">
+        <v>1</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D156" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E156" s="1">
+        <v>6</v>
+      </c>
+      <c r="F156" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7">
+      <c r="A157" s="1">
+        <v>1</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D157" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E157" s="1">
+        <v>6</v>
+      </c>
+      <c r="F157" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7">
+      <c r="A158" s="1">
+        <v>1</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D158" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E158" s="1">
+        <v>1</v>
+      </c>
+      <c r="F158" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7">
+      <c r="A159" s="1">
+        <v>1</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D159" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E159" s="1">
+        <v>1</v>
+      </c>
+      <c r="F159" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7">
+      <c r="A160" s="1">
+        <v>1</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D160" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E160" s="1">
+        <v>2</v>
+      </c>
+      <c r="F160" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7">
+      <c r="A161" s="1">
+        <v>1</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D161" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E161" s="1">
+        <v>2</v>
+      </c>
+      <c r="F161" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7">
+      <c r="A162" s="1">
+        <v>1</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C162" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D162" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E162" s="1">
+        <v>3</v>
+      </c>
+      <c r="F162">
+        <v>273</v>
+      </c>
+      <c r="G162" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7">
+      <c r="A163" s="1">
+        <v>1</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C163" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D163" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E163" s="1">
+        <v>3</v>
+      </c>
+      <c r="F163">
+        <v>232</v>
+      </c>
+      <c r="G163" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7">
+      <c r="A164" s="1">
+        <v>1</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D164" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E164" s="1">
+        <v>1</v>
+      </c>
+      <c r="F164" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G164" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7">
+      <c r="A165" s="1">
+        <v>1</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D165" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E165" s="1">
+        <v>1</v>
+      </c>
+      <c r="F165" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G165" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7">
+      <c r="A166" s="1">
+        <v>1</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D166" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E166" s="1">
+        <v>2</v>
+      </c>
+      <c r="F166" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7">
+      <c r="A167" s="1">
+        <v>1</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D167" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E167" s="1">
+        <v>2</v>
+      </c>
+      <c r="F167" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7">
+      <c r="A168" s="1">
+        <v>1</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D168" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E168" s="1">
+        <v>3</v>
+      </c>
+      <c r="F168" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7">
+      <c r="A169" s="1">
+        <v>1</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C169" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D169" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E169" s="1">
+        <v>3</v>
+      </c>
+      <c r="F169" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7">
+      <c r="A170" s="1">
+        <v>1</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C170" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D170" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E170" s="1">
+        <v>1</v>
+      </c>
+      <c r="F170">
+        <v>1</v>
+      </c>
+      <c r="G170" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7">
+      <c r="A171" s="1">
+        <v>1</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C171" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D171" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E171" s="1">
+        <v>1</v>
+      </c>
+      <c r="F171" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G171" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7">
+      <c r="A172" s="1">
+        <v>1</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C172" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D172" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E172" s="1">
+        <v>2</v>
+      </c>
+      <c r="F172" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7">
+      <c r="A173" s="1">
+        <v>1</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D173" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E173" s="1">
+        <v>2</v>
+      </c>
+      <c r="F173" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7">
+      <c r="A174" s="1">
+        <v>1</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C174" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D174" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E174" s="1">
+        <v>3</v>
+      </c>
+      <c r="F174" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7">
+      <c r="A175" s="1">
+        <v>1</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C175" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D175" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E175" s="1">
+        <v>3</v>
+      </c>
+      <c r="F175" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7">
+      <c r="A176" s="1">
+        <v>1</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C176" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D176" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E176" s="1">
+        <v>4</v>
+      </c>
+      <c r="F176">
+        <v>199</v>
+      </c>
+      <c r="G176" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7">
+      <c r="A177" s="1">
+        <v>1</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C177" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D177" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E177" s="1">
+        <v>4</v>
+      </c>
+      <c r="F177">
+        <v>249</v>
+      </c>
+      <c r="G177" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7">
+      <c r="A178" s="1">
+        <v>1</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D178" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E178" s="1">
+        <v>5</v>
+      </c>
+      <c r="F178">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7">
+      <c r="A179" s="1">
+        <v>1</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C179" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D179" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E179" s="1">
+        <v>5</v>
+      </c>
+      <c r="F179">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7">
+      <c r="A180" s="1">
+        <v>1</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C180" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D180" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E180" s="1">
+        <v>6</v>
+      </c>
+      <c r="F180">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7">
+      <c r="A181" s="1">
+        <v>1</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C181" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D181" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E181" s="1">
+        <v>6</v>
+      </c>
+      <c r="F181">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7">
+      <c r="A182" s="1">
+        <v>1</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C182" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D182" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E182" s="1">
+        <v>1</v>
+      </c>
+      <c r="F182">
+        <v>33</v>
+      </c>
+      <c r="G182" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7">
+      <c r="A183" s="1">
+        <v>1</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C183" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D183" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E183" s="1">
+        <v>1</v>
+      </c>
+      <c r="F183">
+        <v>33</v>
+      </c>
+      <c r="G183" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7">
+      <c r="A184" s="1">
+        <v>1</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C184" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D184" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E184" s="1">
+        <v>2</v>
+      </c>
+      <c r="F184">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7">
+      <c r="A185" s="1">
+        <v>1</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C185" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D185" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E185" s="1">
+        <v>2</v>
+      </c>
+      <c r="F185">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7">
+      <c r="A186" s="1">
+        <v>1</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C186" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D186" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E186" s="1">
+        <v>3</v>
+      </c>
+      <c r="F186">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7">
+      <c r="A187" s="1">
+        <v>1</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C187" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D187" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E187" s="1">
+        <v>3</v>
+      </c>
+      <c r="F187" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7">
+      <c r="A188" s="1">
+        <v>1</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C188" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D188" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E188" s="1">
+        <v>1</v>
+      </c>
+      <c r="F188">
+        <v>10</v>
+      </c>
+      <c r="G188" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7">
+      <c r="A189" s="1">
+        <v>1</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C189" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D189" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E189" s="1">
+        <v>1</v>
+      </c>
+      <c r="F189">
+        <v>9</v>
+      </c>
+      <c r="G189" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7">
+      <c r="A190" s="1">
+        <v>1</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C190" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D190" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E190" s="1">
+        <v>2</v>
+      </c>
+      <c r="F190" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7">
+      <c r="A191" s="1">
+        <v>1</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C191" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D191" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E191" s="1">
+        <v>2</v>
+      </c>
+      <c r="F191">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7">
+      <c r="A192" s="1">
+        <v>1</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C192" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D192" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E192" s="1">
+        <v>3</v>
+      </c>
+      <c r="F192" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7">
+      <c r="A193" s="1">
+        <v>1</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C193" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D193" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E193" s="1">
+        <v>3</v>
+      </c>
+      <c r="F193" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7">
+      <c r="A194" s="1">
+        <v>1</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C194" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D194" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E194" s="1">
+        <v>1</v>
+      </c>
+      <c r="F194">
+        <v>9</v>
+      </c>
+      <c r="G194" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7">
+      <c r="A195" s="1">
+        <v>1</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C195" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D195" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E195" s="1">
+        <v>1</v>
+      </c>
+      <c r="F195">
+        <v>13</v>
+      </c>
+      <c r="G195" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7">
+      <c r="A196" s="1">
+        <v>1</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C196" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D196" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E196" s="1">
+        <v>2</v>
+      </c>
+      <c r="F196" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7">
+      <c r="A197" s="1">
+        <v>1</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C197" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D197" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E197" s="1">
+        <v>2</v>
+      </c>
+      <c r="F197">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7">
+      <c r="A198" s="1">
+        <v>1</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C198" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D198" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E198" s="1">
+        <v>3</v>
+      </c>
+      <c r="F198" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7">
+      <c r="A199" s="1">
+        <v>1</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C199" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D199" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E199" s="1">
+        <v>3</v>
+      </c>
+      <c r="F199" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7">
+      <c r="A200" s="1">
+        <v>1</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C200" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D200" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E200" s="1">
+        <v>4</v>
+      </c>
+      <c r="F200">
+        <v>218</v>
+      </c>
+      <c r="G200" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7">
+      <c r="A201" s="1">
+        <v>1</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C201" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D201" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E201" s="1">
+        <v>4</v>
+      </c>
+      <c r="F201">
+        <v>194</v>
+      </c>
+      <c r="G201" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7">
+      <c r="A202" s="1">
+        <v>1</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C202" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D202" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E202" s="1">
+        <v>5</v>
+      </c>
+      <c r="F202">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7">
+      <c r="A203" s="1">
+        <v>1</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C203" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D203" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E203" s="1">
+        <v>5</v>
+      </c>
+      <c r="F203">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7">
+      <c r="A204" s="1">
+        <v>1</v>
+      </c>
+      <c r="B204" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C204" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D204" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E204" s="1">
+        <v>6</v>
+      </c>
+      <c r="F204">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7">
+      <c r="A205" s="1">
+        <v>1</v>
+      </c>
+      <c r="B205" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C205" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D205" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E205" s="1">
+        <v>6</v>
+      </c>
+      <c r="F205" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7">
+      <c r="A206" s="1">
+        <v>1</v>
+      </c>
+      <c r="B206" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C206" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D206" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E206" s="1">
+        <v>1</v>
+      </c>
+      <c r="F206" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7">
+      <c r="A207" s="1">
+        <v>1</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C207" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D207" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E207" s="1">
+        <v>1</v>
+      </c>
+      <c r="F207" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7">
+      <c r="A208" s="1">
+        <v>1</v>
+      </c>
+      <c r="B208" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C208" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D208" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E208" s="1">
+        <v>2</v>
+      </c>
+      <c r="F208" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7">
+      <c r="A209" s="1">
+        <v>1</v>
+      </c>
+      <c r="B209" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C209" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D209" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E209" s="1">
+        <v>2</v>
+      </c>
+      <c r="F209" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7">
+      <c r="A210" s="1">
+        <v>1</v>
+      </c>
+      <c r="B210" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C210" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D210" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E210" s="1">
+        <v>3</v>
+      </c>
+      <c r="F210">
+        <v>1979</v>
+      </c>
+      <c r="G210" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7">
+      <c r="A211" s="1">
+        <v>1</v>
+      </c>
+      <c r="B211" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C211" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D211" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E211" s="1">
+        <v>3</v>
+      </c>
+      <c r="F211">
+        <v>2083</v>
+      </c>
+      <c r="G211" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7">
+      <c r="A212" s="1">
+        <v>1</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C212" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D212" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E212" s="1">
+        <v>1</v>
+      </c>
+      <c r="F212">
+        <v>226</v>
+      </c>
+      <c r="G212" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7">
+      <c r="A213" s="1">
+        <v>1</v>
+      </c>
+      <c r="B213" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C213" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D213" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E213" s="1">
+        <v>1</v>
+      </c>
+      <c r="F213">
+        <v>226</v>
+      </c>
+      <c r="G213" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7">
+      <c r="A214" s="1">
+        <v>1</v>
+      </c>
+      <c r="B214" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C214" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D214" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E214" s="1">
+        <v>2</v>
+      </c>
+      <c r="F214">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7">
+      <c r="A215" s="1">
+        <v>1</v>
+      </c>
+      <c r="B215" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C215" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D215" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E215" s="1">
+        <v>2</v>
+      </c>
+      <c r="F215">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7">
+      <c r="A216" s="1">
+        <v>1</v>
+      </c>
+      <c r="B216" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C216" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D216" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E216" s="1">
+        <v>3</v>
+      </c>
+      <c r="F216">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7">
+      <c r="A217" s="1">
+        <v>1</v>
+      </c>
+      <c r="B217" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C217" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D217" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E217" s="1">
+        <v>3</v>
+      </c>
+      <c r="F217">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7">
+      <c r="A218" s="1">
+        <v>1</v>
+      </c>
+      <c r="B218" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C218" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D218" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E218" s="1">
+        <v>1</v>
+      </c>
+      <c r="F218">
+        <v>66</v>
+      </c>
+      <c r="G218" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7">
+      <c r="A219" s="1">
+        <v>1</v>
+      </c>
+      <c r="B219" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C219" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D219" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E219" s="1">
+        <v>1</v>
+      </c>
+      <c r="F219">
+        <v>55</v>
+      </c>
+      <c r="G219" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7">
+      <c r="A220" s="1">
+        <v>1</v>
+      </c>
+      <c r="B220" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C220" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D220" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E220" s="1">
+        <v>2</v>
+      </c>
+      <c r="F220">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7">
+      <c r="A221" s="1">
+        <v>1</v>
+      </c>
+      <c r="B221" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C221" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D221" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E221" s="1">
+        <v>2</v>
+      </c>
+      <c r="F221">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7">
+      <c r="A222" s="1">
+        <v>1</v>
+      </c>
+      <c r="B222" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C222" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D222" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E222" s="1">
+        <v>3</v>
+      </c>
+      <c r="F222">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7">
+      <c r="A223" s="1">
+        <v>1</v>
+      </c>
+      <c r="B223" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C223" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D223" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E223" s="1">
+        <v>3</v>
+      </c>
+      <c r="F223" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7">
+      <c r="A224" s="10">
+        <v>1</v>
+      </c>
+      <c r="B224" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="C224" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="D224" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="E224" s="10">
+        <v>2</v>
+      </c>
+      <c r="F224" s="10" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7">
+      <c r="A225" s="1">
+        <v>1</v>
+      </c>
+      <c r="B225" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C225" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D225" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E225" s="1">
+        <v>2</v>
+      </c>
+      <c r="F225" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7">
+      <c r="A226" s="1">
+        <v>1</v>
+      </c>
+      <c r="B226" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C226" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D226" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E226" s="1">
+        <v>3</v>
+      </c>
+      <c r="F226">
+        <v>246</v>
+      </c>
+      <c r="G226" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7">
+      <c r="A227" s="1">
+        <v>1</v>
+      </c>
+      <c r="B227" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C227" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D227" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E227" s="1">
+        <v>3</v>
+      </c>
+      <c r="F227">
+        <v>230</v>
+      </c>
+      <c r="G227" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7">
+      <c r="A228" s="1">
+        <v>1</v>
+      </c>
+      <c r="B228" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C228" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D228" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E228" s="1">
+        <v>4</v>
+      </c>
+      <c r="F228">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7">
+      <c r="A229" s="1">
+        <v>1</v>
+      </c>
+      <c r="B229" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C229" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D229" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E229" s="1">
+        <v>4</v>
+      </c>
+      <c r="F229">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7">
+      <c r="A230" s="1">
+        <v>1</v>
+      </c>
+      <c r="B230" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C230" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D230" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E230" s="1">
+        <v>1</v>
+      </c>
+      <c r="F230" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7">
+      <c r="A231" s="1">
+        <v>1</v>
+      </c>
+      <c r="B231" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C231" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D231" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E231" s="1">
+        <v>1</v>
+      </c>
+      <c r="F231" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7">
+      <c r="A232" s="1">
+        <v>1</v>
+      </c>
+      <c r="B232" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C232" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D232" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E232" s="1">
+        <v>2</v>
+      </c>
+      <c r="F232">
+        <v>341</v>
+      </c>
+      <c r="G232" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7">
+      <c r="A233" s="1">
+        <v>1</v>
+      </c>
+      <c r="B233" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C233" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D233" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E233" s="1">
+        <v>2</v>
+      </c>
+      <c r="F233">
+        <v>340</v>
+      </c>
+      <c r="G233" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7">
+      <c r="A234" s="1">
+        <v>1</v>
+      </c>
+      <c r="B234" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C234" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D234" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E234" s="1">
+        <v>3</v>
+      </c>
+      <c r="F234">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7">
+      <c r="A235" s="1">
+        <v>1</v>
+      </c>
+      <c r="B235" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C235" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D235" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E235" s="1">
+        <v>3</v>
+      </c>
+      <c r="F235">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7">
+      <c r="A236" s="1">
+        <v>1</v>
+      </c>
+      <c r="B236" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C236" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D236" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E236" s="1">
         <v>0</v>
       </c>
-      <c r="G151" s="1"/>
+      <c r="F236">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7">
+      <c r="A237" s="1">
+        <v>1</v>
+      </c>
+      <c r="B237" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C237" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D237" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E237" s="1">
+        <v>0</v>
+      </c>
+      <c r="F237" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7">
+      <c r="A238" s="1">
+        <v>1</v>
+      </c>
+      <c r="B238" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C238" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D238" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E238" s="1">
+        <v>1</v>
+      </c>
+      <c r="F238">
+        <v>105</v>
+      </c>
+      <c r="G238" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7">
+      <c r="A239" s="1">
+        <v>1</v>
+      </c>
+      <c r="B239" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C239" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D239" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E239" s="1">
+        <v>1</v>
+      </c>
+      <c r="F239">
+        <v>111</v>
+      </c>
+      <c r="G239" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7">
+      <c r="A240" s="1">
+        <v>1</v>
+      </c>
+      <c r="B240" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C240" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D240" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E240" s="1">
+        <v>2</v>
+      </c>
+      <c r="F240">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7">
+      <c r="A241" s="1">
+        <v>1</v>
+      </c>
+      <c r="B241" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C241" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D241" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E241" s="1">
+        <v>2</v>
+      </c>
+      <c r="F241">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7">
+      <c r="A242" s="1">
+        <v>1</v>
+      </c>
+      <c r="B242" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C242" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D242" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E242" s="1">
+        <v>0</v>
+      </c>
+      <c r="F242" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7">
+      <c r="A243" s="1">
+        <v>1</v>
+      </c>
+      <c r="B243" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C243" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D243" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E243" s="1">
+        <v>0</v>
+      </c>
+      <c r="F243" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7">
+      <c r="A244" s="1">
+        <v>1</v>
+      </c>
+      <c r="B244" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C244" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D244" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E244" s="1">
+        <v>1</v>
+      </c>
+      <c r="F244">
+        <v>3</v>
+      </c>
+      <c r="G244" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7">
+      <c r="A245" s="1">
+        <v>1</v>
+      </c>
+      <c r="B245" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C245" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D245" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E245" s="1">
+        <v>1</v>
+      </c>
+      <c r="F245">
+        <v>2</v>
+      </c>
+      <c r="G245" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7">
+      <c r="A246" s="1">
+        <v>1</v>
+      </c>
+      <c r="B246" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C246" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D246" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E246" s="1">
+        <v>2</v>
+      </c>
+      <c r="F246" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7">
+      <c r="A247" s="1">
+        <v>1</v>
+      </c>
+      <c r="B247" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C247" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D247" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E247" s="1">
+        <v>2</v>
+      </c>
+      <c r="F247" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7">
+      <c r="A248" s="1">
+        <v>1</v>
+      </c>
+      <c r="B248" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C248" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D248" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E248" s="1">
+        <v>3</v>
+      </c>
+      <c r="F248">
+        <v>57</v>
+      </c>
+      <c r="G248" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7">
+      <c r="A249" s="1">
+        <v>1</v>
+      </c>
+      <c r="B249" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C249" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D249" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E249" s="1">
+        <v>3</v>
+      </c>
+      <c r="F249">
+        <v>60</v>
+      </c>
+      <c r="G249" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7">
+      <c r="A250" s="1">
+        <v>1</v>
+      </c>
+      <c r="B250" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C250" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D250" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E250" s="1">
+        <v>4</v>
+      </c>
+      <c r="F250">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7">
+      <c r="A251" s="1">
+        <v>1</v>
+      </c>
+      <c r="B251" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C251" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D251" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E251" s="1">
+        <v>4</v>
+      </c>
+      <c r="F251">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7">
+      <c r="A252" s="1">
+        <v>1</v>
+      </c>
+      <c r="B252" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C252" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D252" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E252" s="1">
+        <v>1</v>
+      </c>
+      <c r="F252" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7">
+      <c r="A253" s="1">
+        <v>1</v>
+      </c>
+      <c r="B253" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C253" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D253" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E253" s="1">
+        <v>1</v>
+      </c>
+      <c r="F253" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7">
+      <c r="A254" s="1">
+        <v>1</v>
+      </c>
+      <c r="B254" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C254" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D254" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E254" s="1">
+        <v>2</v>
+      </c>
+      <c r="F254">
+        <v>146</v>
+      </c>
+      <c r="G254" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7">
+      <c r="A255" s="1">
+        <v>1</v>
+      </c>
+      <c r="B255" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C255" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D255" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E255" s="1">
+        <v>2</v>
+      </c>
+      <c r="F255">
+        <v>139</v>
+      </c>
+      <c r="G255" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7">
+      <c r="A256" s="1">
+        <v>1</v>
+      </c>
+      <c r="B256" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C256" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D256" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E256" s="1">
+        <v>3</v>
+      </c>
+      <c r="F256">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7">
+      <c r="A257" s="1">
+        <v>1</v>
+      </c>
+      <c r="B257" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C257" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D257" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E257" s="1">
+        <v>3</v>
+      </c>
+      <c r="F257">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7">
+      <c r="A258" s="1">
+        <v>1</v>
+      </c>
+      <c r="B258" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C258" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D258" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E258" s="1">
+        <v>0</v>
+      </c>
+      <c r="F258" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7">
+      <c r="A259" s="1">
+        <v>1</v>
+      </c>
+      <c r="B259" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C259" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D259" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E259" s="1">
+        <v>0</v>
+      </c>
+      <c r="F259" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7">
+      <c r="A260" s="1">
+        <v>1</v>
+      </c>
+      <c r="B260" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C260" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D260" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E260" s="1">
+        <v>1</v>
+      </c>
+      <c r="F260">
+        <v>12</v>
+      </c>
+      <c r="G260" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7">
+      <c r="A261" s="1">
+        <v>1</v>
+      </c>
+      <c r="B261" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C261" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D261" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E261" s="1">
+        <v>1</v>
+      </c>
+      <c r="F261">
+        <v>13</v>
+      </c>
+      <c r="G261" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7">
+      <c r="A262" s="1">
+        <v>1</v>
+      </c>
+      <c r="B262" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C262" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D262" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E262" s="1">
+        <v>2</v>
+      </c>
+      <c r="F262">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7">
+      <c r="A263" s="1">
+        <v>1</v>
+      </c>
+      <c r="B263" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C263" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D263" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E263" s="1">
+        <v>2</v>
+      </c>
+      <c r="F263">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7">
+      <c r="A264" s="1">
+        <v>1</v>
+      </c>
+      <c r="B264" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C264" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D264" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E264" s="1">
+        <v>0</v>
+      </c>
+      <c r="F264" t="s">
+        <v>120</v>
+      </c>
+      <c r="G264" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7">
+      <c r="A265" s="1">
+        <v>1</v>
+      </c>
+      <c r="B265" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C265" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D265" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E265" s="1">
+        <v>0</v>
+      </c>
+      <c r="F265" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G265" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7">
+      <c r="A266" s="1">
+        <v>1</v>
+      </c>
+      <c r="B266" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C266" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D266" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E266" s="1">
+        <v>1</v>
+      </c>
+      <c r="F266" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7">
+      <c r="A267" s="1">
+        <v>1</v>
+      </c>
+      <c r="B267" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C267" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D267" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E267" s="1">
+        <v>1</v>
+      </c>
+      <c r="F267" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7">
+      <c r="A268" s="1">
+        <v>1</v>
+      </c>
+      <c r="B268" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C268" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D268" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E268" s="1">
+        <v>2</v>
+      </c>
+      <c r="F268" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7">
+      <c r="A269" s="1">
+        <v>1</v>
+      </c>
+      <c r="B269" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C269" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D269" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E269" s="1">
+        <v>2</v>
+      </c>
+      <c r="F269" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7">
+      <c r="A270" s="1">
+        <v>1</v>
+      </c>
+      <c r="B270" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C270" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D270" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E270" s="1">
+        <v>3</v>
+      </c>
+      <c r="F270">
+        <v>107</v>
+      </c>
+      <c r="G270" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7">
+      <c r="A271" s="1">
+        <v>1</v>
+      </c>
+      <c r="B271" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C271" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D271" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E271" s="1">
+        <v>3</v>
+      </c>
+      <c r="F271">
+        <v>106</v>
+      </c>
+      <c r="G271" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7">
+      <c r="A272" s="1">
+        <v>1</v>
+      </c>
+      <c r="B272" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C272" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D272" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E272" s="1">
+        <v>4</v>
+      </c>
+      <c r="F272">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7">
+      <c r="A273" s="1">
+        <v>1</v>
+      </c>
+      <c r="B273" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C273" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D273" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E273" s="1">
+        <v>4</v>
+      </c>
+      <c r="F273">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7">
+      <c r="A274" s="1">
+        <v>1</v>
+      </c>
+      <c r="B274" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C274" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D274" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E274" s="1">
+        <v>1</v>
+      </c>
+      <c r="F274">
+        <v>125</v>
+      </c>
+      <c r="G274" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7">
+      <c r="A275" s="1">
+        <v>1</v>
+      </c>
+      <c r="B275" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C275" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D275" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E275" s="1">
+        <v>1</v>
+      </c>
+      <c r="F275">
+        <v>147</v>
+      </c>
+      <c r="G275" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7">
+      <c r="A276" s="1">
+        <v>1</v>
+      </c>
+      <c r="B276" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C276" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D276" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E276" s="1">
+        <v>2</v>
+      </c>
+      <c r="F276">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7">
+      <c r="A277" s="1">
+        <v>1</v>
+      </c>
+      <c r="B277" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C277" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D277" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E277" s="1">
+        <v>2</v>
+      </c>
+      <c r="F277">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7">
+      <c r="A278" s="1">
+        <v>1</v>
+      </c>
+      <c r="B278" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C278" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D278" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E278" s="1">
+        <v>3</v>
+      </c>
+      <c r="F278">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7">
+      <c r="A279" s="1">
+        <v>1</v>
+      </c>
+      <c r="B279" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C279" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D279" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E279" s="1">
+        <v>3</v>
+      </c>
+      <c r="F279">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7">
+      <c r="A280" s="1">
+        <v>1</v>
+      </c>
+      <c r="B280" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C280" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D280" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E280" s="1">
+        <v>0</v>
+      </c>
+      <c r="F280">
+        <v>17</v>
+      </c>
+      <c r="G280" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7">
+      <c r="A281" s="1">
+        <v>1</v>
+      </c>
+      <c r="B281" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C281" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D281" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E281" s="1">
+        <v>0</v>
+      </c>
+      <c r="F281" s="1">
+        <v>24</v>
+      </c>
+      <c r="G281" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7">
+      <c r="A282" s="1">
+        <v>1</v>
+      </c>
+      <c r="B282" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C282" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D282" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E282" s="1">
+        <v>1</v>
+      </c>
+      <c r="F282">
+        <v>3</v>
+      </c>
+      <c r="G282" s="1"/>
+    </row>
+    <row r="283" spans="1:7">
+      <c r="A283" s="1">
+        <v>1</v>
+      </c>
+      <c r="B283" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C283" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D283" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E283" s="1">
+        <v>1</v>
+      </c>
+      <c r="F283">
+        <v>4</v>
+      </c>
+      <c r="G283" s="1"/>
+    </row>
+    <row r="284" spans="1:7">
+      <c r="A284" s="1">
+        <v>1</v>
+      </c>
+      <c r="B284" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C284" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D284" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E284" s="1">
+        <v>2</v>
+      </c>
+      <c r="F284" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="285" spans="1:7">
+      <c r="A285" s="1">
+        <v>1</v>
+      </c>
+      <c r="B285" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C285" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D285" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E285" s="1">
+        <v>2</v>
+      </c>
+      <c r="F285">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="286" spans="1:7">
+      <c r="A286" s="1">
+        <v>1</v>
+      </c>
+      <c r="B286" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C286" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D286" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E286" s="1">
+        <v>0</v>
+      </c>
+      <c r="F286">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="287" spans="1:7">
+      <c r="A287" s="1">
+        <v>1</v>
+      </c>
+      <c r="B287" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C287" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D287" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E287" s="1">
+        <v>0</v>
+      </c>
+      <c r="F287" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="288" spans="1:7">
+      <c r="A288" s="1">
+        <v>1</v>
+      </c>
+      <c r="B288" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C288" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D288" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E288" s="1">
+        <v>1</v>
+      </c>
+      <c r="F288">
+        <v>1</v>
+      </c>
+      <c r="G288" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="289" spans="1:7">
+      <c r="A289" s="1">
+        <v>1</v>
+      </c>
+      <c r="B289" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C289" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D289" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E289" s="1">
+        <v>1</v>
+      </c>
+      <c r="F289">
+        <v>1</v>
+      </c>
+      <c r="G289" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="290" spans="1:7">
+      <c r="A290" s="9">
+        <v>2</v>
+      </c>
+      <c r="B290" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="C290" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="D290" t="s">
+        <v>119</v>
+      </c>
+      <c r="E290" s="10">
+        <v>4</v>
+      </c>
+      <c r="F290" s="10">
+        <v>276</v>
+      </c>
+      <c r="G290" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="291" spans="1:7">
+      <c r="A291" s="1">
+        <v>2</v>
+      </c>
+      <c r="B291" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C291" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D291" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E291" s="1">
+        <v>4</v>
+      </c>
+      <c r="F291">
+        <v>278</v>
+      </c>
+      <c r="G291" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="292" spans="1:7">
+      <c r="A292" s="1">
+        <v>2</v>
+      </c>
+      <c r="B292" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C292" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D292" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E292" s="1">
+        <v>5</v>
+      </c>
+      <c r="F292">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="293" spans="1:7">
+      <c r="A293" s="1">
+        <v>2</v>
+      </c>
+      <c r="B293" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C293" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D293" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E293" s="1">
+        <v>5</v>
+      </c>
+      <c r="F293">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="294" spans="1:7">
+      <c r="A294" s="1">
+        <v>2</v>
+      </c>
+      <c r="B294" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C294" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D294" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E294" s="1">
+        <v>6</v>
+      </c>
+      <c r="F294">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="295" spans="1:7">
+      <c r="A295" s="1">
+        <v>2</v>
+      </c>
+      <c r="B295" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C295" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D295" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E295" s="1">
+        <v>6</v>
+      </c>
+      <c r="F295">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="296" spans="1:7">
+      <c r="A296" s="1">
+        <v>2</v>
+      </c>
+      <c r="B296" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C296" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D296" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E296" s="1">
+        <v>1</v>
+      </c>
+      <c r="F296" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="297" spans="1:7">
+      <c r="A297" s="1">
+        <v>2</v>
+      </c>
+      <c r="B297" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C297" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D297" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E297" s="1">
+        <v>1</v>
+      </c>
+      <c r="F297" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="298" spans="1:7">
+      <c r="A298" s="1">
+        <v>2</v>
+      </c>
+      <c r="B298" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C298" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D298" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E298" s="1">
+        <v>2</v>
+      </c>
+      <c r="F298" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="299" spans="1:7">
+      <c r="A299" s="1">
+        <v>2</v>
+      </c>
+      <c r="B299" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C299" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D299" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E299" s="1">
+        <v>2</v>
+      </c>
+      <c r="F299" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="300" spans="1:7">
+      <c r="A300" s="1">
+        <v>2</v>
+      </c>
+      <c r="B300" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C300" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D300" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E300" s="1">
+        <v>3</v>
+      </c>
+      <c r="F300">
+        <v>1020</v>
+      </c>
+      <c r="G300" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="301" spans="1:7">
+      <c r="A301" s="1">
+        <v>2</v>
+      </c>
+      <c r="B301" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C301" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D301" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E301" s="1">
+        <v>3</v>
+      </c>
+      <c r="F301">
+        <v>896</v>
+      </c>
+      <c r="G301" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="302" spans="1:7">
+      <c r="A302" s="1">
+        <v>2</v>
+      </c>
+      <c r="B302" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C302" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D302" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E302" s="1">
+        <v>1</v>
+      </c>
+      <c r="F302" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="303" spans="1:7">
+      <c r="A303" s="1">
+        <v>2</v>
+      </c>
+      <c r="B303" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C303" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D303" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E303" s="1">
+        <v>1</v>
+      </c>
+      <c r="F303" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="304" spans="1:7">
+      <c r="A304" s="1">
+        <v>2</v>
+      </c>
+      <c r="B304" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C304" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D304" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E304" s="1">
+        <v>2</v>
+      </c>
+      <c r="F304" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="305" spans="1:7">
+      <c r="A305" s="1">
+        <v>2</v>
+      </c>
+      <c r="B305" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C305" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D305" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E305" s="1">
+        <v>2</v>
+      </c>
+      <c r="F305" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="306" spans="1:7">
+      <c r="A306" s="1">
+        <v>2</v>
+      </c>
+      <c r="B306" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C306" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D306" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E306" s="1">
+        <v>3</v>
+      </c>
+      <c r="F306">
+        <v>379</v>
+      </c>
+      <c r="G306" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="307" spans="1:7">
+      <c r="A307" s="1">
+        <v>2</v>
+      </c>
+      <c r="B307" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C307" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D307" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E307" s="1">
+        <v>3</v>
+      </c>
+      <c r="F307">
+        <v>374</v>
+      </c>
+      <c r="G307" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="308" spans="1:7">
+      <c r="A308" s="1">
+        <v>2</v>
+      </c>
+      <c r="B308" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C308" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D308" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E308" s="1">
+        <v>1</v>
+      </c>
+      <c r="F308" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="309" spans="1:7">
+      <c r="A309" s="1">
+        <v>2</v>
+      </c>
+      <c r="B309" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C309" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D309" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E309" s="1">
+        <v>1</v>
+      </c>
+      <c r="F309" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="310" spans="1:7">
+      <c r="A310" s="1">
+        <v>2</v>
+      </c>
+      <c r="B310" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C310" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D310" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E310" s="1">
+        <v>2</v>
+      </c>
+      <c r="F310" s="1">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="311" spans="1:7">
+      <c r="A311" s="1">
+        <v>2</v>
+      </c>
+      <c r="B311" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C311" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D311" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E311" s="1">
+        <v>2</v>
+      </c>
+      <c r="F311" s="1">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="312" spans="1:7">
+      <c r="A312" s="1">
+        <v>2</v>
+      </c>
+      <c r="B312" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C312" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D312" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E312" s="1">
+        <v>3</v>
+      </c>
+      <c r="F312" s="1">
+        <v>27</v>
+      </c>
+      <c r="G312" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="313" spans="1:7">
+      <c r="A313" s="1">
+        <v>2</v>
+      </c>
+      <c r="B313" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C313" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D313" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E313" s="1">
+        <v>3</v>
+      </c>
+      <c r="F313" s="1">
+        <v>72</v>
+      </c>
+      <c r="G313" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="314" spans="1:7">
+      <c r="A314" s="1">
+        <v>2</v>
+      </c>
+      <c r="B314" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C314" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D314" t="s">
+        <v>119</v>
+      </c>
+      <c r="E314">
+        <v>4</v>
+      </c>
+      <c r="F314">
+        <v>219</v>
+      </c>
+      <c r="G314" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="315" spans="1:7">
+      <c r="A315" s="1">
+        <v>2</v>
+      </c>
+      <c r="B315" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C315" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D315" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E315" s="1">
+        <v>4</v>
+      </c>
+      <c r="F315">
+        <v>227</v>
+      </c>
+      <c r="G315" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="316" spans="1:7">
+      <c r="A316" s="1">
+        <v>2</v>
+      </c>
+      <c r="B316" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C316" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D316" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E316" s="1">
+        <v>5</v>
+      </c>
+      <c r="F316">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="317" spans="1:7">
+      <c r="A317" s="1">
+        <v>2</v>
+      </c>
+      <c r="B317" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C317" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D317" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E317" s="1">
+        <v>5</v>
+      </c>
+      <c r="F317">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="318" spans="1:7">
+      <c r="A318" s="1">
+        <v>2</v>
+      </c>
+      <c r="B318" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C318" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D318" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E318" s="1">
+        <v>6</v>
+      </c>
+      <c r="F318">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="319" spans="1:7">
+      <c r="A319" s="1">
+        <v>2</v>
+      </c>
+      <c r="B319" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C319" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D319" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E319" s="1">
+        <v>6</v>
+      </c>
+      <c r="F319">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="320" spans="1:7">
+      <c r="A320" s="1">
+        <v>2</v>
+      </c>
+      <c r="B320" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C320" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D320" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E320" s="1">
+        <v>1</v>
+      </c>
+      <c r="F320">
+        <v>30</v>
+      </c>
+      <c r="G320" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="321" spans="1:7">
+      <c r="A321" s="1">
+        <v>2</v>
+      </c>
+      <c r="B321" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C321" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D321" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E321" s="1">
+        <v>1</v>
+      </c>
+      <c r="F321">
+        <v>19</v>
+      </c>
+      <c r="G321" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="322" spans="1:7">
+      <c r="A322" s="1">
+        <v>2</v>
+      </c>
+      <c r="B322" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C322" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D322" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E322" s="1">
+        <v>2</v>
+      </c>
+      <c r="F322">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="323" spans="1:7">
+      <c r="A323" s="1">
+        <v>2</v>
+      </c>
+      <c r="B323" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C323" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D323" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E323" s="1">
+        <v>2</v>
+      </c>
+      <c r="F323">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="324" spans="1:7">
+      <c r="A324" s="1">
+        <v>2</v>
+      </c>
+      <c r="B324" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C324" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D324" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E324" s="1">
+        <v>3</v>
+      </c>
+      <c r="F324" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="325" spans="1:7">
+      <c r="A325" s="1">
+        <v>2</v>
+      </c>
+      <c r="B325" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C325" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D325" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E325" s="1">
+        <v>3</v>
+      </c>
+      <c r="F325">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="326" spans="1:7">
+      <c r="A326" s="1">
+        <v>2</v>
+      </c>
+      <c r="B326" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C326" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D326" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E326" s="1">
+        <v>1</v>
+      </c>
+      <c r="F326">
+        <v>4</v>
+      </c>
+      <c r="G326" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="327" spans="1:7">
+      <c r="A327" s="1">
+        <v>2</v>
+      </c>
+      <c r="B327" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C327" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D327" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E327" s="1">
+        <v>1</v>
+      </c>
+      <c r="F327">
+        <v>8</v>
+      </c>
+      <c r="G327" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="328" spans="1:7">
+      <c r="A328" s="1">
+        <v>2</v>
+      </c>
+      <c r="B328" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C328" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D328" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E328" s="1">
+        <v>2</v>
+      </c>
+      <c r="F328">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="329" spans="1:7">
+      <c r="A329" s="1">
+        <v>2</v>
+      </c>
+      <c r="B329" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C329" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D329" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E329" s="1">
+        <v>2</v>
+      </c>
+      <c r="F329" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="330" spans="1:7">
+      <c r="A330" s="1">
+        <v>2</v>
+      </c>
+      <c r="B330" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C330" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D330" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E330" s="1">
+        <v>3</v>
+      </c>
+      <c r="F330">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="331" spans="1:7">
+      <c r="A331" s="1">
+        <v>2</v>
+      </c>
+      <c r="B331" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C331" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D331" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E331" s="1">
+        <v>3</v>
+      </c>
+      <c r="F331" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="332" spans="1:7">
+      <c r="A332" s="1">
+        <v>2</v>
+      </c>
+      <c r="B332" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C332" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D332" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E332" s="1">
+        <v>1</v>
+      </c>
+      <c r="F332">
+        <v>168</v>
+      </c>
+      <c r="G332" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="333" spans="1:7">
+      <c r="A333" s="1">
+        <v>2</v>
+      </c>
+      <c r="B333" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C333" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D333" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E333" s="1">
+        <v>1</v>
+      </c>
+      <c r="F333">
+        <v>167</v>
+      </c>
+      <c r="G333" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="334" spans="1:7">
+      <c r="A334" s="1">
+        <v>2</v>
+      </c>
+      <c r="B334" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C334" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D334" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E334" s="1">
+        <v>2</v>
+      </c>
+      <c r="F334">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="335" spans="1:7">
+      <c r="A335" s="1">
+        <v>2</v>
+      </c>
+      <c r="B335" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C335" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D335" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E335" s="1">
+        <v>2</v>
+      </c>
+      <c r="F335">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="336" spans="1:7">
+      <c r="A336" s="1">
+        <v>2</v>
+      </c>
+      <c r="B336" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C336" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D336" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E336" s="1">
+        <v>3</v>
+      </c>
+      <c r="F336" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="337" spans="1:7">
+      <c r="A337" s="1">
+        <v>2</v>
+      </c>
+      <c r="B337" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C337" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D337" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E337" s="1">
+        <v>3</v>
+      </c>
+      <c r="F337">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="338" spans="1:7">
+      <c r="A338" s="1">
+        <v>2</v>
+      </c>
+      <c r="B338" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C338" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D338" t="s">
+        <v>119</v>
+      </c>
+      <c r="E338" s="1">
+        <v>4</v>
+      </c>
+      <c r="F338">
+        <v>184</v>
+      </c>
+      <c r="G338" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="339" spans="1:7">
+      <c r="A339" s="1">
+        <v>2</v>
+      </c>
+      <c r="B339" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C339" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D339" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E339" s="1">
+        <v>4</v>
+      </c>
+      <c r="F339">
+        <v>209</v>
+      </c>
+      <c r="G339" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="340" spans="1:7">
+      <c r="A340" s="1">
+        <v>2</v>
+      </c>
+      <c r="B340" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C340" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D340" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E340" s="1">
+        <v>5</v>
+      </c>
+      <c r="F340">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="341" spans="1:7">
+      <c r="A341" s="1">
+        <v>2</v>
+      </c>
+      <c r="B341" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C341" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D341" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E341" s="1">
+        <v>5</v>
+      </c>
+      <c r="F341">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="342" spans="1:7">
+      <c r="A342" s="1">
+        <v>2</v>
+      </c>
+      <c r="B342" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C342" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D342" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E342" s="1">
+        <v>6</v>
+      </c>
+      <c r="F342">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="343" spans="1:7">
+      <c r="A343" s="1">
+        <v>2</v>
+      </c>
+      <c r="B343" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C343" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D343" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E343" s="1">
+        <v>6</v>
+      </c>
+      <c r="F343">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="344" spans="1:7">
+      <c r="A344" s="1">
+        <v>2</v>
+      </c>
+      <c r="B344" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C344" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D344" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E344" s="1">
+        <v>1</v>
+      </c>
+      <c r="F344" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="345" spans="1:7">
+      <c r="A345" s="1">
+        <v>2</v>
+      </c>
+      <c r="B345" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C345" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D345" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E345" s="1">
+        <v>1</v>
+      </c>
+      <c r="F345" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="346" spans="1:7">
+      <c r="A346" s="1">
+        <v>2</v>
+      </c>
+      <c r="B346" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C346" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D346" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E346" s="1">
+        <v>2</v>
+      </c>
+      <c r="F346" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="347" spans="1:7">
+      <c r="A347" s="1">
+        <v>2</v>
+      </c>
+      <c r="B347" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C347" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D347" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E347" s="1">
+        <v>2</v>
+      </c>
+      <c r="F347" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="348" spans="1:7">
+      <c r="A348" s="1">
+        <v>2</v>
+      </c>
+      <c r="B348" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C348" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D348" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E348" s="1">
+        <v>3</v>
+      </c>
+      <c r="F348">
+        <v>1400</v>
+      </c>
+      <c r="G348" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="349" spans="1:7">
+      <c r="A349" s="1">
+        <v>2</v>
+      </c>
+      <c r="B349" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C349" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D349" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E349" s="1">
+        <v>3</v>
+      </c>
+      <c r="F349">
+        <v>1520</v>
+      </c>
+      <c r="G349" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="350" spans="1:7">
+      <c r="A350" s="1">
+        <v>2</v>
+      </c>
+      <c r="B350" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C350" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D350" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E350" s="1">
+        <v>1</v>
+      </c>
+      <c r="F350" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="351" spans="1:7">
+      <c r="A351" s="1">
+        <v>2</v>
+      </c>
+      <c r="B351" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C351" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D351" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E351" s="1">
+        <v>1</v>
+      </c>
+      <c r="F351" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="352" spans="1:7">
+      <c r="A352" s="1">
+        <v>2</v>
+      </c>
+      <c r="B352" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C352" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D352" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E352" s="1">
+        <v>2</v>
+      </c>
+      <c r="F352" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="353" spans="1:7">
+      <c r="A353" s="1">
+        <v>2</v>
+      </c>
+      <c r="B353" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C353" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D353" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E353" s="1">
+        <v>2</v>
+      </c>
+      <c r="F353" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="354" spans="1:7">
+      <c r="A354" s="1">
+        <v>2</v>
+      </c>
+      <c r="B354" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C354" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D354" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E354" s="1">
+        <v>3</v>
+      </c>
+      <c r="F354">
+        <v>1600</v>
+      </c>
+      <c r="G354" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="355" spans="1:7">
+      <c r="A355" s="1">
+        <v>2</v>
+      </c>
+      <c r="B355" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C355" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D355" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E355" s="1">
+        <v>3</v>
+      </c>
+      <c r="F355">
+        <v>1600</v>
+      </c>
+      <c r="G355" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="356" spans="1:7">
+      <c r="A356" s="1">
+        <v>2</v>
+      </c>
+      <c r="B356" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C356" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D356" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E356" s="1">
+        <v>1</v>
+      </c>
+      <c r="F356" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="357" spans="1:7">
+      <c r="A357" s="1">
+        <v>2</v>
+      </c>
+      <c r="B357" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C357" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D357" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E357" s="1">
+        <v>1</v>
+      </c>
+      <c r="F357" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="358" spans="1:7">
+      <c r="A358" s="1">
+        <v>2</v>
+      </c>
+      <c r="B358" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C358" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D358" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E358" s="1">
+        <v>2</v>
+      </c>
+      <c r="F358" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="359" spans="1:7">
+      <c r="A359" s="1">
+        <v>2</v>
+      </c>
+      <c r="B359" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C359" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D359" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E359" s="1">
+        <v>2</v>
+      </c>
+      <c r="F359" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="360" spans="1:7">
+      <c r="A360" s="1">
+        <v>2</v>
+      </c>
+      <c r="B360" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C360" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D360" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E360" s="1">
+        <v>3</v>
+      </c>
+      <c r="F360">
+        <v>1200</v>
+      </c>
+      <c r="G360" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="361" spans="1:7">
+      <c r="A361" s="1">
+        <v>2</v>
+      </c>
+      <c r="B361" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C361" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D361" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E361" s="1">
+        <v>3</v>
+      </c>
+      <c r="F361">
+        <v>800</v>
+      </c>
+      <c r="G361" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="362" spans="1:7">
+      <c r="A362" s="9">
+        <v>2</v>
+      </c>
+      <c r="B362" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="C362" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="D362" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="E362" s="10">
+        <v>3</v>
+      </c>
+      <c r="F362" s="10">
+        <v>96</v>
+      </c>
+      <c r="G362" s="10" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="363" spans="1:7">
+      <c r="A363" s="1">
+        <v>2</v>
+      </c>
+      <c r="B363" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C363" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D363" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E363" s="1">
+        <v>3</v>
+      </c>
+      <c r="F363">
+        <v>96</v>
+      </c>
+      <c r="G363" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="364" spans="1:7">
+      <c r="A364" s="1">
+        <v>2</v>
+      </c>
+      <c r="B364" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C364" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D364" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E364" s="1">
+        <v>4</v>
+      </c>
+      <c r="F364">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="365" spans="1:7">
+      <c r="A365" s="1">
+        <v>2</v>
+      </c>
+      <c r="B365" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C365" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D365" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E365" s="1">
+        <v>4</v>
+      </c>
+      <c r="F365">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="366" spans="1:7">
+      <c r="A366" s="1">
+        <v>2</v>
+      </c>
+      <c r="B366" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C366" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D366" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E366" s="1">
+        <v>5</v>
+      </c>
+      <c r="F366" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="367" spans="1:7">
+      <c r="A367" s="1">
+        <v>2</v>
+      </c>
+      <c r="B367" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C367" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D367" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E367" s="1">
+        <v>5</v>
+      </c>
+      <c r="F367">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="368" spans="1:7">
+      <c r="A368" s="1">
+        <v>2</v>
+      </c>
+      <c r="B368" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C368" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D368" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E368" s="1">
+        <v>2</v>
+      </c>
+      <c r="F368">
+        <v>101</v>
+      </c>
+      <c r="G368" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="369" spans="1:7">
+      <c r="A369" s="1">
+        <v>2</v>
+      </c>
+      <c r="B369" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C369" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D369" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E369" s="1">
+        <v>2</v>
+      </c>
+      <c r="F369">
+        <v>110</v>
+      </c>
+      <c r="G369" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="370" spans="1:7">
+      <c r="A370" s="1">
+        <v>2</v>
+      </c>
+      <c r="B370" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C370" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D370" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E370" s="1">
+        <v>3</v>
+      </c>
+      <c r="F370">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="371" spans="1:7">
+      <c r="A371" s="1">
+        <v>2</v>
+      </c>
+      <c r="B371" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C371" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D371" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E371" s="1">
+        <v>3</v>
+      </c>
+      <c r="F371">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="372" spans="1:7">
+      <c r="A372" s="1">
+        <v>2</v>
+      </c>
+      <c r="B372" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C372" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D372" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E372" s="1">
+        <v>4</v>
+      </c>
+      <c r="F372">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="373" spans="1:7">
+      <c r="A373" s="1">
+        <v>2</v>
+      </c>
+      <c r="B373" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C373" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D373" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E373" s="1">
+        <v>4</v>
+      </c>
+      <c r="F373" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="374" spans="1:7">
+      <c r="A374" s="1">
+        <v>2</v>
+      </c>
+      <c r="B374" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C374" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D374" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E374" s="1">
+        <v>1</v>
+      </c>
+      <c r="F374" t="s">
+        <v>120</v>
+      </c>
+      <c r="G374" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="375" spans="1:7">
+      <c r="A375" s="1">
+        <v>2</v>
+      </c>
+      <c r="B375" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C375" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D375" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E375" s="1">
+        <v>1</v>
+      </c>
+      <c r="F375" t="s">
+        <v>120</v>
+      </c>
+      <c r="G375" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="376" spans="1:7">
+      <c r="A376" s="1">
+        <v>2</v>
+      </c>
+      <c r="B376" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C376" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D376" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E376" s="1">
+        <v>2</v>
+      </c>
+      <c r="F376" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="377" spans="1:7">
+      <c r="A377" s="1">
+        <v>2</v>
+      </c>
+      <c r="B377" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C377" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D377" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E377" s="1">
+        <v>2</v>
+      </c>
+      <c r="F377" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="378" spans="1:7">
+      <c r="A378" s="1">
+        <v>2</v>
+      </c>
+      <c r="B378" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C378" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D378" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E378" s="1">
+        <v>3</v>
+      </c>
+      <c r="F378" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="379" spans="1:7">
+      <c r="A379" s="1">
+        <v>2</v>
+      </c>
+      <c r="B379" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C379" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D379" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E379" s="1">
+        <v>3</v>
+      </c>
+      <c r="F379" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="380" spans="1:7">
+      <c r="A380" s="1">
+        <v>2</v>
+      </c>
+      <c r="B380" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C380" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D380" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E380" s="1">
+        <v>0</v>
+      </c>
+      <c r="F380">
+        <v>3</v>
+      </c>
+      <c r="G380" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="381" spans="1:7">
+      <c r="A381" s="1">
+        <v>2</v>
+      </c>
+      <c r="B381" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C381" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D381" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E381" s="1">
+        <v>0</v>
+      </c>
+      <c r="F381">
+        <v>2</v>
+      </c>
+      <c r="G381" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="382" spans="1:7">
+      <c r="A382" s="1">
+        <v>2</v>
+      </c>
+      <c r="B382" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C382" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D382" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E382" s="1">
+        <v>1</v>
+      </c>
+      <c r="F382" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="383" spans="1:7">
+      <c r="A383" s="1">
+        <v>2</v>
+      </c>
+      <c r="B383" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C383" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D383" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E383" s="1">
+        <v>1</v>
+      </c>
+      <c r="F383" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="384" spans="1:7">
+      <c r="A384" s="1">
+        <v>2</v>
+      </c>
+      <c r="B384" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C384" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D384" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E384" s="1">
+        <v>2</v>
+      </c>
+      <c r="F384" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="385" spans="1:7">
+      <c r="A385" s="1">
+        <v>2</v>
+      </c>
+      <c r="B385" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C385" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D385" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E385" s="1">
+        <v>2</v>
+      </c>
+      <c r="F385" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="386" spans="1:7">
+      <c r="A386" s="1">
+        <v>2</v>
+      </c>
+      <c r="B386" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C386" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D386" t="s">
+        <v>119</v>
+      </c>
+      <c r="E386" s="1">
+        <v>3</v>
+      </c>
+      <c r="F386" s="1">
+        <v>116</v>
+      </c>
+      <c r="G386" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="387" spans="1:7">
+      <c r="A387" s="1">
+        <v>2</v>
+      </c>
+      <c r="B387" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C387" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D387" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E387" s="1">
+        <v>3</v>
+      </c>
+      <c r="F387" s="1">
+        <v>106</v>
+      </c>
+      <c r="G387" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="388" spans="1:7">
+      <c r="A388" s="1">
+        <v>2</v>
+      </c>
+      <c r="B388" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C388" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D388" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E388" s="1">
+        <v>4</v>
+      </c>
+      <c r="F388" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="389" spans="1:7">
+      <c r="A389" s="1">
+        <v>2</v>
+      </c>
+      <c r="B389" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C389" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D389" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E389" s="1">
+        <v>4</v>
+      </c>
+      <c r="F389" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="390" spans="1:7">
+      <c r="A390" s="1">
+        <v>2</v>
+      </c>
+      <c r="B390" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C390" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D390" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E390" s="1">
+        <v>5</v>
+      </c>
+      <c r="F390" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="391" spans="1:7">
+      <c r="A391" s="1">
+        <v>2</v>
+      </c>
+      <c r="B391" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C391" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D391" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E391" s="1">
+        <v>5</v>
+      </c>
+      <c r="F391" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="392" spans="1:7">
+      <c r="A392" s="1">
+        <v>2</v>
+      </c>
+      <c r="B392" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C392" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D392" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E392" s="1">
+        <v>2</v>
+      </c>
+      <c r="F392" s="1">
+        <v>31</v>
+      </c>
+      <c r="G392" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="393" spans="1:7">
+      <c r="A393" s="1">
+        <v>2</v>
+      </c>
+      <c r="B393" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C393" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D393" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E393" s="1">
+        <v>2</v>
+      </c>
+      <c r="F393" s="1">
+        <v>32</v>
+      </c>
+      <c r="G393" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="394" spans="1:7">
+      <c r="A394" s="1">
+        <v>2</v>
+      </c>
+      <c r="B394" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C394" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D394" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E394" s="1">
+        <v>3</v>
+      </c>
+      <c r="F394" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="395" spans="1:7">
+      <c r="A395" s="1">
+        <v>2</v>
+      </c>
+      <c r="B395" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C395" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D395" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E395" s="1">
+        <v>3</v>
+      </c>
+      <c r="F395" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="396" spans="1:7">
+      <c r="A396" s="1">
+        <v>2</v>
+      </c>
+      <c r="B396" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C396" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D396" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E396" s="1">
+        <v>4</v>
+      </c>
+      <c r="F396" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="397" spans="1:7">
+      <c r="A397" s="1">
+        <v>2</v>
+      </c>
+      <c r="B397" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C397" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D397" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E397" s="1">
+        <v>4</v>
+      </c>
+      <c r="F397" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="398" spans="1:7">
+      <c r="A398" s="1">
+        <v>2</v>
+      </c>
+      <c r="B398" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C398" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D398" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E398" s="1">
+        <v>1</v>
+      </c>
+      <c r="F398">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="399" spans="1:7">
+      <c r="A399" s="1">
+        <v>2</v>
+      </c>
+      <c r="B399" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C399" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D399" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E399" s="1">
+        <v>1</v>
+      </c>
+      <c r="F399" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="400" spans="1:7">
+      <c r="A400" s="1">
+        <v>2</v>
+      </c>
+      <c r="B400" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C400" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D400" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E400" s="1">
+        <v>2</v>
+      </c>
+      <c r="F400">
+        <v>1</v>
+      </c>
+      <c r="G400" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="401" spans="1:7">
+      <c r="A401" s="1">
+        <v>2</v>
+      </c>
+      <c r="B401" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C401" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D401" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E401" s="1">
+        <v>2</v>
+      </c>
+      <c r="F401" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="G401" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="402" spans="1:7">
+      <c r="A402" s="1">
+        <v>2</v>
+      </c>
+      <c r="B402" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C402" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D402" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E402" s="1">
+        <v>3</v>
+      </c>
+      <c r="F402">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="403" spans="1:7">
+      <c r="A403" s="1">
+        <v>2</v>
+      </c>
+      <c r="B403" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C403" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D403" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E403" s="1">
+        <v>3</v>
+      </c>
+      <c r="F403" s="11" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="404" spans="1:7">
+      <c r="A404" s="1">
+        <v>2</v>
+      </c>
+      <c r="B404" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C404" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D404" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E404" s="1">
+        <v>0</v>
+      </c>
+      <c r="F404" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="G404" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="405" spans="1:7">
+      <c r="A405" s="1">
+        <v>2</v>
+      </c>
+      <c r="B405" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C405" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D405" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E405" s="1">
+        <v>0</v>
+      </c>
+      <c r="F405" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="G405" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="406" spans="1:7">
+      <c r="A406" s="1">
+        <v>2</v>
+      </c>
+      <c r="B406" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C406" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D406" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E406" s="1">
+        <v>1</v>
+      </c>
+      <c r="F406" s="11" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="407" spans="1:7">
+      <c r="A407" s="1">
+        <v>2</v>
+      </c>
+      <c r="B407" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C407" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D407" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E407" s="1">
+        <v>1</v>
+      </c>
+      <c r="F407" s="11" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="408" spans="1:7">
+      <c r="A408" s="1">
+        <v>2</v>
+      </c>
+      <c r="B408" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C408" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D408" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E408" s="1">
+        <v>2</v>
+      </c>
+      <c r="F408" s="11" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="409" spans="1:7">
+      <c r="A409" s="1">
+        <v>2</v>
+      </c>
+      <c r="B409" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C409" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D409" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E409" s="1">
+        <v>2</v>
+      </c>
+      <c r="F409" s="11" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="410" spans="1:7">
+      <c r="A410" s="1">
+        <v>2</v>
+      </c>
+      <c r="B410" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C410" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D410" t="s">
+        <v>119</v>
+      </c>
+      <c r="E410" s="1">
+        <v>3</v>
+      </c>
+      <c r="F410">
+        <v>44</v>
+      </c>
+      <c r="G410" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="411" spans="1:7">
+      <c r="A411" s="1">
+        <v>2</v>
+      </c>
+      <c r="B411" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C411" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D411" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E411" s="1">
+        <v>3</v>
+      </c>
+      <c r="F411" s="11">
+        <v>37</v>
+      </c>
+      <c r="G411" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="412" spans="1:7">
+      <c r="A412" s="1">
+        <v>2</v>
+      </c>
+      <c r="B412" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C412" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D412" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E412" s="1">
+        <v>4</v>
+      </c>
+      <c r="F412">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="413" spans="1:7">
+      <c r="A413" s="1">
+        <v>2</v>
+      </c>
+      <c r="B413" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C413" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D413" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E413" s="1">
+        <v>4</v>
+      </c>
+      <c r="F413" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="414" spans="1:7">
+      <c r="A414" s="1">
+        <v>2</v>
+      </c>
+      <c r="B414" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C414" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D414" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E414" s="1">
+        <v>5</v>
+      </c>
+      <c r="F414">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="415" spans="1:7">
+      <c r="A415" s="1">
+        <v>2</v>
+      </c>
+      <c r="B415" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C415" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D415" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E415" s="1">
+        <v>5</v>
+      </c>
+      <c r="F415" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="416" spans="1:7">
+      <c r="A416" s="1">
+        <v>2</v>
+      </c>
+      <c r="B416" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C416" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D416" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E416" s="1">
+        <v>2</v>
+      </c>
+      <c r="F416">
+        <v>31</v>
+      </c>
+      <c r="G416" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="417" spans="1:7">
+      <c r="A417" s="1">
+        <v>2</v>
+      </c>
+      <c r="B417" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C417" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D417" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E417" s="1">
+        <v>2</v>
+      </c>
+      <c r="F417" s="11">
+        <v>32</v>
+      </c>
+      <c r="G417" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="418" spans="1:7">
+      <c r="A418" s="1">
+        <v>2</v>
+      </c>
+      <c r="B418" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C418" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D418" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E418" s="1">
+        <v>3</v>
+      </c>
+      <c r="F418" s="11" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="419" spans="1:7">
+      <c r="A419" s="1">
+        <v>2</v>
+      </c>
+      <c r="B419" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C419" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D419" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E419" s="1">
+        <v>3</v>
+      </c>
+      <c r="F419" s="11" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="420" spans="1:7">
+      <c r="A420" s="1">
+        <v>2</v>
+      </c>
+      <c r="B420" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C420" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D420" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E420" s="1">
+        <v>4</v>
+      </c>
+      <c r="F420" s="11" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="421" spans="1:7">
+      <c r="A421" s="1">
+        <v>2</v>
+      </c>
+      <c r="B421" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C421" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D421" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E421" s="1">
+        <v>4</v>
+      </c>
+      <c r="F421" s="11" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="422" spans="1:7">
+      <c r="A422" s="1">
+        <v>2</v>
+      </c>
+      <c r="B422" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C422" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D422" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E422" s="1">
+        <v>1</v>
+      </c>
+      <c r="F422">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="423" spans="1:7">
+      <c r="A423" s="1">
+        <v>2</v>
+      </c>
+      <c r="B423" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C423" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D423" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E423" s="1">
+        <v>1</v>
+      </c>
+      <c r="F423" s="11" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="424" spans="1:7">
+      <c r="A424" s="1">
+        <v>2</v>
+      </c>
+      <c r="B424" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C424" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D424" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E424" s="1">
+        <v>2</v>
+      </c>
+      <c r="F424">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="425" spans="1:7">
+      <c r="A425" s="1">
+        <v>2</v>
+      </c>
+      <c r="B425" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C425" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D425" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E425" s="1">
+        <v>2</v>
+      </c>
+      <c r="F425" s="11" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="426" spans="1:7">
+      <c r="A426" s="1">
+        <v>2</v>
+      </c>
+      <c r="B426" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C426" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D426" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E426" s="1">
+        <v>3</v>
+      </c>
+      <c r="F426">
+        <v>1</v>
+      </c>
+      <c r="G426" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="427" spans="1:7">
+      <c r="A427" s="1">
+        <v>2</v>
+      </c>
+      <c r="B427" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C427" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D427" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E427" s="1">
+        <v>3</v>
+      </c>
+      <c r="F427" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="G427" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="428" spans="1:7">
+      <c r="A428" s="1">
+        <v>2</v>
+      </c>
+      <c r="B428" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C428" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D428" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E428" s="1">
+        <v>0</v>
+      </c>
+      <c r="F428" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="G428" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="429" spans="1:7">
+      <c r="A429" s="1">
+        <v>2</v>
+      </c>
+      <c r="B429" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C429" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D429" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E429" s="1">
+        <v>0</v>
+      </c>
+      <c r="F429" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="G429" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="430" spans="1:7">
+      <c r="A430" s="1">
+        <v>2</v>
+      </c>
+      <c r="B430" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C430" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D430" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E430" s="1">
+        <v>1</v>
+      </c>
+      <c r="F430" s="11" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="431" spans="1:7">
+      <c r="A431" s="1">
+        <v>2</v>
+      </c>
+      <c r="B431" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C431" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D431" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E431" s="1">
+        <v>1</v>
+      </c>
+      <c r="F431" s="11" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="432" spans="1:7">
+      <c r="A432" s="1">
+        <v>2</v>
+      </c>
+      <c r="B432" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C432" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D432" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E432" s="1">
+        <v>2</v>
+      </c>
+      <c r="F432" s="11" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="433" spans="1:7">
+      <c r="A433" s="1">
+        <v>2</v>
+      </c>
+      <c r="B433" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C433" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D433" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E433" s="1">
+        <v>2</v>
+      </c>
+      <c r="F433" s="11" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="434" spans="1:7">
+      <c r="A434" s="10">
+        <v>4</v>
+      </c>
+      <c r="B434" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="C434" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="D434" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="E434" s="10">
+        <v>4</v>
+      </c>
+      <c r="F434" s="10">
+        <v>176</v>
+      </c>
+      <c r="G434" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="435" spans="1:7">
+      <c r="A435" s="1">
+        <v>4</v>
+      </c>
+      <c r="B435" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C435" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="D435" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E435" s="1">
+        <v>4</v>
+      </c>
+      <c r="F435">
+        <v>184</v>
+      </c>
+      <c r="G435" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="436" spans="1:7">
+      <c r="A436" s="1">
+        <v>4</v>
+      </c>
+      <c r="B436" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C436" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D436" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E436" s="1">
+        <v>5</v>
+      </c>
+      <c r="F436">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="437" spans="1:7">
+      <c r="A437" s="1">
+        <v>4</v>
+      </c>
+      <c r="B437" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C437" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="D437" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E437" s="1">
+        <v>5</v>
+      </c>
+      <c r="F437">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="438" spans="1:7">
+      <c r="A438" s="1">
+        <v>4</v>
+      </c>
+      <c r="B438" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C438" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D438" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E438" s="1">
+        <v>6</v>
+      </c>
+      <c r="F438">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="439" spans="1:7">
+      <c r="A439" s="1">
+        <v>4</v>
+      </c>
+      <c r="B439" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C439" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="D439" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E439" s="1">
+        <v>6</v>
+      </c>
+      <c r="F439">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="440" spans="1:7">
+      <c r="A440" s="1">
+        <v>4</v>
+      </c>
+      <c r="B440" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C440" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D440" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E440" s="1">
+        <v>2</v>
+      </c>
+      <c r="F440" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G440" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="441" spans="1:7">
+      <c r="A441" s="1">
+        <v>4</v>
+      </c>
+      <c r="B441" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C441" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="D441" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E441" s="1">
+        <v>2</v>
+      </c>
+      <c r="F441" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G441" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="442" spans="1:7">
+      <c r="A442" s="1">
+        <v>4</v>
+      </c>
+      <c r="B442" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C442" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D442" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E442" s="1">
+        <v>3</v>
+      </c>
+      <c r="F442" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="443" spans="1:7">
+      <c r="A443" s="1">
+        <v>4</v>
+      </c>
+      <c r="B443" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C443" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="D443" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E443" s="1">
+        <v>3</v>
+      </c>
+      <c r="F443" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="444" spans="1:7">
+      <c r="A444" s="1">
+        <v>4</v>
+      </c>
+      <c r="B444" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C444" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D444" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E444" s="1">
+        <v>4</v>
+      </c>
+      <c r="F444" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="445" spans="1:7">
+      <c r="A445" s="1">
+        <v>4</v>
+      </c>
+      <c r="B445" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C445" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="D445" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E445" s="1">
+        <v>4</v>
+      </c>
+      <c r="F445" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="446" spans="1:7">
+      <c r="A446" s="1">
+        <v>4</v>
+      </c>
+      <c r="B446" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C446" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D446" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E446" s="1">
+        <v>1</v>
+      </c>
+      <c r="F446" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G446" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="447" spans="1:7">
+      <c r="A447" s="1">
+        <v>4</v>
+      </c>
+      <c r="B447" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C447" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="D447" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E447" s="1">
+        <v>1</v>
+      </c>
+      <c r="F447" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G447" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="448" spans="1:7">
+      <c r="A448" s="1">
+        <v>4</v>
+      </c>
+      <c r="B448" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C448" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D448" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E448" s="1">
+        <v>2</v>
+      </c>
+      <c r="F448" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="449" spans="1:7">
+      <c r="A449" s="1">
+        <v>4</v>
+      </c>
+      <c r="B449" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C449" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="D449" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E449" s="1">
+        <v>2</v>
+      </c>
+      <c r="F449" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="450" spans="1:7">
+      <c r="A450" s="1">
+        <v>4</v>
+      </c>
+      <c r="B450" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C450" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D450" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E450" s="1">
+        <v>3</v>
+      </c>
+      <c r="F450" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="451" spans="1:7">
+      <c r="A451" s="1">
+        <v>4</v>
+      </c>
+      <c r="B451" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C451" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="D451" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E451" s="1">
+        <v>3</v>
+      </c>
+      <c r="F451" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="452" spans="1:7">
+      <c r="A452" s="1">
+        <v>4</v>
+      </c>
+      <c r="B452" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C452" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D452" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E452" s="1">
+        <v>1</v>
+      </c>
+      <c r="F452" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G452" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="453" spans="1:7">
+      <c r="A453" s="1">
+        <v>4</v>
+      </c>
+      <c r="B453" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C453" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="D453" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E453" s="1">
+        <v>1</v>
+      </c>
+      <c r="F453" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G453" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="454" spans="1:7">
+      <c r="A454" s="1">
+        <v>4</v>
+      </c>
+      <c r="B454" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C454" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D454" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E454" s="1">
+        <v>2</v>
+      </c>
+      <c r="F454" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="455" spans="1:7">
+      <c r="A455" s="1">
+        <v>4</v>
+      </c>
+      <c r="B455" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C455" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="D455" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E455" s="1">
+        <v>2</v>
+      </c>
+      <c r="F455" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="456" spans="1:7">
+      <c r="A456" s="1">
+        <v>4</v>
+      </c>
+      <c r="B456" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C456" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D456" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E456" s="1">
+        <v>3</v>
+      </c>
+      <c r="F456" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="457" spans="1:7">
+      <c r="A457" s="1">
+        <v>4</v>
+      </c>
+      <c r="B457" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C457" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="D457" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E457" s="1">
+        <v>3</v>
+      </c>
+      <c r="F457" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="458" spans="1:7">
+      <c r="A458" s="1">
+        <v>4</v>
+      </c>
+      <c r="B458" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C458" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D458" t="s">
+        <v>119</v>
+      </c>
+      <c r="E458" s="1">
+        <v>4</v>
+      </c>
+      <c r="F458" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="459" spans="1:7">
+      <c r="A459" s="1">
+        <v>4</v>
+      </c>
+      <c r="B459" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C459" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="D459" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E459" s="1">
+        <v>4</v>
+      </c>
+      <c r="F459" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="460" spans="1:7">
+      <c r="A460" s="1">
+        <v>4</v>
+      </c>
+      <c r="B460" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C460" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D460" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E460" s="1">
+        <v>5</v>
+      </c>
+      <c r="F460">
+        <v>40</v>
+      </c>
+      <c r="G460" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="461" spans="1:7">
+      <c r="A461" s="1">
+        <v>4</v>
+      </c>
+      <c r="B461" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C461" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="D461" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E461" s="1">
+        <v>5</v>
+      </c>
+      <c r="F461">
+        <v>44</v>
+      </c>
+      <c r="G461" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="462" spans="1:7">
+      <c r="A462" s="1">
+        <v>4</v>
+      </c>
+      <c r="B462" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C462" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D462" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E462" s="1">
+        <v>6</v>
+      </c>
+      <c r="F462">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="463" spans="1:7">
+      <c r="A463" s="1">
+        <v>4</v>
+      </c>
+      <c r="B463" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C463" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="D463" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E463" s="1">
+        <v>6</v>
+      </c>
+      <c r="F463">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="464" spans="1:7">
+      <c r="A464" s="1">
+        <v>4</v>
+      </c>
+      <c r="B464" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C464" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D464" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E464" s="1">
+        <v>2</v>
+      </c>
+      <c r="F464">
+        <v>16</v>
+      </c>
+      <c r="G464" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="465" spans="1:7">
+      <c r="A465" s="1">
+        <v>4</v>
+      </c>
+      <c r="B465" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C465" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="D465" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E465" s="1">
+        <v>2</v>
+      </c>
+      <c r="F465">
+        <v>3</v>
+      </c>
+      <c r="G465" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="466" spans="1:7">
+      <c r="A466" s="1">
+        <v>4</v>
+      </c>
+      <c r="B466" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C466" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D466" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E466" s="1">
+        <v>3</v>
+      </c>
+      <c r="F466">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="467" spans="1:7">
+      <c r="A467" s="1">
+        <v>4</v>
+      </c>
+      <c r="B467" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C467" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="D467" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E467" s="1">
+        <v>3</v>
+      </c>
+      <c r="F467" s="11" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="468" spans="1:7">
+      <c r="A468" s="1">
+        <v>4</v>
+      </c>
+      <c r="B468" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C468" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D468" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E468" s="1">
+        <v>4</v>
+      </c>
+      <c r="F468" s="11" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="469" spans="1:7">
+      <c r="A469" s="1">
+        <v>4</v>
+      </c>
+      <c r="B469" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C469" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="D469" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E469" s="1">
+        <v>4</v>
+      </c>
+      <c r="F469" s="11" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="470" spans="1:7">
+      <c r="A470" s="1">
+        <v>4</v>
+      </c>
+      <c r="B470" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C470" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D470" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E470" s="1">
+        <v>1</v>
+      </c>
+      <c r="F470" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="G470" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="471" spans="1:7">
+      <c r="A471" s="1">
+        <v>4</v>
+      </c>
+      <c r="B471" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C471" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="D471" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E471" s="1">
+        <v>1</v>
+      </c>
+      <c r="F471" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="G471" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="472" spans="1:7">
+      <c r="A472" s="1">
+        <v>4</v>
+      </c>
+      <c r="B472" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C472" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D472" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E472" s="1">
+        <v>2</v>
+      </c>
+      <c r="F472" s="11" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="473" spans="1:7">
+      <c r="A473" s="1">
+        <v>4</v>
+      </c>
+      <c r="B473" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C473" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="D473" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E473" s="1">
+        <v>2</v>
+      </c>
+      <c r="F473" s="11" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="474" spans="1:7">
+      <c r="A474" s="1">
+        <v>4</v>
+      </c>
+      <c r="B474" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C474" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D474" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E474" s="1">
+        <v>3</v>
+      </c>
+      <c r="F474" s="11" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="475" spans="1:7">
+      <c r="A475" s="1">
+        <v>4</v>
+      </c>
+      <c r="B475" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C475" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="D475" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E475" s="1">
+        <v>3</v>
+      </c>
+      <c r="F475" s="11" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="476" spans="1:7">
+      <c r="A476" s="1">
+        <v>4</v>
+      </c>
+      <c r="B476" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C476" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D476" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E476" s="1">
+        <v>1</v>
+      </c>
+      <c r="F476">
+        <v>1</v>
+      </c>
+      <c r="G476" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="477" spans="1:7">
+      <c r="A477" s="1">
+        <v>4</v>
+      </c>
+      <c r="B477" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C477" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="D477" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E477" s="1">
+        <v>1</v>
+      </c>
+      <c r="F477" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="G477" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="478" spans="1:7">
+      <c r="A478" s="1">
+        <v>4</v>
+      </c>
+      <c r="B478" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C478" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D478" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E478" s="1">
+        <v>2</v>
+      </c>
+      <c r="F478" s="11" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="479" spans="1:7">
+      <c r="A479" s="1">
+        <v>4</v>
+      </c>
+      <c r="B479" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C479" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="D479" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E479" s="1">
+        <v>2</v>
+      </c>
+      <c r="F479" s="11" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="480" spans="1:7">
+      <c r="A480" s="1">
+        <v>4</v>
+      </c>
+      <c r="B480" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C480" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D480" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E480" s="1">
+        <v>3</v>
+      </c>
+      <c r="F480">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="481" spans="1:7">
+      <c r="A481" s="1">
+        <v>4</v>
+      </c>
+      <c r="B481" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C481" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="D481" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E481" s="1">
+        <v>3</v>
+      </c>
+      <c r="F481">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="482" spans="1:7">
+      <c r="A482" s="1">
+        <v>4</v>
+      </c>
+      <c r="B482" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C482" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D482" t="s">
+        <v>119</v>
+      </c>
+      <c r="E482" s="1">
+        <v>4</v>
+      </c>
+      <c r="F482">
+        <v>145</v>
+      </c>
+      <c r="G482" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="483" spans="1:7">
+      <c r="A483" s="1">
+        <v>4</v>
+      </c>
+      <c r="B483" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C483" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="D483" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E483" s="1">
+        <v>4</v>
+      </c>
+      <c r="F483">
+        <v>137</v>
+      </c>
+      <c r="G483" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="484" spans="1:7">
+      <c r="A484" s="1">
+        <v>4</v>
+      </c>
+      <c r="B484" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C484" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D484" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E484" s="1">
+        <v>5</v>
+      </c>
+      <c r="F484">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="485" spans="1:7">
+      <c r="A485" s="1">
+        <v>4</v>
+      </c>
+      <c r="B485" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C485" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="D485" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E485" s="1">
+        <v>5</v>
+      </c>
+      <c r="F485">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="486" spans="1:7">
+      <c r="A486" s="1">
+        <v>4</v>
+      </c>
+      <c r="B486" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C486" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D486" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E486" s="1">
+        <v>6</v>
+      </c>
+      <c r="F486">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="487" spans="1:7">
+      <c r="A487" s="1">
+        <v>4</v>
+      </c>
+      <c r="B487" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C487" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="D487" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E487" s="1">
+        <v>6</v>
+      </c>
+      <c r="F487">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="488" spans="1:7">
+      <c r="A488" s="1">
+        <v>4</v>
+      </c>
+      <c r="B488" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C488" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D488" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E488" s="1">
+        <v>2</v>
+      </c>
+      <c r="F488" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="G488" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="489" spans="1:7">
+      <c r="A489" s="1">
+        <v>4</v>
+      </c>
+      <c r="B489" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C489" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="D489" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E489" s="1">
+        <v>2</v>
+      </c>
+      <c r="F489" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="G489" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="490" spans="1:7">
+      <c r="A490" s="1">
+        <v>4</v>
+      </c>
+      <c r="B490" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C490" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D490" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E490" s="1">
+        <v>3</v>
+      </c>
+      <c r="F490" s="11" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="491" spans="1:7">
+      <c r="A491" s="1">
+        <v>4</v>
+      </c>
+      <c r="B491" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C491" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="D491" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E491" s="1">
+        <v>3</v>
+      </c>
+      <c r="F491" s="11" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="492" spans="1:7">
+      <c r="A492" s="1">
+        <v>4</v>
+      </c>
+      <c r="B492" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C492" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D492" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E492" s="1">
+        <v>4</v>
+      </c>
+      <c r="F492" s="11" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="493" spans="1:7">
+      <c r="A493" s="1">
+        <v>4</v>
+      </c>
+      <c r="B493" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C493" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="D493" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E493" s="1">
+        <v>4</v>
+      </c>
+      <c r="F493" s="11" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="494" spans="1:7">
+      <c r="A494" s="1">
+        <v>4</v>
+      </c>
+      <c r="B494" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C494" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D494" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E494" s="1">
+        <v>1</v>
+      </c>
+      <c r="F494" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="G494" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="495" spans="1:7">
+      <c r="A495" s="1">
+        <v>4</v>
+      </c>
+      <c r="B495" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C495" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="D495" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E495" s="1">
+        <v>1</v>
+      </c>
+      <c r="F495" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="G495" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="496" spans="1:7">
+      <c r="A496" s="1">
+        <v>4</v>
+      </c>
+      <c r="B496" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C496" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D496" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E496" s="1">
+        <v>2</v>
+      </c>
+      <c r="F496" s="11" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="497" spans="1:7">
+      <c r="A497" s="1">
+        <v>4</v>
+      </c>
+      <c r="B497" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C497" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="D497" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E497" s="1">
+        <v>2</v>
+      </c>
+      <c r="F497" s="11" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="498" spans="1:7">
+      <c r="A498" s="1">
+        <v>4</v>
+      </c>
+      <c r="B498" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C498" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D498" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E498" s="1">
+        <v>3</v>
+      </c>
+      <c r="F498" s="11" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="499" spans="1:7">
+      <c r="A499" s="1">
+        <v>4</v>
+      </c>
+      <c r="B499" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C499" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="D499" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E499" s="1">
+        <v>3</v>
+      </c>
+      <c r="F499" s="11" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="500" spans="1:7">
+      <c r="A500" s="1">
+        <v>4</v>
+      </c>
+      <c r="B500" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C500" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D500" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E500" s="1">
+        <v>1</v>
+      </c>
+      <c r="F500" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="G500" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="501" spans="1:7">
+      <c r="A501" s="1">
+        <v>4</v>
+      </c>
+      <c r="B501" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C501" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="D501" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E501" s="1">
+        <v>1</v>
+      </c>
+      <c r="F501" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="G501" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="502" spans="1:7">
+      <c r="A502" s="1">
+        <v>4</v>
+      </c>
+      <c r="B502" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C502" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D502" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E502" s="1">
+        <v>2</v>
+      </c>
+      <c r="F502" s="11" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="503" spans="1:7">
+      <c r="A503" s="1">
+        <v>4</v>
+      </c>
+      <c r="B503" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C503" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="D503" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E503" s="1">
+        <v>2</v>
+      </c>
+      <c r="F503" s="11" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="504" spans="1:7">
+      <c r="A504" s="1">
+        <v>4</v>
+      </c>
+      <c r="B504" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C504" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D504" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E504" s="1">
+        <v>3</v>
+      </c>
+      <c r="F504" s="11" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="505" spans="1:7">
+      <c r="A505" s="1">
+        <v>4</v>
+      </c>
+      <c r="B505" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C505" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="D505" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E505" s="1">
+        <v>3</v>
+      </c>
+      <c r="F505" s="11" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="506" spans="1:7">
+      <c r="A506" s="10">
+        <v>4</v>
+      </c>
+      <c r="B506" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="C506" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="D506" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="E506" s="10">
+        <v>5</v>
+      </c>
+      <c r="F506" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="G506" s="10"/>
+    </row>
+    <row r="507" spans="1:7">
+      <c r="A507" s="1">
+        <v>4</v>
+      </c>
+      <c r="B507" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C507" t="s">
+        <v>107</v>
+      </c>
+      <c r="D507" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E507" s="1">
+        <v>5</v>
+      </c>
+      <c r="F507" s="11" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="508" spans="1:7">
+      <c r="A508" s="1">
+        <v>4</v>
+      </c>
+      <c r="B508" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C508" t="s">
+        <v>107</v>
+      </c>
+      <c r="D508" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E508" s="1">
+        <v>6</v>
+      </c>
+      <c r="F508">
+        <v>141</v>
+      </c>
+      <c r="G508" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="509" spans="1:7">
+      <c r="A509" s="1">
+        <v>4</v>
+      </c>
+      <c r="B509" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C509" t="s">
+        <v>107</v>
+      </c>
+      <c r="D509" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E509" s="1">
+        <v>6</v>
+      </c>
+      <c r="F509">
+        <v>155</v>
+      </c>
+      <c r="G509" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="510" spans="1:7">
+      <c r="A510" s="1">
+        <v>4</v>
+      </c>
+      <c r="B510" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C510" t="s">
+        <v>107</v>
+      </c>
+      <c r="D510" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E510" s="1">
+        <v>7</v>
+      </c>
+      <c r="F510">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="511" spans="1:7">
+      <c r="A511" s="1">
+        <v>4</v>
+      </c>
+      <c r="B511" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C511" t="s">
+        <v>107</v>
+      </c>
+      <c r="D511" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E511" s="1">
+        <v>7</v>
+      </c>
+      <c r="F511">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="512" spans="1:7">
+      <c r="A512" s="1">
+        <v>4</v>
+      </c>
+      <c r="B512" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C512" t="s">
+        <v>107</v>
+      </c>
+      <c r="D512" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E512" s="1">
+        <v>4</v>
+      </c>
+      <c r="F512">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="513" spans="1:7">
+      <c r="A513" s="1">
+        <v>4</v>
+      </c>
+      <c r="B513" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C513" t="s">
+        <v>107</v>
+      </c>
+      <c r="D513" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E513" s="1">
+        <v>4</v>
+      </c>
+      <c r="F513" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="514" spans="1:7">
+      <c r="A514" s="1">
+        <v>4</v>
+      </c>
+      <c r="B514" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C514" t="s">
+        <v>107</v>
+      </c>
+      <c r="D514" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E514" s="1">
+        <v>5</v>
+      </c>
+      <c r="F514">
+        <v>29</v>
+      </c>
+      <c r="G514" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="515" spans="1:7">
+      <c r="A515" s="1">
+        <v>4</v>
+      </c>
+      <c r="B515" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C515" t="s">
+        <v>107</v>
+      </c>
+      <c r="D515" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E515" s="1">
+        <v>5</v>
+      </c>
+      <c r="F515">
+        <v>12</v>
+      </c>
+      <c r="G515" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="516" spans="1:7">
+      <c r="A516" s="1">
+        <v>4</v>
+      </c>
+      <c r="B516" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C516" t="s">
+        <v>107</v>
+      </c>
+      <c r="D516" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E516" s="1">
+        <v>6</v>
+      </c>
+      <c r="F516">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="517" spans="1:7">
+      <c r="A517" s="1">
+        <v>4</v>
+      </c>
+      <c r="B517" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C517" t="s">
+        <v>107</v>
+      </c>
+      <c r="D517" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E517" s="1">
+        <v>6</v>
+      </c>
+      <c r="F517" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="518" spans="1:7">
+      <c r="A518" s="1">
+        <v>4</v>
+      </c>
+      <c r="B518" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C518" t="s">
+        <v>107</v>
+      </c>
+      <c r="D518" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E518" s="1">
+        <v>4</v>
+      </c>
+      <c r="F518" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G518" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="519" spans="1:7">
+      <c r="A519" s="1">
+        <v>4</v>
+      </c>
+      <c r="B519" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C519" t="s">
+        <v>107</v>
+      </c>
+      <c r="D519" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E519" s="1">
+        <v>4</v>
+      </c>
+      <c r="F519" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G519" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="520" spans="1:7">
+      <c r="A520" s="1">
+        <v>4</v>
+      </c>
+      <c r="B520" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C520" t="s">
+        <v>107</v>
+      </c>
+      <c r="D520" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E520" s="1">
+        <v>5</v>
+      </c>
+      <c r="F520" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="521" spans="1:7">
+      <c r="A521" s="1">
+        <v>4</v>
+      </c>
+      <c r="B521" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C521" t="s">
+        <v>107</v>
+      </c>
+      <c r="D521" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E521" s="1">
+        <v>5</v>
+      </c>
+      <c r="F521" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="522" spans="1:7">
+      <c r="A522" s="1">
+        <v>4</v>
+      </c>
+      <c r="B522" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C522" t="s">
+        <v>107</v>
+      </c>
+      <c r="D522" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E522" s="1">
+        <v>4</v>
+      </c>
+      <c r="F522" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="G522" s="1"/>
+    </row>
+    <row r="523" spans="1:7">
+      <c r="A523" s="1">
+        <v>4</v>
+      </c>
+      <c r="B523" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C523" t="s">
+        <v>107</v>
+      </c>
+      <c r="D523" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E523" s="1">
+        <v>4</v>
+      </c>
+      <c r="F523" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="G523" s="1"/>
+    </row>
+    <row r="524" spans="1:7">
+      <c r="A524" s="1">
+        <v>4</v>
+      </c>
+      <c r="B524" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C524" t="s">
+        <v>107</v>
+      </c>
+      <c r="D524" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E524" s="1">
+        <v>5</v>
+      </c>
+      <c r="F524">
+        <v>1</v>
+      </c>
+      <c r="G524" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="525" spans="1:7">
+      <c r="A525" s="1">
+        <v>4</v>
+      </c>
+      <c r="B525" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C525" t="s">
+        <v>107</v>
+      </c>
+      <c r="D525" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E525" s="1">
+        <v>5</v>
+      </c>
+      <c r="F525">
+        <v>3</v>
+      </c>
+      <c r="G525" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="526" spans="1:7">
+      <c r="A526" s="1">
+        <v>4</v>
+      </c>
+      <c r="B526" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C526" t="s">
+        <v>108</v>
+      </c>
+      <c r="D526" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="E526" s="1">
+        <v>5</v>
+      </c>
+      <c r="F526" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="527" spans="1:7">
+      <c r="A527" s="1">
+        <v>4</v>
+      </c>
+      <c r="B527" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C527" t="s">
+        <v>108</v>
+      </c>
+      <c r="D527" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E527" s="1">
+        <v>5</v>
+      </c>
+      <c r="F527" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="528" spans="1:7">
+      <c r="A528" s="1">
+        <v>4</v>
+      </c>
+      <c r="B528" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C528" t="s">
+        <v>108</v>
+      </c>
+      <c r="D528" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E528" s="1">
+        <v>6</v>
+      </c>
+      <c r="F528">
+        <v>230</v>
+      </c>
+      <c r="G528" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="529" spans="1:7">
+      <c r="A529" s="1">
+        <v>4</v>
+      </c>
+      <c r="B529" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C529" t="s">
+        <v>108</v>
+      </c>
+      <c r="D529" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E529" s="1">
+        <v>6</v>
+      </c>
+      <c r="F529">
+        <v>268</v>
+      </c>
+      <c r="G529" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="530" spans="1:7">
+      <c r="A530" s="1">
+        <v>4</v>
+      </c>
+      <c r="B530" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C530" t="s">
+        <v>108</v>
+      </c>
+      <c r="D530" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E530" s="1">
+        <v>7</v>
+      </c>
+      <c r="F530">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="531" spans="1:7">
+      <c r="A531" s="1">
+        <v>4</v>
+      </c>
+      <c r="B531" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C531" t="s">
+        <v>108</v>
+      </c>
+      <c r="D531" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E531" s="1">
+        <v>7</v>
+      </c>
+      <c r="F531">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="532" spans="1:7">
+      <c r="A532" s="1">
+        <v>4</v>
+      </c>
+      <c r="B532" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C532" t="s">
+        <v>108</v>
+      </c>
+      <c r="D532" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E532" s="1">
+        <v>4</v>
+      </c>
+      <c r="F532">
+        <v>268</v>
+      </c>
+      <c r="G532" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="533" spans="1:7">
+      <c r="A533" s="1">
+        <v>4</v>
+      </c>
+      <c r="B533" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C533" t="s">
+        <v>108</v>
+      </c>
+      <c r="D533" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E533" s="1">
+        <v>4</v>
+      </c>
+      <c r="F533">
+        <v>300</v>
+      </c>
+      <c r="G533" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="534" spans="1:7">
+      <c r="A534" s="1">
+        <v>4</v>
+      </c>
+      <c r="B534" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C534" t="s">
+        <v>108</v>
+      </c>
+      <c r="D534" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E534" s="1">
+        <v>5</v>
+      </c>
+      <c r="F534">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="535" spans="1:7">
+      <c r="A535" s="1">
+        <v>4</v>
+      </c>
+      <c r="B535" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C535" t="s">
+        <v>108</v>
+      </c>
+      <c r="D535" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E535" s="1">
+        <v>5</v>
+      </c>
+      <c r="F535">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="536" spans="1:7">
+      <c r="A536" s="1">
+        <v>4</v>
+      </c>
+      <c r="B536" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C536" t="s">
+        <v>108</v>
+      </c>
+      <c r="D536" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E536" s="1">
+        <v>6</v>
+      </c>
+      <c r="F536">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="537" spans="1:7">
+      <c r="A537" s="1">
+        <v>4</v>
+      </c>
+      <c r="B537" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C537" t="s">
+        <v>108</v>
+      </c>
+      <c r="D537" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E537" s="1">
+        <v>6</v>
+      </c>
+      <c r="F537">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="538" spans="1:7">
+      <c r="A538" s="1">
+        <v>4</v>
+      </c>
+      <c r="B538" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C538" t="s">
+        <v>108</v>
+      </c>
+      <c r="D538" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E538" s="1">
+        <v>4</v>
+      </c>
+      <c r="F538">
+        <v>7</v>
+      </c>
+      <c r="G538" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="539" spans="1:7">
+      <c r="A539" s="1">
+        <v>4</v>
+      </c>
+      <c r="B539" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C539" t="s">
+        <v>108</v>
+      </c>
+      <c r="D539" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E539" s="1">
+        <v>4</v>
+      </c>
+      <c r="F539">
+        <v>8</v>
+      </c>
+      <c r="G539" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="540" spans="1:7">
+      <c r="A540" s="1">
+        <v>4</v>
+      </c>
+      <c r="B540" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C540" t="s">
+        <v>108</v>
+      </c>
+      <c r="D540" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E540" s="1">
+        <v>5</v>
+      </c>
+      <c r="F540">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="541" spans="1:7">
+      <c r="A541" s="1">
+        <v>4</v>
+      </c>
+      <c r="B541" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C541" t="s">
+        <v>108</v>
+      </c>
+      <c r="D541" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E541" s="1">
+        <v>5</v>
+      </c>
+      <c r="F541">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="542" spans="1:7">
+      <c r="A542" s="1">
+        <v>4</v>
+      </c>
+      <c r="B542" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C542" t="s">
+        <v>108</v>
+      </c>
+      <c r="D542" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E542" s="1">
+        <v>4</v>
+      </c>
+      <c r="F542" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="543" spans="1:7">
+      <c r="A543" s="1">
+        <v>4</v>
+      </c>
+      <c r="B543" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C543" t="s">
+        <v>108</v>
+      </c>
+      <c r="D543" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E543" s="1">
+        <v>4</v>
+      </c>
+      <c r="F543" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="544" spans="1:7">
+      <c r="A544" s="1">
+        <v>4</v>
+      </c>
+      <c r="B544" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C544" t="s">
+        <v>108</v>
+      </c>
+      <c r="D544" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E544" s="1">
+        <v>5</v>
+      </c>
+      <c r="F544">
+        <v>1</v>
+      </c>
+      <c r="G544" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="545" spans="1:7">
+      <c r="A545" s="1">
+        <v>4</v>
+      </c>
+      <c r="B545" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C545" t="s">
+        <v>108</v>
+      </c>
+      <c r="D545" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E545" s="1">
+        <v>5</v>
+      </c>
+      <c r="F545" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G545" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="546" spans="1:7">
+      <c r="A546" s="1">
+        <v>4</v>
+      </c>
+      <c r="B546" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C546" t="s">
+        <v>109</v>
+      </c>
+      <c r="D546" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="E546" s="1">
+        <v>5</v>
+      </c>
+      <c r="F546">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="547" spans="1:7">
+      <c r="A547" s="1">
+        <v>4</v>
+      </c>
+      <c r="B547" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C547" t="s">
+        <v>109</v>
+      </c>
+      <c r="D547" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E547" s="1">
+        <v>5</v>
+      </c>
+      <c r="F547" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="548" spans="1:7">
+      <c r="A548" s="1">
+        <v>4</v>
+      </c>
+      <c r="B548" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C548" t="s">
+        <v>109</v>
+      </c>
+      <c r="D548" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E548" s="1">
+        <v>6</v>
+      </c>
+      <c r="F548">
+        <v>107</v>
+      </c>
+      <c r="G548" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="549" spans="1:7">
+      <c r="A549" s="1">
+        <v>4</v>
+      </c>
+      <c r="B549" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C549" t="s">
+        <v>109</v>
+      </c>
+      <c r="D549" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E549" s="1">
+        <v>6</v>
+      </c>
+      <c r="F549" s="1">
+        <v>120</v>
+      </c>
+      <c r="G549" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="550" spans="1:7">
+      <c r="A550" s="1">
+        <v>4</v>
+      </c>
+      <c r="B550" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C550" t="s">
+        <v>109</v>
+      </c>
+      <c r="D550" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E550" s="1">
+        <v>7</v>
+      </c>
+      <c r="F550">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="551" spans="1:7">
+      <c r="A551" s="1">
+        <v>4</v>
+      </c>
+      <c r="B551" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C551" t="s">
+        <v>109</v>
+      </c>
+      <c r="D551" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E551" s="1">
+        <v>7</v>
+      </c>
+      <c r="F551" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="552" spans="1:7">
+      <c r="A552" s="1">
+        <v>4</v>
+      </c>
+      <c r="B552" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C552" t="s">
+        <v>109</v>
+      </c>
+      <c r="D552" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E552" s="1">
+        <v>4</v>
+      </c>
+      <c r="F552">
+        <v>1</v>
+      </c>
+      <c r="G552" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="553" spans="1:7">
+      <c r="A553" s="1">
+        <v>4</v>
+      </c>
+      <c r="B553" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C553" t="s">
+        <v>109</v>
+      </c>
+      <c r="D553" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E553" s="1">
+        <v>4</v>
+      </c>
+      <c r="F553" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G553" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="554" spans="1:7">
+      <c r="A554" s="1">
+        <v>4</v>
+      </c>
+      <c r="B554" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C554" t="s">
+        <v>109</v>
+      </c>
+      <c r="D554" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E554" s="1">
+        <v>5</v>
+      </c>
+      <c r="F554" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="555" spans="1:7">
+      <c r="A555" s="1">
+        <v>4</v>
+      </c>
+      <c r="B555" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C555" t="s">
+        <v>109</v>
+      </c>
+      <c r="D555" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E555" s="1">
+        <v>5</v>
+      </c>
+      <c r="F555" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="556" spans="1:7">
+      <c r="A556" s="1">
+        <v>4</v>
+      </c>
+      <c r="B556" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C556" t="s">
+        <v>109</v>
+      </c>
+      <c r="D556" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E556" s="1">
+        <v>6</v>
+      </c>
+      <c r="F556" s="11" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="557" spans="1:7">
+      <c r="A557" s="1">
+        <v>4</v>
+      </c>
+      <c r="B557" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C557" t="s">
+        <v>109</v>
+      </c>
+      <c r="D557" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E557" s="1">
+        <v>6</v>
+      </c>
+      <c r="F557" s="11" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="558" spans="1:7">
+      <c r="A558" s="1">
+        <v>4</v>
+      </c>
+      <c r="B558" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C558" t="s">
+        <v>109</v>
+      </c>
+      <c r="D558" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E558" s="1">
+        <v>4</v>
+      </c>
+      <c r="F558" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="G558" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="559" spans="1:7">
+      <c r="A559" s="1">
+        <v>4</v>
+      </c>
+      <c r="B559" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C559" t="s">
+        <v>109</v>
+      </c>
+      <c r="D559" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E559" s="1">
+        <v>4</v>
+      </c>
+      <c r="F559" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="G559" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="560" spans="1:7">
+      <c r="A560" s="1">
+        <v>4</v>
+      </c>
+      <c r="B560" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C560" t="s">
+        <v>109</v>
+      </c>
+      <c r="D560" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E560" s="1">
+        <v>5</v>
+      </c>
+      <c r="F560" s="11" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="561" spans="1:7">
+      <c r="A561" s="1">
+        <v>4</v>
+      </c>
+      <c r="B561" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C561" t="s">
+        <v>109</v>
+      </c>
+      <c r="D561" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E561" s="1">
+        <v>5</v>
+      </c>
+      <c r="F561" s="11" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="562" spans="1:7">
+      <c r="A562" s="1">
+        <v>4</v>
+      </c>
+      <c r="B562" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C562" t="s">
+        <v>109</v>
+      </c>
+      <c r="D562" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E562" s="1">
+        <v>4</v>
+      </c>
+      <c r="F562">
+        <v>1</v>
+      </c>
+      <c r="G562" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="563" spans="1:7">
+      <c r="A563" s="1">
+        <v>4</v>
+      </c>
+      <c r="B563" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C563" t="s">
+        <v>109</v>
+      </c>
+      <c r="D563" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E563" s="1">
+        <v>4</v>
+      </c>
+      <c r="F563" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="G563" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="564" spans="1:7">
+      <c r="A564" s="1">
+        <v>4</v>
+      </c>
+      <c r="B564" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C564" t="s">
+        <v>109</v>
+      </c>
+      <c r="D564" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E564" s="1">
+        <v>5</v>
+      </c>
+      <c r="F564" s="11" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="565" spans="1:7">
+      <c r="A565" s="1">
+        <v>4</v>
+      </c>
+      <c r="B565" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C565" t="s">
+        <v>109</v>
+      </c>
+      <c r="D565" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E565" s="1">
+        <v>5</v>
+      </c>
+      <c r="F565" s="11" t="s">
+        <v>126</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -5991,15 +15005,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFF7DF32-DC72-D048-BCBE-777A215F4A8A}">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="131" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" zoomScale="131" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>54</v>
       </c>
@@ -6030,8 +15044,11 @@
       <c r="J1" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2">
         <v>1</v>
       </c>
@@ -6047,8 +15064,26 @@
       <c r="E2">
         <v>240</v>
       </c>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="F2">
+        <v>77.3</v>
+      </c>
+      <c r="G2">
+        <v>78.7</v>
+      </c>
+      <c r="H2">
+        <v>85.2</v>
+      </c>
+      <c r="I2">
+        <v>87.1</v>
+      </c>
+      <c r="J2">
+        <v>99.7</v>
+      </c>
+      <c r="K2" s="1">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3">
         <v>1</v>
       </c>
@@ -6064,8 +15099,26 @@
       <c r="E3">
         <v>150</v>
       </c>
-    </row>
-    <row r="4" spans="1:10">
+      <c r="F3">
+        <v>77.3</v>
+      </c>
+      <c r="G3">
+        <v>78.7</v>
+      </c>
+      <c r="H3">
+        <v>85.2</v>
+      </c>
+      <c r="I3">
+        <v>87.1</v>
+      </c>
+      <c r="J3">
+        <v>99.7</v>
+      </c>
+      <c r="K3" s="1">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4">
         <v>1</v>
       </c>
@@ -6081,8 +15134,26 @@
       <c r="E4">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="1:10">
+      <c r="F4">
+        <v>77.3</v>
+      </c>
+      <c r="G4">
+        <v>78.7</v>
+      </c>
+      <c r="H4">
+        <v>85.2</v>
+      </c>
+      <c r="I4">
+        <v>87.1</v>
+      </c>
+      <c r="J4">
+        <v>99.7</v>
+      </c>
+      <c r="K4" s="1">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5">
         <v>2</v>
       </c>
@@ -6113,8 +15184,11 @@
       <c r="J5" s="1">
         <v>102.1</v>
       </c>
-    </row>
-    <row r="6" spans="1:10">
+      <c r="K5" s="1">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6">
         <v>2</v>
       </c>
@@ -6145,8 +15219,11 @@
       <c r="J6" s="1">
         <v>102.1</v>
       </c>
-    </row>
-    <row r="7" spans="1:10">
+      <c r="K6" s="1">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7">
         <v>2</v>
       </c>
@@ -6177,8 +15254,11 @@
       <c r="J7" s="1">
         <v>102.1</v>
       </c>
-    </row>
-    <row r="8" spans="1:10">
+      <c r="K7" s="1">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8">
         <v>3</v>
       </c>
@@ -6209,8 +15289,11 @@
       <c r="J8" s="1">
         <v>107</v>
       </c>
-    </row>
-    <row r="9" spans="1:10">
+      <c r="K8" s="1">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9">
         <v>3</v>
       </c>
@@ -6241,8 +15324,11 @@
       <c r="J9" s="1">
         <v>107</v>
       </c>
-    </row>
-    <row r="10" spans="1:10">
+      <c r="K9" s="1">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10">
         <v>3</v>
       </c>
@@ -6273,8 +15359,11 @@
       <c r="J10" s="1">
         <v>107</v>
       </c>
-    </row>
-    <row r="11" spans="1:10">
+      <c r="K10" s="1">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11">
         <v>4</v>
       </c>
@@ -6305,8 +15394,11 @@
       <c r="J11" s="1">
         <v>106.5</v>
       </c>
-    </row>
-    <row r="12" spans="1:10">
+      <c r="K11" s="1">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12">
         <v>4</v>
       </c>
@@ -6337,8 +15429,11 @@
       <c r="J12" s="1">
         <v>106.5</v>
       </c>
-    </row>
-    <row r="13" spans="1:10">
+      <c r="K12" s="1">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13">
         <v>4</v>
       </c>
@@ -6368,6 +15463,9 @@
       </c>
       <c r="J13" s="1">
         <v>106.5</v>
+      </c>
+      <c r="K13" s="1">
+        <v>8.0000000000000002E-3</v>
       </c>
     </row>
   </sheetData>

--- a/data_raw/input.xlsx
+++ b/data_raw/input.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10118"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nobuakiohsumi/Lec_handson/wtrwks_rpt/data_raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{759F2D7E-1EE4-A341-B698-027AE1E4291E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{677179F9-1A2A-F24E-800E-7C35E1178121}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16420" activeTab="2" xr2:uid="{11D640DA-DCFB-E544-8ADF-BF4092E26F00}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="14260" windowHeight="16420" firstSheet="3" activeTab="3" xr2:uid="{11D640DA-DCFB-E544-8ADF-BF4092E26F00}"/>
   </bookViews>
   <sheets>
     <sheet name="colony" sheetId="3" r:id="rId1"/>
@@ -21,8 +21,10 @@
     <sheet name="ozone_calib" sheetId="1" r:id="rId6"/>
     <sheet name="ozone" sheetId="2" r:id="rId7"/>
     <sheet name="manometer" sheetId="6" r:id="rId8"/>
-    <sheet name="abs_calib" sheetId="7" r:id="rId9"/>
-    <sheet name="abs" sheetId="8" r:id="rId10"/>
+    <sheet name="filt_prtcl" sheetId="11" r:id="rId9"/>
+    <sheet name="filt_turb" sheetId="12" r:id="rId10"/>
+    <sheet name="abs_calib" sheetId="7" r:id="rId11"/>
+    <sheet name="abs" sheetId="8" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2495" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2641" uniqueCount="153">
   <si>
     <t>班</t>
   </si>
@@ -727,6 +729,122 @@
     <t>abs</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>濾材</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ロザイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>指定砂</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">シテイ </t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t xml:space="preserve">スナ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>指定砂</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">シテイ </t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t xml:space="preserve">スナ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>目の開き_mm</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">メ </t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t xml:space="preserve">ヒラキ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アンスラサイト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>皿の重さ</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">サラノオモサ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>weight</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>time</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>試料</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">シリョウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>種類</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">シュルイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>原水</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ゲンスイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>原水</t>
+    <rPh sb="0" eb="1">
+      <t>ゲンス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カオリン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>turb</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>三四郎</t>
+    <rPh sb="0" eb="3">
+      <t xml:space="preserve">サンシロウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>濾過水</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ロカ </t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t xml:space="preserve">ミズ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>濾過水</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">ロカミズ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -13203,6 +13321,1214 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A20393C-860C-A34C-82FF-9C1D262424FB}">
+  <dimension ref="A1:D61"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>15.491</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>15.151999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>146</v>
+      </c>
+      <c r="B4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>14.997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B5" t="s">
+        <v>148</v>
+      </c>
+      <c r="C5">
+        <v>30</v>
+      </c>
+      <c r="D5">
+        <v>26.614999999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>146</v>
+      </c>
+      <c r="B6" t="s">
+        <v>148</v>
+      </c>
+      <c r="C6">
+        <v>30</v>
+      </c>
+      <c r="D6">
+        <v>26.312000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>147</v>
+      </c>
+      <c r="B7" t="s">
+        <v>148</v>
+      </c>
+      <c r="C7">
+        <v>30</v>
+      </c>
+      <c r="D7">
+        <v>26.167000000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>146</v>
+      </c>
+      <c r="B8" t="s">
+        <v>148</v>
+      </c>
+      <c r="C8">
+        <v>60</v>
+      </c>
+      <c r="D8">
+        <v>23.044</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>147</v>
+      </c>
+      <c r="B9" t="s">
+        <v>148</v>
+      </c>
+      <c r="C9">
+        <v>60</v>
+      </c>
+      <c r="D9">
+        <v>22.905999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>146</v>
+      </c>
+      <c r="B10" t="s">
+        <v>148</v>
+      </c>
+      <c r="C10">
+        <v>60</v>
+      </c>
+      <c r="D10">
+        <v>22.893000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>147</v>
+      </c>
+      <c r="B11" t="s">
+        <v>148</v>
+      </c>
+      <c r="C11">
+        <v>90</v>
+      </c>
+      <c r="D11">
+        <v>23.91</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>146</v>
+      </c>
+      <c r="B12" t="s">
+        <v>148</v>
+      </c>
+      <c r="C12">
+        <v>90</v>
+      </c>
+      <c r="D12">
+        <v>23.603000000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>147</v>
+      </c>
+      <c r="B13" t="s">
+        <v>148</v>
+      </c>
+      <c r="C13">
+        <v>90</v>
+      </c>
+      <c r="D13">
+        <v>23.637</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>146</v>
+      </c>
+      <c r="B14" t="s">
+        <v>148</v>
+      </c>
+      <c r="C14">
+        <v>120</v>
+      </c>
+      <c r="D14">
+        <v>19.902999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>147</v>
+      </c>
+      <c r="B15" t="s">
+        <v>148</v>
+      </c>
+      <c r="C15">
+        <v>120</v>
+      </c>
+      <c r="D15">
+        <v>19.757000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>146</v>
+      </c>
+      <c r="B16" t="s">
+        <v>148</v>
+      </c>
+      <c r="C16">
+        <v>120</v>
+      </c>
+      <c r="D16">
+        <v>19.440999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>147</v>
+      </c>
+      <c r="B17" t="s">
+        <v>150</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>7.0030000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>146</v>
+      </c>
+      <c r="B18" t="s">
+        <v>150</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>7.0529999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>147</v>
+      </c>
+      <c r="B19" t="s">
+        <v>150</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>7.0170000000000003</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>146</v>
+      </c>
+      <c r="B20" t="s">
+        <v>150</v>
+      </c>
+      <c r="C20">
+        <v>30</v>
+      </c>
+      <c r="D20">
+        <v>10.946</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>147</v>
+      </c>
+      <c r="B21" t="s">
+        <v>150</v>
+      </c>
+      <c r="C21">
+        <v>30</v>
+      </c>
+      <c r="D21">
+        <v>10.834</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>146</v>
+      </c>
+      <c r="B22" t="s">
+        <v>150</v>
+      </c>
+      <c r="C22">
+        <v>30</v>
+      </c>
+      <c r="D22">
+        <v>10.945</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>147</v>
+      </c>
+      <c r="B23" t="s">
+        <v>150</v>
+      </c>
+      <c r="C23">
+        <v>60</v>
+      </c>
+      <c r="D23">
+        <v>12.762</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>146</v>
+      </c>
+      <c r="B24" t="s">
+        <v>150</v>
+      </c>
+      <c r="C24">
+        <v>60</v>
+      </c>
+      <c r="D24">
+        <v>12.624000000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>147</v>
+      </c>
+      <c r="B25" t="s">
+        <v>150</v>
+      </c>
+      <c r="C25">
+        <v>60</v>
+      </c>
+      <c r="D25">
+        <v>12.714</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>146</v>
+      </c>
+      <c r="B26" t="s">
+        <v>150</v>
+      </c>
+      <c r="C26">
+        <v>90</v>
+      </c>
+      <c r="D26">
+        <v>17.904</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>147</v>
+      </c>
+      <c r="B27" t="s">
+        <v>150</v>
+      </c>
+      <c r="C27">
+        <v>90</v>
+      </c>
+      <c r="D27">
+        <v>16.434999999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>147</v>
+      </c>
+      <c r="B28" t="s">
+        <v>150</v>
+      </c>
+      <c r="C28">
+        <v>90</v>
+      </c>
+      <c r="D28">
+        <v>15.587999999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>151</v>
+      </c>
+      <c r="B29" t="s">
+        <v>56</v>
+      </c>
+      <c r="C29">
+        <v>30</v>
+      </c>
+      <c r="D29">
+        <v>8.3000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>152</v>
+      </c>
+      <c r="B30" t="s">
+        <v>56</v>
+      </c>
+      <c r="C30">
+        <v>30</v>
+      </c>
+      <c r="D30">
+        <v>8.3000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>151</v>
+      </c>
+      <c r="B31" t="s">
+        <v>56</v>
+      </c>
+      <c r="C31">
+        <v>30</v>
+      </c>
+      <c r="D31">
+        <v>8.3000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>152</v>
+      </c>
+      <c r="B32" t="s">
+        <v>56</v>
+      </c>
+      <c r="C32">
+        <v>60</v>
+      </c>
+      <c r="D32">
+        <v>0.35799999999999998</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>151</v>
+      </c>
+      <c r="B33" t="s">
+        <v>56</v>
+      </c>
+      <c r="C33">
+        <v>60</v>
+      </c>
+      <c r="D33">
+        <v>0.34300000000000003</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>152</v>
+      </c>
+      <c r="B34" t="s">
+        <v>56</v>
+      </c>
+      <c r="C34">
+        <v>60</v>
+      </c>
+      <c r="D34">
+        <v>0.35799999999999998</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>151</v>
+      </c>
+      <c r="B35" t="s">
+        <v>56</v>
+      </c>
+      <c r="C35">
+        <v>90</v>
+      </c>
+      <c r="D35">
+        <v>0.38200000000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>152</v>
+      </c>
+      <c r="B36" t="s">
+        <v>56</v>
+      </c>
+      <c r="C36">
+        <v>90</v>
+      </c>
+      <c r="D36">
+        <v>0.373</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
+        <v>151</v>
+      </c>
+      <c r="B37" t="s">
+        <v>56</v>
+      </c>
+      <c r="C37">
+        <v>90</v>
+      </c>
+      <c r="D37">
+        <v>0.40200000000000002</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>152</v>
+      </c>
+      <c r="B38" t="s">
+        <v>67</v>
+      </c>
+      <c r="C38">
+        <v>30</v>
+      </c>
+      <c r="D38">
+        <v>0.17599999999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
+        <v>151</v>
+      </c>
+      <c r="B39" t="s">
+        <v>67</v>
+      </c>
+      <c r="C39">
+        <v>30</v>
+      </c>
+      <c r="D39">
+        <v>0.17899999999999999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
+        <v>152</v>
+      </c>
+      <c r="B40" t="s">
+        <v>67</v>
+      </c>
+      <c r="C40">
+        <v>30</v>
+      </c>
+      <c r="D40">
+        <v>0.17299999999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
+        <v>151</v>
+      </c>
+      <c r="B41" t="s">
+        <v>67</v>
+      </c>
+      <c r="C41">
+        <v>60</v>
+      </c>
+      <c r="D41">
+        <v>0.48099999999999998</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" t="s">
+        <v>152</v>
+      </c>
+      <c r="B42" t="s">
+        <v>67</v>
+      </c>
+      <c r="C42">
+        <v>60</v>
+      </c>
+      <c r="D42">
+        <v>0.48699999999999999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" t="s">
+        <v>151</v>
+      </c>
+      <c r="B43" t="s">
+        <v>67</v>
+      </c>
+      <c r="C43">
+        <v>60</v>
+      </c>
+      <c r="D43">
+        <v>0.48099999999999998</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" t="s">
+        <v>152</v>
+      </c>
+      <c r="B44" t="s">
+        <v>67</v>
+      </c>
+      <c r="C44">
+        <v>90</v>
+      </c>
+      <c r="D44">
+        <v>0.251</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" t="s">
+        <v>151</v>
+      </c>
+      <c r="B45" t="s">
+        <v>67</v>
+      </c>
+      <c r="C45">
+        <v>90</v>
+      </c>
+      <c r="D45">
+        <v>0.246</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" t="s">
+        <v>152</v>
+      </c>
+      <c r="B46" t="s">
+        <v>67</v>
+      </c>
+      <c r="C46">
+        <v>90</v>
+      </c>
+      <c r="D46">
+        <v>0.246</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" t="s">
+        <v>151</v>
+      </c>
+      <c r="B47" t="s">
+        <v>67</v>
+      </c>
+      <c r="C47">
+        <v>120</v>
+      </c>
+      <c r="D47">
+        <v>0.20899999999999999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" t="s">
+        <v>152</v>
+      </c>
+      <c r="B48" t="s">
+        <v>67</v>
+      </c>
+      <c r="C48">
+        <v>120</v>
+      </c>
+      <c r="D48">
+        <v>0.152</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" t="s">
+        <v>151</v>
+      </c>
+      <c r="B49" t="s">
+        <v>67</v>
+      </c>
+      <c r="C49">
+        <v>120</v>
+      </c>
+      <c r="D49">
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" t="s">
+        <v>152</v>
+      </c>
+      <c r="B50" t="s">
+        <v>68</v>
+      </c>
+      <c r="C50">
+        <v>30</v>
+      </c>
+      <c r="D50">
+        <v>0.73399999999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" t="s">
+        <v>151</v>
+      </c>
+      <c r="B51" t="s">
+        <v>68</v>
+      </c>
+      <c r="C51">
+        <v>30</v>
+      </c>
+      <c r="D51">
+        <v>0.72799999999999998</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" t="s">
+        <v>152</v>
+      </c>
+      <c r="B52" t="s">
+        <v>68</v>
+      </c>
+      <c r="C52">
+        <v>30</v>
+      </c>
+      <c r="D52">
+        <v>0.71899999999999997</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" t="s">
+        <v>151</v>
+      </c>
+      <c r="B53" t="s">
+        <v>68</v>
+      </c>
+      <c r="C53">
+        <v>60</v>
+      </c>
+      <c r="D53">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" t="s">
+        <v>152</v>
+      </c>
+      <c r="B54" t="s">
+        <v>68</v>
+      </c>
+      <c r="C54">
+        <v>60</v>
+      </c>
+      <c r="D54">
+        <v>1.0369999999999999</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" t="s">
+        <v>151</v>
+      </c>
+      <c r="B55" t="s">
+        <v>68</v>
+      </c>
+      <c r="C55">
+        <v>60</v>
+      </c>
+      <c r="D55">
+        <v>1.0169999999999999</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" t="s">
+        <v>152</v>
+      </c>
+      <c r="B56" t="s">
+        <v>68</v>
+      </c>
+      <c r="C56">
+        <v>90</v>
+      </c>
+      <c r="D56">
+        <v>0.89800000000000002</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" t="s">
+        <v>151</v>
+      </c>
+      <c r="B57" t="s">
+        <v>68</v>
+      </c>
+      <c r="C57">
+        <v>90</v>
+      </c>
+      <c r="D57">
+        <v>0.91500000000000004</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" t="s">
+        <v>152</v>
+      </c>
+      <c r="B58" t="s">
+        <v>68</v>
+      </c>
+      <c r="C58">
+        <v>90</v>
+      </c>
+      <c r="D58">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" t="s">
+        <v>151</v>
+      </c>
+      <c r="B59" t="s">
+        <v>68</v>
+      </c>
+      <c r="C59">
+        <v>120</v>
+      </c>
+      <c r="D59">
+        <v>1.363</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" t="s">
+        <v>152</v>
+      </c>
+      <c r="B60" t="s">
+        <v>68</v>
+      </c>
+      <c r="C60">
+        <v>120</v>
+      </c>
+      <c r="D60">
+        <v>1.357</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" t="s">
+        <v>151</v>
+      </c>
+      <c r="B61" t="s">
+        <v>68</v>
+      </c>
+      <c r="C61">
+        <v>120</v>
+      </c>
+      <c r="D61">
+        <v>1.343</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10B8D198-DF4E-5A4D-80C0-879C2B2FE6E1}">
+  <dimension ref="A1:D23"/>
+  <sheetViews>
+    <sheetView topLeftCell="A9" zoomScale="150" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>-5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>0.2</v>
+      </c>
+      <c r="D3">
+        <v>3.5999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>0.5</v>
+      </c>
+      <c r="D4">
+        <v>0.10199999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>0.20699999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>0.435</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="D7">
+        <v>1.0509999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>10</v>
+      </c>
+      <c r="D8">
+        <v>1.958</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9">
+        <v>3</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>20</v>
+      </c>
+      <c r="D9">
+        <v>3.2559999999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10">
+        <v>3</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <v>0.2</v>
+      </c>
+      <c r="D10">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11">
+        <v>3</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>0.5</v>
+      </c>
+      <c r="D11">
+        <v>0.112</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12">
+        <v>3</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>0.214</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13">
+        <v>3</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13">
+        <v>0.44600000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14">
+        <v>3</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14">
+        <v>5</v>
+      </c>
+      <c r="D14">
+        <v>1.0429999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15">
+        <v>3</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>10</v>
+      </c>
+      <c r="D15">
+        <v>1.958</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16">
+        <v>3</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16">
+        <v>20</v>
+      </c>
+      <c r="D16">
+        <v>3.35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17">
+        <v>4</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="D17" s="1">
+        <v>4.1000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18">
+        <v>4</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0.115</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19">
+        <v>4</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0.20799999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20">
+        <v>4</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20" s="1">
+        <v>2</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0.438</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21">
+        <v>4</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21" s="1">
+        <v>5</v>
+      </c>
+      <c r="D21" s="1">
+        <v>1.0549999999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22">
+        <v>4</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22" s="1">
+        <v>10</v>
+      </c>
+      <c r="D22" s="1">
+        <v>1.9339999999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23">
+        <v>4</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23" s="1">
+        <v>20</v>
+      </c>
+      <c r="D23" s="1">
+        <v>3.331</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F043729-32A1-B842-8BA1-3C91CFC99C7F}">
   <dimension ref="A1:V33"/>
   <sheetViews>
@@ -15007,7 +16333,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFF7DF32-DC72-D048-BCBE-777A215F4A8A}">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="131" workbookViewId="0">
+    <sheetView zoomScale="131" workbookViewId="0">
       <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
@@ -15478,7 +16804,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A03A6169-8CF0-ED48-8CF0-B9C14BAC7314}">
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <sheetData>
@@ -15537,7 +16865,7 @@
         <v>11.6</v>
       </c>
       <c r="I2" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -21020,335 +22348,279 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10B8D198-DF4E-5A4D-80C0-879C2B2FE6E1}">
-  <dimension ref="A1:D23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DB83472-49D7-CF43-A7F9-2F2C47405939}">
+  <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="150" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>73</v>
+        <v>136</v>
       </c>
       <c r="B1" t="s">
-        <v>72</v>
+        <v>139</v>
       </c>
       <c r="C1" t="s">
-        <v>70</v>
+        <v>141</v>
       </c>
       <c r="D1" t="s">
-        <v>71</v>
+        <v>142</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2">
-        <v>3</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
+      <c r="A2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B2" s="1">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1">
+        <v>394.68</v>
+      </c>
+      <c r="D2" s="1">
+        <v>394.72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1.68</v>
+      </c>
+      <c r="C3" s="1">
+        <v>405.39</v>
+      </c>
+      <c r="D3" s="1">
+        <v>405.55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="C4" s="1">
+        <v>451.77</v>
+      </c>
+      <c r="D4" s="1">
+        <v>452.01</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>138</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1.19</v>
+      </c>
+      <c r="C5" s="1">
+        <v>398.99</v>
+      </c>
+      <c r="D5" s="1">
+        <v>399.58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>137</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1">
+        <v>404.22</v>
+      </c>
+      <c r="D6" s="1">
+        <v>524.16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>138</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0.84</v>
+      </c>
+      <c r="C7" s="1">
+        <v>396.99</v>
+      </c>
+      <c r="D7" s="1">
+        <v>742.72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>137</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0.71</v>
+      </c>
+      <c r="C8" s="1">
+        <v>333.56</v>
+      </c>
+      <c r="D8" s="1">
+        <v>779.72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>138</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0.59</v>
+      </c>
+      <c r="C9" s="1">
+        <v>352.92</v>
+      </c>
+      <c r="D9" s="1">
+        <v>594.07000000000005</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>137</v>
+      </c>
+      <c r="B10" s="1">
         <v>0</v>
       </c>
-      <c r="D2">
-        <v>-5.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3">
-        <v>3</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>0.2</v>
-      </c>
-      <c r="D3">
-        <v>3.5999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>0.5</v>
-      </c>
-      <c r="D4">
-        <v>0.10199999999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>0.20699999999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6">
-        <v>3</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>2</v>
-      </c>
-      <c r="D6">
-        <v>0.435</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7">
-        <v>3</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7">
-        <v>5</v>
-      </c>
-      <c r="D7">
-        <v>1.0509999999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8">
-        <v>3</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>10</v>
-      </c>
-      <c r="D8">
-        <v>1.958</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9">
-        <v>3</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9">
-        <v>20</v>
-      </c>
-      <c r="D9">
-        <v>3.2559999999999998</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10">
-        <v>3</v>
-      </c>
-      <c r="B10">
-        <v>2</v>
-      </c>
-      <c r="C10">
-        <v>0.2</v>
-      </c>
-      <c r="D10">
-        <v>0.05</v>
+      <c r="C10" s="1">
+        <v>359.71</v>
+      </c>
+      <c r="D10" s="1">
+        <v>523.78</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11">
-        <v>3</v>
-      </c>
-      <c r="B11">
-        <v>2</v>
-      </c>
-      <c r="C11">
-        <v>0.5</v>
-      </c>
-      <c r="D11">
-        <v>0.112</v>
+      <c r="A11" t="s">
+        <v>140</v>
+      </c>
+      <c r="B11" s="1">
+        <v>2</v>
+      </c>
+      <c r="C11" s="1">
+        <v>394.68</v>
+      </c>
+      <c r="D11" s="1">
+        <v>401.41</v>
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12">
-        <v>3</v>
-      </c>
-      <c r="B12">
-        <v>2</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12">
-        <v>0.214</v>
+      <c r="A12" t="s">
+        <v>140</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1.68</v>
+      </c>
+      <c r="C12" s="1">
+        <v>405.39</v>
+      </c>
+      <c r="D12" s="1">
+        <v>616.76</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13">
-        <v>3</v>
-      </c>
-      <c r="B13">
-        <v>2</v>
-      </c>
-      <c r="C13">
-        <v>2</v>
-      </c>
-      <c r="D13">
-        <v>0.44600000000000001</v>
+      <c r="A13" t="s">
+        <v>140</v>
+      </c>
+      <c r="B13" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="C13" s="1">
+        <v>451.77</v>
+      </c>
+      <c r="D13" s="1">
+        <v>769.52</v>
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14">
-        <v>3</v>
-      </c>
-      <c r="B14">
-        <v>2</v>
-      </c>
-      <c r="C14">
-        <v>5</v>
-      </c>
-      <c r="D14">
-        <v>1.0429999999999999</v>
+      <c r="A14" t="s">
+        <v>140</v>
+      </c>
+      <c r="B14" s="1">
+        <v>1.19</v>
+      </c>
+      <c r="C14" s="1">
+        <v>398.99</v>
+      </c>
+      <c r="D14" s="1">
+        <v>440.05</v>
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15">
-        <v>3</v>
-      </c>
-      <c r="B15">
-        <v>2</v>
-      </c>
-      <c r="C15">
-        <v>10</v>
-      </c>
-      <c r="D15">
-        <v>1.958</v>
+      <c r="A15" t="s">
+        <v>140</v>
+      </c>
+      <c r="B15" s="1">
+        <v>1</v>
+      </c>
+      <c r="C15" s="1">
+        <v>404.22</v>
+      </c>
+      <c r="D15" s="1">
+        <v>444.33</v>
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16">
-        <v>3</v>
-      </c>
-      <c r="B16">
-        <v>2</v>
-      </c>
-      <c r="C16">
-        <v>20</v>
-      </c>
-      <c r="D16">
-        <v>3.35</v>
+      <c r="A16" t="s">
+        <v>140</v>
+      </c>
+      <c r="B16" s="1">
+        <v>0.84</v>
+      </c>
+      <c r="C16" s="1">
+        <v>396.99</v>
+      </c>
+      <c r="D16" s="1">
+        <v>402.14</v>
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17">
-        <v>4</v>
-      </c>
-      <c r="B17">
-        <v>1</v>
+      <c r="A17" t="s">
+        <v>140</v>
+      </c>
+      <c r="B17" s="1">
+        <v>0.71</v>
       </c>
       <c r="C17" s="1">
-        <v>0.2</v>
+        <v>333.56</v>
       </c>
       <c r="D17" s="1">
-        <v>4.1000000000000002E-2</v>
+        <v>349.98</v>
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18">
-        <v>4</v>
-      </c>
-      <c r="B18">
-        <v>1</v>
+      <c r="A18" t="s">
+        <v>140</v>
+      </c>
+      <c r="B18" s="1">
+        <v>0.59</v>
       </c>
       <c r="C18" s="1">
-        <v>0.5</v>
+        <v>352.92</v>
       </c>
       <c r="D18" s="1">
-        <v>0.115</v>
+        <v>354.87</v>
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19">
-        <v>4</v>
-      </c>
-      <c r="B19">
-        <v>1</v>
+      <c r="A19" t="s">
+        <v>140</v>
+      </c>
+      <c r="B19" s="1">
+        <v>0</v>
       </c>
       <c r="C19" s="1">
-        <v>1</v>
+        <v>359.71</v>
       </c>
       <c r="D19" s="1">
-        <v>0.20799999999999999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20">
-        <v>4</v>
-      </c>
-      <c r="B20">
-        <v>1</v>
-      </c>
-      <c r="C20" s="1">
-        <v>2</v>
-      </c>
-      <c r="D20" s="1">
-        <v>0.438</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21">
-        <v>4</v>
-      </c>
-      <c r="B21">
-        <v>1</v>
-      </c>
-      <c r="C21" s="1">
-        <v>5</v>
-      </c>
-      <c r="D21" s="1">
-        <v>1.0549999999999999</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22">
-        <v>4</v>
-      </c>
-      <c r="B22">
-        <v>1</v>
-      </c>
-      <c r="C22" s="1">
-        <v>10</v>
-      </c>
-      <c r="D22" s="1">
-        <v>1.9339999999999999</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23">
-        <v>4</v>
-      </c>
-      <c r="B23">
-        <v>1</v>
-      </c>
-      <c r="C23" s="1">
-        <v>20</v>
-      </c>
-      <c r="D23" s="1">
-        <v>3.331</v>
+        <v>361.3</v>
       </c>
     </row>
   </sheetData>
